--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19972627-E11C-4A27-87B4-60435227EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9792721-397A-4894-92D2-64F7E5A04D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="system_settings" sheetId="1" r:id="rId1"/>
-    <sheet name="fuels" sheetId="2" r:id="rId2"/>
-    <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
-    <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId1"/>
+    <sheet name="system_settings" sheetId="1" r:id="rId2"/>
+    <sheet name="fuels" sheetId="2" r:id="rId3"/>
+    <sheet name="TimePeriods" sheetId="3" r:id="rId4"/>
+    <sheet name="System Settings" sheetId="4" r:id="rId5"/>
+    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="588">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,6 +681,1128 @@
   </si>
   <si>
     <t>Wind electricity produced in - Switzerland</t>
+  </si>
+  <si>
+    <t>~fi_comm</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH1-220</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH11-220</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH12-220</t>
+  </si>
+  <si>
+    <t>e_CH12-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH12-380</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH14-220</t>
+  </si>
+  <si>
+    <t>e_CH14-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH14-380</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH15-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH17-380</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH18-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH18-380</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH20-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH22-220</t>
+  </si>
+  <si>
+    <t>e_CH22-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH22-380</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH24-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH29-220</t>
+  </si>
+  <si>
+    <t>e_CH29-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH29-380</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH3-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH30-380</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH31-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH33-380</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH34-220</t>
+  </si>
+  <si>
+    <t>e_CH34-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH34-380</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH39-220</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH4-220</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH40-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH42-220</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH44-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH47-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH48-225</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH5-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH51-220</t>
+  </si>
+  <si>
+    <t>e_CH51-400</t>
+  </si>
+  <si>
+    <t>grid node -- CH51-400</t>
+  </si>
+  <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH53-225</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH57-220</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH59-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH60-225</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH7-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH9-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>grid node -- relation/5378910-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>grid node -- relation/7933294-380</t>
+  </si>
+  <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>grid node -- relation/9310861-220</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/100662075-220</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/108257952-220</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/109037817-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/109037817-380</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1092884227-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1105061707-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/1105061707-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/111162936-220</t>
+  </si>
+  <si>
+    <t>e_w111162936-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/111162936-380</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/11282314-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1208713169-220</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/122720993-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/127004407-380</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1284913429-220</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/130198336-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/132373704-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1327084723-220</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/140873735-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/146225999-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/147714395-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/147714395-380</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/148015471-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/159527493-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/161853746-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/165254212-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/165513396-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/165513396-380</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/177392130-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/177392130-400</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/190819048-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/192677427-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/192677427-380</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/194258388-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/207991759-380</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/207993342-220</t>
+  </si>
+  <si>
+    <t>e_w207993342-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/207993342-380</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/208780268-380</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/209324991-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/210568055-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/210568055-380</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/211907009-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/212498548-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/212722603-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/212722603-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/228003081-220</t>
+  </si>
+  <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/22899676-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/232662311-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/234983117-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/234983117-380</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/236819191-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/238138373-380</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/239937062-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/240575085-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/240959264-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/242269161-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/260211728-380</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/26166640-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/26843160-220</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/27107779-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/27435934-220</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281800404-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281803398-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281804158-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/281804158-380</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281809991-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281822905-220</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/30350721-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/31308888-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/33271433-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/35002638-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/35002638-380</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/35487135-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/356292116-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/356292116-380</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/35840165-380</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/36348118-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/364949845-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/364949845-380</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/365556107-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/391576135-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/391577741-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/397960460-380</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/402053379-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/402055336-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/431234146-220</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/50319857-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/50319857-380</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/50561341-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/52738225-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/52738225-380</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/55698557-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/55698557-225</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/71500123-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/71500123-380</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/758315582-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/758943072-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/802058337-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/802058337-225</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/83861269-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/87281514-220</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/89405664-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/89977424-220</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/92798668-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/92873516-220</t>
+  </si>
+  <si>
+    <t>e_w936521586-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/936521586-380</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/969811258-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/969811258-380</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/969819301-220</t>
+  </si>
+  <si>
+    <t>e_w969819301-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/969819301-380</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/97941869-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/98648381-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/98648381-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -703,7 +1826,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +2188,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,8 +2468,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1583,6 +2751,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2137,7 +3320,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,6 +3344,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="57" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -3007,10 +4197,4331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E5BEB-17B4-4EBB-98D0-063C8D6E31DD}">
+  <dimension ref="A1:J189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G164" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H164" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H166" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H168" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H169" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G172" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H172" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H180" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H181" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H182" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H186" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H187" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H188" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H189" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3078,7 +8589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
@@ -3389,7 +8900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
@@ -3670,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N40"/>
   <sheetViews>
@@ -4228,7 +9739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P93"/>
   <sheetViews>
@@ -5782,7 +11293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B830BD4E-705F-4F0B-9865-C51D0E44DB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B9201-6B3F-4484-9195-39680DE9DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids" sheetId="7" r:id="rId1"/>
-    <sheet name="system_settings" sheetId="1" r:id="rId2"/>
-    <sheet name="fuels" sheetId="2" r:id="rId3"/>
-    <sheet name="TimePeriods" sheetId="3" r:id="rId4"/>
-    <sheet name="System Settings" sheetId="4" r:id="rId5"/>
-    <sheet name="Constants" sheetId="5" r:id="rId6"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
+    <sheet name="system_settings" sheetId="1" r:id="rId1"/>
+    <sheet name="fuels" sheetId="2" r:id="rId2"/>
+    <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
+    <sheet name="System Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="Constants" sheetId="5" r:id="rId5"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -681,1128 +680,6 @@
   </si>
   <si>
     <t>Wind electricity produced in - Switzerland</t>
-  </si>
-  <si>
-    <t>~fi_comm</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>e_CH1-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH1-220</t>
-  </si>
-  <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>e_CH11-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH11-220</t>
-  </si>
-  <si>
-    <t>e_CH12-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH12-220</t>
-  </si>
-  <si>
-    <t>e_CH12-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH12-380</t>
-  </si>
-  <si>
-    <t>e_CH13-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH13-220</t>
-  </si>
-  <si>
-    <t>e_CH14-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH14-220</t>
-  </si>
-  <si>
-    <t>e_CH14-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH14-380</t>
-  </si>
-  <si>
-    <t>e_CH15-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH15-220</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH17-380</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH18-220</t>
-  </si>
-  <si>
-    <t>e_CH18-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH18-380</t>
-  </si>
-  <si>
-    <t>e_CH19-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH2-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH2-220</t>
-  </si>
-  <si>
-    <t>e_CH20-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH20-220</t>
-  </si>
-  <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH21-220</t>
-  </si>
-  <si>
-    <t>e_CH22-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH22-220</t>
-  </si>
-  <si>
-    <t>e_CH22-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH22-380</t>
-  </si>
-  <si>
-    <t>e_CH23-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH23-220</t>
-  </si>
-  <si>
-    <t>e_CH24-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH24-220</t>
-  </si>
-  <si>
-    <t>e_CH25-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH25-220</t>
-  </si>
-  <si>
-    <t>e_CH26-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH26-220</t>
-  </si>
-  <si>
-    <t>e_CH27-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH27-220</t>
-  </si>
-  <si>
-    <t>e_CH28-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH28-220</t>
-  </si>
-  <si>
-    <t>e_CH29-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH29-220</t>
-  </si>
-  <si>
-    <t>e_CH29-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH29-380</t>
-  </si>
-  <si>
-    <t>e_CH3-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH3-220</t>
-  </si>
-  <si>
-    <t>e_CH30-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH30-380</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH31-220</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH32-220</t>
-  </si>
-  <si>
-    <t>e_CH33-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH33-380</t>
-  </si>
-  <si>
-    <t>e_CH34-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH34-220</t>
-  </si>
-  <si>
-    <t>e_CH34-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH34-380</t>
-  </si>
-  <si>
-    <t>e_CH35-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH35-220</t>
-  </si>
-  <si>
-    <t>e_CH36-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH36-220</t>
-  </si>
-  <si>
-    <t>e_CH37-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH37-380</t>
-  </si>
-  <si>
-    <t>e_CH38-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH38-220</t>
-  </si>
-  <si>
-    <t>e_CH39-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH39-220</t>
-  </si>
-  <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH4-220</t>
-  </si>
-  <si>
-    <t>e_CH40-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH40-220</t>
-  </si>
-  <si>
-    <t>e_CH41-380</t>
-  </si>
-  <si>
-    <t>grid node -- CH41-380</t>
-  </si>
-  <si>
-    <t>e_CH42-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH42-220</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH43-220</t>
-  </si>
-  <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH44-220</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH46-220</t>
-  </si>
-  <si>
-    <t>e_CH47-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH47-220</t>
-  </si>
-  <si>
-    <t>e_CH48-225</t>
-  </si>
-  <si>
-    <t>grid node -- CH48-225</t>
-  </si>
-  <si>
-    <t>e_CH49-225</t>
-  </si>
-  <si>
-    <t>grid node -- CH49-225</t>
-  </si>
-  <si>
-    <t>e_CH5-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH5-220</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH50-220</t>
-  </si>
-  <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH51-220</t>
-  </si>
-  <si>
-    <t>e_CH51-400</t>
-  </si>
-  <si>
-    <t>grid node -- CH51-400</t>
-  </si>
-  <si>
-    <t>e_CH52-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH52-220</t>
-  </si>
-  <si>
-    <t>e_CH53-225</t>
-  </si>
-  <si>
-    <t>grid node -- CH53-225</t>
-  </si>
-  <si>
-    <t>e_CH56-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH56-220</t>
-  </si>
-  <si>
-    <t>e_CH57-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH57-220</t>
-  </si>
-  <si>
-    <t>e_CH58-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH58-220</t>
-  </si>
-  <si>
-    <t>e_CH59-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH59-220</t>
-  </si>
-  <si>
-    <t>e_CH6-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH6-220</t>
-  </si>
-  <si>
-    <t>e_CH60-225</t>
-  </si>
-  <si>
-    <t>grid node -- CH60-225</t>
-  </si>
-  <si>
-    <t>e_CH7-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH7-220</t>
-  </si>
-  <si>
-    <t>e_CH9-220</t>
-  </si>
-  <si>
-    <t>grid node -- CH9-220</t>
-  </si>
-  <si>
-    <t>e_r5378910-220</t>
-  </si>
-  <si>
-    <t>grid node -- relation/5378910-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>grid node -- relation/7933294-380</t>
-  </si>
-  <si>
-    <t>e_r9310861-220</t>
-  </si>
-  <si>
-    <t>grid node -- relation/9310861-220</t>
-  </si>
-  <si>
-    <t>e_w100662075-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/100662075-220</t>
-  </si>
-  <si>
-    <t>e_w108257952-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/108257952-220</t>
-  </si>
-  <si>
-    <t>e_w1086214433-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1086214433-220</t>
-  </si>
-  <si>
-    <t>e_w109037817-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/109037817-220</t>
-  </si>
-  <si>
-    <t>e_w109037817-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/109037817-380</t>
-  </si>
-  <si>
-    <t>e_w1092884227-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1092884227-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1105061707-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/1105061707-380</t>
-  </si>
-  <si>
-    <t>e_w111162936-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/111162936-220</t>
-  </si>
-  <si>
-    <t>e_w111162936-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/111162936-380</t>
-  </si>
-  <si>
-    <t>e_w11282314-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/11282314-220</t>
-  </si>
-  <si>
-    <t>e_w1208713169-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1208713169-220</t>
-  </si>
-  <si>
-    <t>e_w122720993-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/122720993-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/127004407-380</t>
-  </si>
-  <si>
-    <t>e_w1284913429-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1284913429-220</t>
-  </si>
-  <si>
-    <t>e_w130198336-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/130198336-220</t>
-  </si>
-  <si>
-    <t>e_w132373704-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/132373704-220</t>
-  </si>
-  <si>
-    <t>e_w1327084723-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/1327084723-220</t>
-  </si>
-  <si>
-    <t>e_w140873735-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/140873735-220</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/146225999-220</t>
-  </si>
-  <si>
-    <t>e_w147557680-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/147557680-220</t>
-  </si>
-  <si>
-    <t>e_w147714395-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/147714395-220</t>
-  </si>
-  <si>
-    <t>e_w147714395-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/147714395-380</t>
-  </si>
-  <si>
-    <t>e_w148015471-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/148015471-220</t>
-  </si>
-  <si>
-    <t>e_w159527493-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/159527493-220</t>
-  </si>
-  <si>
-    <t>e_w161853746-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/161853746-220</t>
-  </si>
-  <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/165254212-220</t>
-  </si>
-  <si>
-    <t>e_w165513396-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/165513396-220</t>
-  </si>
-  <si>
-    <t>e_w165513396-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/165513396-380</t>
-  </si>
-  <si>
-    <t>e_w177392130-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/177392130-220</t>
-  </si>
-  <si>
-    <t>e_w177392130-400</t>
-  </si>
-  <si>
-    <t>grid node -- way/177392130-400</t>
-  </si>
-  <si>
-    <t>e_w190819048-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/190819048-220</t>
-  </si>
-  <si>
-    <t>e_w192677427-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/192677427-220</t>
-  </si>
-  <si>
-    <t>e_w192677427-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/192677427-380</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/194258388-220</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/207991759-380</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/207993342-220</t>
-  </si>
-  <si>
-    <t>e_w207993342-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/207993342-380</t>
-  </si>
-  <si>
-    <t>e_w208780268-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/208780268-380</t>
-  </si>
-  <si>
-    <t>e_w209324991-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/209324991-220</t>
-  </si>
-  <si>
-    <t>e_w210568055-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/210568055-220</t>
-  </si>
-  <si>
-    <t>e_w210568055-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/210568055-380</t>
-  </si>
-  <si>
-    <t>e_w211907009-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/211907009-220</t>
-  </si>
-  <si>
-    <t>e_w212498548-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/212498548-220</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/212722603-220</t>
-  </si>
-  <si>
-    <t>e_w212722603-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/212722603-380</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/228003081-220</t>
-  </si>
-  <si>
-    <t>e_w22899676-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/22899676-220</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/232662311-220</t>
-  </si>
-  <si>
-    <t>e_w234983117-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/234983117-220</t>
-  </si>
-  <si>
-    <t>e_w234983117-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/234983117-380</t>
-  </si>
-  <si>
-    <t>e_w236819191-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/236819191-220</t>
-  </si>
-  <si>
-    <t>e_w238138373-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/238138373-380</t>
-  </si>
-  <si>
-    <t>e_w239937062-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/239937062-220</t>
-  </si>
-  <si>
-    <t>e_w240575085-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/240575085-220</t>
-  </si>
-  <si>
-    <t>e_w240959264-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/240959264-220</t>
-  </si>
-  <si>
-    <t>e_w242269161-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/242269161-220</t>
-  </si>
-  <si>
-    <t>e_w260211728-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/260211728-380</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/26166640-220</t>
-  </si>
-  <si>
-    <t>e_w26843160-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/26843160-220</t>
-  </si>
-  <si>
-    <t>e_w27107779-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/27107779-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/27435934-220</t>
-  </si>
-  <si>
-    <t>e_w281799252-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281799252-220</t>
-  </si>
-  <si>
-    <t>e_w281800404-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281800404-220</t>
-  </si>
-  <si>
-    <t>e_w281803398-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281803398-220</t>
-  </si>
-  <si>
-    <t>e_w281804158-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281804158-220</t>
-  </si>
-  <si>
-    <t>e_w281804158-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/281804158-380</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281809991-220</t>
-  </si>
-  <si>
-    <t>e_w281815404-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281815404-220</t>
-  </si>
-  <si>
-    <t>e_w281822905-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/281822905-220</t>
-  </si>
-  <si>
-    <t>e_w30350721-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/30350721-220</t>
-  </si>
-  <si>
-    <t>e_w31308888-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/31308888-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/33271433-220</t>
-  </si>
-  <si>
-    <t>e_w35002638-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/35002638-220</t>
-  </si>
-  <si>
-    <t>e_w35002638-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/35002638-380</t>
-  </si>
-  <si>
-    <t>e_w35487135-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/35487135-220</t>
-  </si>
-  <si>
-    <t>e_w356292116-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/356292116-220</t>
-  </si>
-  <si>
-    <t>e_w356292116-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/356292116-380</t>
-  </si>
-  <si>
-    <t>e_w35840165-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/35840165-380</t>
-  </si>
-  <si>
-    <t>e_w36348118-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/36348118-220</t>
-  </si>
-  <si>
-    <t>e_w364949845-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/364949845-220</t>
-  </si>
-  <si>
-    <t>e_w364949845-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/364949845-380</t>
-  </si>
-  <si>
-    <t>e_w365556107-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/365556107-220</t>
-  </si>
-  <si>
-    <t>e_w391576135-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/391576135-220</t>
-  </si>
-  <si>
-    <t>e_w391577741-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/391577741-220</t>
-  </si>
-  <si>
-    <t>e_w397960460-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/397960460-380</t>
-  </si>
-  <si>
-    <t>e_w402053379-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/402053379-220</t>
-  </si>
-  <si>
-    <t>e_w402055336-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/402055336-220</t>
-  </si>
-  <si>
-    <t>e_w431234146-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/431234146-220</t>
-  </si>
-  <si>
-    <t>e_w44496892-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/44496892-220</t>
-  </si>
-  <si>
-    <t>e_w455120191-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/455120191-220</t>
-  </si>
-  <si>
-    <t>e_w50319857-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/50319857-220</t>
-  </si>
-  <si>
-    <t>e_w50319857-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/50319857-380</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/50561341-220</t>
-  </si>
-  <si>
-    <t>e_w52738225-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/52738225-220</t>
-  </si>
-  <si>
-    <t>e_w52738225-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/52738225-380</t>
-  </si>
-  <si>
-    <t>e_w55695765-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/55695765-220</t>
-  </si>
-  <si>
-    <t>e_w55698557-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/55698557-220</t>
-  </si>
-  <si>
-    <t>e_w55698557-225</t>
-  </si>
-  <si>
-    <t>grid node -- way/55698557-225</t>
-  </si>
-  <si>
-    <t>e_w71500123-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/71500123-220</t>
-  </si>
-  <si>
-    <t>e_w71500123-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/71500123-380</t>
-  </si>
-  <si>
-    <t>e_w758315582-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/758315582-220</t>
-  </si>
-  <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/758943072-220</t>
-  </si>
-  <si>
-    <t>e_w802058337-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/802058337-220</t>
-  </si>
-  <si>
-    <t>e_w802058337-225</t>
-  </si>
-  <si>
-    <t>grid node -- way/802058337-225</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/83861269-220</t>
-  </si>
-  <si>
-    <t>e_w87281514-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/87281514-220</t>
-  </si>
-  <si>
-    <t>e_w89405664-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/89405664-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/89977424-220</t>
-  </si>
-  <si>
-    <t>e_w92798668-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/92798668-220</t>
-  </si>
-  <si>
-    <t>e_w92873516-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/92873516-220</t>
-  </si>
-  <si>
-    <t>e_w936521586-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/936521586-380</t>
-  </si>
-  <si>
-    <t>e_w969811258-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/969811258-220</t>
-  </si>
-  <si>
-    <t>e_w969811258-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/969811258-380</t>
-  </si>
-  <si>
-    <t>e_w969819301-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/969819301-220</t>
-  </si>
-  <si>
-    <t>e_w969819301-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/969819301-380</t>
-  </si>
-  <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/97941869-220</t>
-  </si>
-  <si>
-    <t>e_w98648381-220</t>
-  </si>
-  <si>
-    <t>grid node -- way/98648381-220</t>
-  </si>
-  <si>
-    <t>e_w98648381-380</t>
-  </si>
-  <si>
-    <t>grid node -- way/98648381-380</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +703,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2188,35 +1065,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="50">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2468,26 +1318,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2751,21 +1583,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3320,7 +2137,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -3344,13 +2161,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="57" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -4197,4331 +3007,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39BC666-10F9-4E96-9996-251449BF7250}">
-  <dimension ref="A1:J189"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="B3" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H88" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G113" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8">
-      <c r="B119" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="B120" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H120" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H130" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H133" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D137" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H141" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8">
-      <c r="B145" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H147" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H153" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8">
-      <c r="B154" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H155" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8">
-      <c r="B156" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H156" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G157" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8">
-      <c r="B158" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H158" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8">
-      <c r="B159" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H159" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8">
-      <c r="B160" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8">
-      <c r="B161" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E161" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F161" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H161" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8">
-      <c r="B162" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="E162" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H162" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8">
-      <c r="B163" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H163" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8">
-      <c r="B164" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="D164" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F164" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H164" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8">
-      <c r="B165" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G165" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H165" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8">
-      <c r="B166" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="D166" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F166" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H166" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="B167" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F167" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H167" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H168" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8">
-      <c r="B169" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="E169" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H169" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H170" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="B171" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="D171" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H171" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8">
-      <c r="B172" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H172" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8">
-      <c r="B173" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H173" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8">
-      <c r="B174" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F174" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8">
-      <c r="B175" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D175" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="E175" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F175" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G175" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H175" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8">
-      <c r="B176" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H176" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8">
-      <c r="B177" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="D177" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F177" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H177" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8">
-      <c r="B178" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8">
-      <c r="B179" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F179" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G179" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H179" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8">
-      <c r="B180" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E180" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F180" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H180" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8">
-      <c r="B181" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="E181" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F181" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G181" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H181" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8">
-      <c r="B182" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="E182" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F182" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H182" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8">
-      <c r="B183" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="D183" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F183" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H183" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8">
-      <c r="B184" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G184" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H184" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8">
-      <c r="B185" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C185" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D185" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F185" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H185" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8">
-      <c r="B186" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C186" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E186" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G186" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H186" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8">
-      <c r="B187" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="D187" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F187" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G187" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H187" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8">
-      <c r="B188" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F188" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G188" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H188" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8">
-      <c r="B189" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D189" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H189" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -8589,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
@@ -8900,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
@@ -9181,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N40"/>
   <sheetViews>
@@ -9739,7 +4228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P93"/>
   <sheetViews>
@@ -11293,7 +5782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B9201-6B3F-4484-9195-39680DE9DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F33934-A920-459E-9948-B423746E03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="system_settings" sheetId="1" r:id="rId1"/>
-    <sheet name="fuels" sheetId="2" r:id="rId2"/>
-    <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
-    <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId1"/>
+    <sheet name="system_settings" sheetId="1" r:id="rId2"/>
+    <sheet name="fuels" sheetId="2" r:id="rId3"/>
+    <sheet name="TimePeriods" sheetId="3" r:id="rId4"/>
+    <sheet name="System Settings" sheetId="4" r:id="rId5"/>
+    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="526">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,6 +681,942 @@
   </si>
   <si>
     <t>Wind electricity produced in - Switzerland</t>
+  </si>
+  <si>
+    <t>~fi_comm</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>CH1-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH1-220</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>CH11-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH11-220</t>
+  </si>
+  <si>
+    <t>CH12-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH12-220,CH12-380</t>
+  </si>
+  <si>
+    <t>CH13-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH13-220</t>
+  </si>
+  <si>
+    <t>CH14-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH14-220,CH14-380</t>
+  </si>
+  <si>
+    <t>CH15-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH15-220</t>
+  </si>
+  <si>
+    <t>CH16-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH16-380</t>
+  </si>
+  <si>
+    <t>CH17-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH17-380</t>
+  </si>
+  <si>
+    <t>CH18-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH18-220,CH18-380</t>
+  </si>
+  <si>
+    <t>CH19-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH19-220</t>
+  </si>
+  <si>
+    <t>CH2-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH2-220</t>
+  </si>
+  <si>
+    <t>CH20-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH20-220</t>
+  </si>
+  <si>
+    <t>CH21-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH21-220</t>
+  </si>
+  <si>
+    <t>CH22-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH22-220,CH22-380</t>
+  </si>
+  <si>
+    <t>CH23-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH23-220</t>
+  </si>
+  <si>
+    <t>CH24-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH24-220</t>
+  </si>
+  <si>
+    <t>CH25-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH25-220</t>
+  </si>
+  <si>
+    <t>CH26-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH26-220</t>
+  </si>
+  <si>
+    <t>CH27-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH27-220</t>
+  </si>
+  <si>
+    <t>CH28-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH28-220</t>
+  </si>
+  <si>
+    <t>CH29-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH29-220,CH29-380</t>
+  </si>
+  <si>
+    <t>CH3-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH3-220</t>
+  </si>
+  <si>
+    <t>CH30-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH30-380</t>
+  </si>
+  <si>
+    <t>CH31-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH31-220</t>
+  </si>
+  <si>
+    <t>CH32-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH32-220</t>
+  </si>
+  <si>
+    <t>CH33-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH33-380</t>
+  </si>
+  <si>
+    <t>CH34-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH34-220,CH34-380</t>
+  </si>
+  <si>
+    <t>CH35-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH35-220</t>
+  </si>
+  <si>
+    <t>CH36-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH36-220</t>
+  </si>
+  <si>
+    <t>CH37-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH37-380</t>
+  </si>
+  <si>
+    <t>CH38-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH38-220</t>
+  </si>
+  <si>
+    <t>CH39-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH39-220</t>
+  </si>
+  <si>
+    <t>CH4-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH4-220</t>
+  </si>
+  <si>
+    <t>CH40-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH40-220</t>
+  </si>
+  <si>
+    <t>CH41-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH41-380</t>
+  </si>
+  <si>
+    <t>CH42-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH42-220</t>
+  </si>
+  <si>
+    <t>CH43-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH43-220</t>
+  </si>
+  <si>
+    <t>CH44-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH44-220</t>
+  </si>
+  <si>
+    <t>CH45-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH45-220</t>
+  </si>
+  <si>
+    <t>CH46-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH46-220</t>
+  </si>
+  <si>
+    <t>CH47-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH47-220</t>
+  </si>
+  <si>
+    <t>CH48-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH48-225</t>
+  </si>
+  <si>
+    <t>CH49-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH49-225</t>
+  </si>
+  <si>
+    <t>CH5-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH5-220</t>
+  </si>
+  <si>
+    <t>CH50-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH50-220</t>
+  </si>
+  <si>
+    <t>CH51-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400</t>
+  </si>
+  <si>
+    <t>CH52-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH52-220</t>
+  </si>
+  <si>
+    <t>CH53-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH53-225</t>
+  </si>
+  <si>
+    <t>CH56-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH56-220</t>
+  </si>
+  <si>
+    <t>CH57-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH57-220,CH57-225</t>
+  </si>
+  <si>
+    <t>CH58-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH58-220</t>
+  </si>
+  <si>
+    <t>CH59-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH59-220</t>
+  </si>
+  <si>
+    <t>CH6-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH6-220</t>
+  </si>
+  <si>
+    <t>CH60-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH60-225,way/936521586-380</t>
+  </si>
+  <si>
+    <t>CH7-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH7-220</t>
+  </si>
+  <si>
+    <t>CH9-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH9-220</t>
+  </si>
+  <si>
+    <t>r5378910-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/5378910-220</t>
+  </si>
+  <si>
+    <t>r7933294-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/7933294-380</t>
+  </si>
+  <si>
+    <t>r9310861-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/9310861-220</t>
+  </si>
+  <si>
+    <t>w100662075-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/100662075-220</t>
+  </si>
+  <si>
+    <t>w108257952-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/108257952-220</t>
+  </si>
+  <si>
+    <t>w1086214433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1086214433-220</t>
+  </si>
+  <si>
+    <t>w109037817-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/109037817-220,way/109037817-380</t>
+  </si>
+  <si>
+    <t>w1092884227-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1092884227-220</t>
+  </si>
+  <si>
+    <t>w1105061707-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1105061707-220,way/1105061707-380</t>
+  </si>
+  <si>
+    <t>w111162936-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/111162936-220,way/111162936-380,way/111162936-400</t>
+  </si>
+  <si>
+    <t>w11282314-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/11282314-220</t>
+  </si>
+  <si>
+    <t>w1208713169-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1208713169-220</t>
+  </si>
+  <si>
+    <t>w122720993-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/122720993-220</t>
+  </si>
+  <si>
+    <t>w127004407-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
+  </si>
+  <si>
+    <t>w1284913429-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1284913429-220,way/165513396-220,way/165513396-380</t>
+  </si>
+  <si>
+    <t>w130198336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/130198336-220</t>
+  </si>
+  <si>
+    <t>w132373704-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/132373704-220</t>
+  </si>
+  <si>
+    <t>w1327084723-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1327084723-220</t>
+  </si>
+  <si>
+    <t>w140873735-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/140873735-220</t>
+  </si>
+  <si>
+    <t>w146225999-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/146225999-220</t>
+  </si>
+  <si>
+    <t>w147557680-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/147557680-220</t>
+  </si>
+  <si>
+    <t>w147714395-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/147714395-220,way/147714395-380</t>
+  </si>
+  <si>
+    <t>w148015471-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/148015471-220</t>
+  </si>
+  <si>
+    <t>w159527493-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/159527493-220</t>
+  </si>
+  <si>
+    <t>w161853746-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/161853746-220</t>
+  </si>
+  <si>
+    <t>w165254212-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/165254212-220</t>
+  </si>
+  <si>
+    <t>w177392130-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/177392130-220,way/177392130-400</t>
+  </si>
+  <si>
+    <t>w190819048-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/190819048-220</t>
+  </si>
+  <si>
+    <t>w192677427-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/192677427-220,way/192677427-380</t>
+  </si>
+  <si>
+    <t>w194258388-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/194258388-220</t>
+  </si>
+  <si>
+    <t>w207991759-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/207991759-380</t>
+  </si>
+  <si>
+    <t>w207993342-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/207993342-220,way/207993342-380</t>
+  </si>
+  <si>
+    <t>w208780268-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/208780268-380</t>
+  </si>
+  <si>
+    <t>w209324991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/209324991-220</t>
+  </si>
+  <si>
+    <t>w210568055-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/210568055-220,way/210568055-380</t>
+  </si>
+  <si>
+    <t>w211907009-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/211907009-220</t>
+  </si>
+  <si>
+    <t>w212498548-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/212498548-220</t>
+  </si>
+  <si>
+    <t>w212722603-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/212722603-220,way/212722603-380</t>
+  </si>
+  <si>
+    <t>w228003081-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/228003081-220</t>
+  </si>
+  <si>
+    <t>w22899676-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/22899676-220</t>
+  </si>
+  <si>
+    <t>w232662311-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/232662311-220</t>
+  </si>
+  <si>
+    <t>w234983117-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/234983117-220,way/234983117-380</t>
+  </si>
+  <si>
+    <t>w236819191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/236819191-220</t>
+  </si>
+  <si>
+    <t>w238138373-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/238138373-380</t>
+  </si>
+  <si>
+    <t>w239937062-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/239937062-220</t>
+  </si>
+  <si>
+    <t>w240575085-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/240575085-220</t>
+  </si>
+  <si>
+    <t>w240959264-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/240959264-220</t>
+  </si>
+  <si>
+    <t>w242269161-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/242269161-220</t>
+  </si>
+  <si>
+    <t>w260211728-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/260211728-225,way/260211728-380</t>
+  </si>
+  <si>
+    <t>w26166640-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/26166640-220</t>
+  </si>
+  <si>
+    <t>w26843160-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/26843160-220</t>
+  </si>
+  <si>
+    <t>w27107779-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/27107779-220</t>
+  </si>
+  <si>
+    <t>w27435934-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/27435934-220</t>
+  </si>
+  <si>
+    <t>w281799252-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281799252-220</t>
+  </si>
+  <si>
+    <t>w281800404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281800404-220</t>
+  </si>
+  <si>
+    <t>w281803398-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281803398-220</t>
+  </si>
+  <si>
+    <t>w281804158-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281804158-220,way/281804158-380</t>
+  </si>
+  <si>
+    <t>w281809991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281809991-220</t>
+  </si>
+  <si>
+    <t>w281815404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281815404-220</t>
+  </si>
+  <si>
+    <t>w281822905-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281822905-220</t>
+  </si>
+  <si>
+    <t>w30350721-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/30350721-220</t>
+  </si>
+  <si>
+    <t>w31308888-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/31308888-220</t>
+  </si>
+  <si>
+    <t>w33271433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/33271433-220</t>
+  </si>
+  <si>
+    <t>w35002638-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35002638-220,way/35002638-380</t>
+  </si>
+  <si>
+    <t>w35487135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35487135-220</t>
+  </si>
+  <si>
+    <t>w356292116-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/356292116-220,way/356292116-380</t>
+  </si>
+  <si>
+    <t>w35840165-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35840165-380</t>
+  </si>
+  <si>
+    <t>w36348118-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/36348118-220</t>
+  </si>
+  <si>
+    <t>w364949845-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/364949845-220,way/364949845-380</t>
+  </si>
+  <si>
+    <t>w365556107-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/365556107-220</t>
+  </si>
+  <si>
+    <t>w391576135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/391576135-220</t>
+  </si>
+  <si>
+    <t>w391577741-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/391577741-220</t>
+  </si>
+  <si>
+    <t>w397960460-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/397960460-380,way/397960460-400</t>
+  </si>
+  <si>
+    <t>w402053379-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/402053379-220</t>
+  </si>
+  <si>
+    <t>w402055336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/402055336-220</t>
+  </si>
+  <si>
+    <t>w431234146-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/431234146-220</t>
+  </si>
+  <si>
+    <t>w44496892-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/44496892-220</t>
+  </si>
+  <si>
+    <t>w455120191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/455120191-220</t>
+  </si>
+  <si>
+    <t>w50319857-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/50319857-220,way/50319857-380,way/50319857-400</t>
+  </si>
+  <si>
+    <t>w50561341-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/50561341-220</t>
+  </si>
+  <si>
+    <t>w52738225-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/52738225-220,way/52738225-380</t>
+  </si>
+  <si>
+    <t>w55695765-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/55695765-220</t>
+  </si>
+  <si>
+    <t>w55698557-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/55698557-220,way/55698557-225</t>
+  </si>
+  <si>
+    <t>w71500123-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/71500123-220,way/71500123-380</t>
+  </si>
+  <si>
+    <t>w758315582-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/758315582-220</t>
+  </si>
+  <si>
+    <t>w758943072-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/758943072-220</t>
+  </si>
+  <si>
+    <t>w802058337-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/802058337-220,way/802058337-225</t>
+  </si>
+  <si>
+    <t>w83861269-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/83861269-220</t>
+  </si>
+  <si>
+    <t>w87281514-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/87281514-220</t>
+  </si>
+  <si>
+    <t>w88901626-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/88901626-380</t>
+  </si>
+  <si>
+    <t>w89405664-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/89405664-220</t>
+  </si>
+  <si>
+    <t>w89977424-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/89977424-220</t>
+  </si>
+  <si>
+    <t>w92798668-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/92798668-220</t>
+  </si>
+  <si>
+    <t>w92873516-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/92873516-220</t>
+  </si>
+  <si>
+    <t>w969811258-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/969811258-220,way/969811258-380</t>
+  </si>
+  <si>
+    <t>w969819301-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/969819301-220,way/969819301-380</t>
+  </si>
+  <si>
+    <t>w97941869-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/97941869-220</t>
+  </si>
+  <si>
+    <t>w98648381-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/98648381-220,way/98648381-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -703,7 +1640,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +2002,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,8 +2282,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1583,6 +2565,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2137,7 +3134,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,6 +3158,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="57" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -3007,10 +4011,3618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752B8ACE-AC98-4E78-86B4-6B4409602D4F}">
+  <dimension ref="A1:J158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3078,7 +7690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
@@ -3389,7 +8001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
@@ -3670,7 +8282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N40"/>
   <sheetViews>
@@ -4228,7 +8840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P93"/>
   <sheetViews>
@@ -5782,7 +10394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F33934-A920-459E-9948-B423746E03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F40F6C-8950-48EF-AC2A-D9809339E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="622">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -662,31 +662,319 @@
     <t>CHE</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>ELC_Sol-CHE</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0000</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_0</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
-    <t>Solar electricity produced in - Switzerland</t>
-  </si>
-  <si>
-    <t>ELC_Win-CHE</t>
-  </si>
-  <si>
-    <t>Wind electricity produced in - Switzerland</t>
+    <t>elc_sol-CHE_0001</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_1</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0002</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_2</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0003</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_3</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0004</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_4</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0005</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_5</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0006</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_6</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0007</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_7</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0008</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_8</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0009</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_9</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0010</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_10</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0011</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_11</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0012</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_12</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0013</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_13</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0014</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_14</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0015</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_15</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0017</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_17</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0018</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_18</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0019</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_19</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0020</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_20</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0021</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_21</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0022</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_22</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0023</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_23</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0024</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_24</t>
+  </si>
+  <si>
+    <t>elc_sol-CHE_0025</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_25</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0000</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_0</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0001</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_1</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0002</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_2</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0003</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_3</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0004</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_4</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0005</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_5</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0006</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_6</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0007</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_7</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0008</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_8</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0009</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_9</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0010</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_10</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0011</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_11</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0012</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_12</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0013</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_13</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0014</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_14</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0015</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_15</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0016</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_16</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0017</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_17</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0018</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_18</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0019</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_19</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0020</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_20</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0021</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_21</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0022</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_22</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0023</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_23</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0024</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_24</t>
+  </si>
+  <si>
+    <t>elc_win-CHE_0025</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_25</t>
   </si>
   <si>
     <t>~fi_comm</t>
-  </si>
-  <si>
-    <t>set</t>
   </si>
   <si>
     <t>CH1-220</t>
@@ -4011,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752B8ACE-AC98-4E78-86B4-6B4409602D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD55A0-35F5-45D5-98C6-DE126109475E}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4028,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4042,12 +4330,12 @@
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="B4" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>10</v>
@@ -4073,10 +4361,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>29</v>
@@ -4085,7 +4373,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>210</v>
@@ -4096,10 +4384,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>29</v>
@@ -4108,7 +4396,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>210</v>
@@ -4119,10 +4407,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>29</v>
@@ -4131,7 +4419,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>210</v>
@@ -4142,10 +4430,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>29</v>
@@ -4154,7 +4442,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>210</v>
@@ -4165,10 +4453,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>29</v>
@@ -4177,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>210</v>
@@ -4188,10 +4476,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>29</v>
@@ -4200,7 +4488,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>210</v>
@@ -4211,10 +4499,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>29</v>
@@ -4223,7 +4511,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>210</v>
@@ -4234,10 +4522,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>29</v>
@@ -4246,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>210</v>
@@ -4257,10 +4545,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>29</v>
@@ -4269,7 +4557,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>210</v>
@@ -4280,10 +4568,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>29</v>
@@ -4292,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>210</v>
@@ -4303,10 +4591,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>29</v>
@@ -4315,7 +4603,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>210</v>
@@ -4326,10 +4614,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>29</v>
@@ -4338,7 +4626,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>210</v>
@@ -4349,10 +4637,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>29</v>
@@ -4361,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>210</v>
@@ -4372,10 +4660,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>29</v>
@@ -4384,7 +4672,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>210</v>
@@ -4395,10 +4683,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>29</v>
@@ -4407,7 +4695,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>210</v>
@@ -4418,10 +4706,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>29</v>
@@ -4430,7 +4718,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>210</v>
@@ -4441,10 +4729,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>29</v>
@@ -4453,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>210</v>
@@ -4464,10 +4752,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>29</v>
@@ -4476,7 +4764,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>210</v>
@@ -4487,10 +4775,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>29</v>
@@ -4499,7 +4787,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>210</v>
@@ -4510,10 +4798,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>29</v>
@@ -4522,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>210</v>
@@ -4533,10 +4821,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>29</v>
@@ -4545,7 +4833,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>210</v>
@@ -4556,10 +4844,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>29</v>
@@ -4568,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>210</v>
@@ -4579,10 +4867,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -4591,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>210</v>
@@ -4602,10 +4890,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>29</v>
@@ -4614,7 +4902,7 @@
         <v>39</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>210</v>
@@ -4625,10 +4913,10 @@
         <v>17</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>29</v>
@@ -4637,7 +4925,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>210</v>
@@ -4648,10 +4936,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>29</v>
@@ -4660,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>210</v>
@@ -4671,10 +4959,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>29</v>
@@ -4683,7 +4971,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>210</v>
@@ -4694,10 +4982,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>29</v>
@@ -4706,7 +4994,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>210</v>
@@ -4717,10 +5005,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>29</v>
@@ -4729,7 +5017,7 @@
         <v>39</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>210</v>
@@ -4740,10 +5028,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>29</v>
@@ -4752,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>210</v>
@@ -4763,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>29</v>
@@ -4775,7 +5063,7 @@
         <v>39</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>210</v>
@@ -4786,10 +5074,10 @@
         <v>17</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>29</v>
@@ -4798,7 +5086,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>210</v>
@@ -4809,10 +5097,10 @@
         <v>17</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>29</v>
@@ -4821,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>210</v>
@@ -4832,10 +5120,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>29</v>
@@ -4844,7 +5132,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>210</v>
@@ -4855,10 +5143,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>29</v>
@@ -4867,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>210</v>
@@ -4878,10 +5166,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>29</v>
@@ -4890,7 +5178,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>210</v>
@@ -4901,10 +5189,10 @@
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>29</v>
@@ -4913,7 +5201,7 @@
         <v>39</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>210</v>
@@ -4924,10 +5212,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>29</v>
@@ -4936,7 +5224,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>210</v>
@@ -4947,10 +5235,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>29</v>
@@ -4959,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>210</v>
@@ -4970,10 +5258,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>29</v>
@@ -4982,7 +5270,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>210</v>
@@ -4993,10 +5281,10 @@
         <v>17</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>29</v>
@@ -5005,7 +5293,7 @@
         <v>39</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>210</v>
@@ -5016,10 +5304,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>29</v>
@@ -5028,7 +5316,7 @@
         <v>39</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>210</v>
@@ -5039,10 +5327,10 @@
         <v>17</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>29</v>
@@ -5051,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>210</v>
@@ -5062,10 +5350,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>29</v>
@@ -5074,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>210</v>
@@ -5085,10 +5373,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>29</v>
@@ -5097,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>210</v>
@@ -5108,10 +5396,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>29</v>
@@ -5120,7 +5408,7 @@
         <v>39</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>210</v>
@@ -5131,10 +5419,10 @@
         <v>17</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>29</v>
@@ -5143,7 +5431,7 @@
         <v>39</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>210</v>
@@ -5154,10 +5442,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>311</v>
+        <v>407</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>29</v>
@@ -5166,7 +5454,7 @@
         <v>39</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>210</v>
@@ -5177,10 +5465,10 @@
         <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>29</v>
@@ -5189,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>210</v>
@@ -5200,10 +5488,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>29</v>
@@ -5212,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>210</v>
@@ -5223,10 +5511,10 @@
         <v>17</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>29</v>
@@ -5235,7 +5523,7 @@
         <v>39</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>210</v>
@@ -5246,10 +5534,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>29</v>
@@ -5258,7 +5546,7 @@
         <v>39</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>210</v>
@@ -5269,10 +5557,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>29</v>
@@ -5281,7 +5569,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>210</v>
@@ -5292,10 +5580,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>29</v>
@@ -5304,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>210</v>
@@ -5315,10 +5603,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>29</v>
@@ -5327,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>210</v>
@@ -5338,10 +5626,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>29</v>
@@ -5350,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>210</v>
@@ -5361,10 +5649,10 @@
         <v>17</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>29</v>
@@ -5373,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>210</v>
@@ -5384,10 +5672,10 @@
         <v>17</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>29</v>
@@ -5396,7 +5684,7 @@
         <v>39</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>210</v>
@@ -5407,10 +5695,10 @@
         <v>17</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>29</v>
@@ -5419,7 +5707,7 @@
         <v>39</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>210</v>
@@ -5430,10 +5718,10 @@
         <v>17</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>29</v>
@@ -5442,7 +5730,7 @@
         <v>39</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>210</v>
@@ -5453,10 +5741,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>29</v>
@@ -5465,7 +5753,7 @@
         <v>39</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H65" s="24" t="s">
         <v>210</v>
@@ -5476,10 +5764,10 @@
         <v>17</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>29</v>
@@ -5488,7 +5776,7 @@
         <v>39</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>210</v>
@@ -5499,10 +5787,10 @@
         <v>17</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>29</v>
@@ -5511,7 +5799,7 @@
         <v>39</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>210</v>
@@ -5522,10 +5810,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>29</v>
@@ -5534,7 +5822,7 @@
         <v>39</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>210</v>
@@ -5545,10 +5833,10 @@
         <v>17</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>29</v>
@@ -5557,7 +5845,7 @@
         <v>39</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>210</v>
@@ -5568,10 +5856,10 @@
         <v>17</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>29</v>
@@ -5580,7 +5868,7 @@
         <v>39</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>210</v>
@@ -5591,10 +5879,10 @@
         <v>17</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>29</v>
@@ -5603,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>210</v>
@@ -5614,10 +5902,10 @@
         <v>17</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>29</v>
@@ -5626,7 +5914,7 @@
         <v>39</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>210</v>
@@ -5637,10 +5925,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>29</v>
@@ -5649,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H73" s="24" t="s">
         <v>210</v>
@@ -5660,10 +5948,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>29</v>
@@ -5672,7 +5960,7 @@
         <v>39</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>210</v>
@@ -5683,10 +5971,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>29</v>
@@ -5695,7 +5983,7 @@
         <v>39</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H75" s="24" t="s">
         <v>210</v>
@@ -5706,10 +5994,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>29</v>
@@ -5718,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>210</v>
@@ -5729,10 +6017,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>29</v>
@@ -5741,7 +6029,7 @@
         <v>39</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H77" s="24" t="s">
         <v>210</v>
@@ -5752,10 +6040,10 @@
         <v>17</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>29</v>
@@ -5764,7 +6052,7 @@
         <v>39</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>210</v>
@@ -5775,10 +6063,10 @@
         <v>17</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>29</v>
@@ -5787,7 +6075,7 @@
         <v>39</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H79" s="24" t="s">
         <v>210</v>
@@ -5798,10 +6086,10 @@
         <v>17</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>29</v>
@@ -5810,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>210</v>
@@ -5821,10 +6109,10 @@
         <v>17</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>29</v>
@@ -5833,7 +6121,7 @@
         <v>39</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H81" s="24" t="s">
         <v>210</v>
@@ -5844,10 +6132,10 @@
         <v>17</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>29</v>
@@ -5856,7 +6144,7 @@
         <v>39</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>210</v>
@@ -5867,10 +6155,10 @@
         <v>17</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>29</v>
@@ -5879,7 +6167,7 @@
         <v>39</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>210</v>
@@ -5890,10 +6178,10 @@
         <v>17</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>29</v>
@@ -5902,7 +6190,7 @@
         <v>39</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>210</v>
@@ -5913,10 +6201,10 @@
         <v>17</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>29</v>
@@ -5925,7 +6213,7 @@
         <v>39</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H85" s="24" t="s">
         <v>210</v>
@@ -5936,10 +6224,10 @@
         <v>17</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>29</v>
@@ -5948,7 +6236,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H86" s="25" t="s">
         <v>210</v>
@@ -5959,10 +6247,10 @@
         <v>17</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="E87" s="24" t="s">
         <v>29</v>
@@ -5971,7 +6259,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H87" s="24" t="s">
         <v>210</v>
@@ -5982,10 +6270,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>29</v>
@@ -5994,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H88" s="25" t="s">
         <v>210</v>
@@ -6005,10 +6293,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="E89" s="24" t="s">
         <v>29</v>
@@ -6017,7 +6305,7 @@
         <v>39</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H89" s="24" t="s">
         <v>210</v>
@@ -6028,10 +6316,10 @@
         <v>17</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>29</v>
@@ -6040,7 +6328,7 @@
         <v>39</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H90" s="25" t="s">
         <v>210</v>
@@ -6051,10 +6339,10 @@
         <v>17</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>29</v>
@@ -6063,7 +6351,7 @@
         <v>39</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H91" s="24" t="s">
         <v>210</v>
@@ -6074,10 +6362,10 @@
         <v>17</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>391</v>
+        <v>487</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>29</v>
@@ -6086,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H92" s="25" t="s">
         <v>210</v>
@@ -6097,10 +6385,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>29</v>
@@ -6109,7 +6397,7 @@
         <v>39</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H93" s="24" t="s">
         <v>210</v>
@@ -6120,10 +6408,10 @@
         <v>17</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>29</v>
@@ -6132,7 +6420,7 @@
         <v>39</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H94" s="25" t="s">
         <v>210</v>
@@ -6143,10 +6431,10 @@
         <v>17</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>29</v>
@@ -6155,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>210</v>
@@ -6166,10 +6454,10 @@
         <v>17</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>29</v>
@@ -6178,7 +6466,7 @@
         <v>39</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>210</v>
@@ -6189,10 +6477,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>29</v>
@@ -6201,7 +6489,7 @@
         <v>39</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>210</v>
@@ -6212,10 +6500,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>29</v>
@@ -6224,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H98" s="25" t="s">
         <v>210</v>
@@ -6235,10 +6523,10 @@
         <v>17</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>29</v>
@@ -6247,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H99" s="24" t="s">
         <v>210</v>
@@ -6258,10 +6546,10 @@
         <v>17</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="E100" s="25" t="s">
         <v>29</v>
@@ -6270,7 +6558,7 @@
         <v>39</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H100" s="25" t="s">
         <v>210</v>
@@ -6281,10 +6569,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>29</v>
@@ -6293,7 +6581,7 @@
         <v>39</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>210</v>
@@ -6304,10 +6592,10 @@
         <v>17</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>412</v>
+        <v>508</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>29</v>
@@ -6316,7 +6604,7 @@
         <v>39</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H102" s="25" t="s">
         <v>210</v>
@@ -6327,10 +6615,10 @@
         <v>17</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>413</v>
+        <v>509</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>414</v>
+        <v>510</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>29</v>
@@ -6339,7 +6627,7 @@
         <v>39</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H103" s="24" t="s">
         <v>210</v>
@@ -6350,10 +6638,10 @@
         <v>17</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>29</v>
@@ -6362,7 +6650,7 @@
         <v>39</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H104" s="25" t="s">
         <v>210</v>
@@ -6373,10 +6661,10 @@
         <v>17</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>29</v>
@@ -6385,7 +6673,7 @@
         <v>39</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H105" s="24" t="s">
         <v>210</v>
@@ -6396,10 +6684,10 @@
         <v>17</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>29</v>
@@ -6408,7 +6696,7 @@
         <v>39</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H106" s="25" t="s">
         <v>210</v>
@@ -6419,10 +6707,10 @@
         <v>17</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>29</v>
@@ -6431,7 +6719,7 @@
         <v>39</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>210</v>
@@ -6442,10 +6730,10 @@
         <v>17</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>424</v>
+        <v>520</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>29</v>
@@ -6454,7 +6742,7 @@
         <v>39</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H108" s="25" t="s">
         <v>210</v>
@@ -6465,10 +6753,10 @@
         <v>17</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>29</v>
@@ -6477,7 +6765,7 @@
         <v>39</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H109" s="24" t="s">
         <v>210</v>
@@ -6488,10 +6776,10 @@
         <v>17</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>29</v>
@@ -6500,7 +6788,7 @@
         <v>39</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H110" s="25" t="s">
         <v>210</v>
@@ -6511,10 +6799,10 @@
         <v>17</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>429</v>
+        <v>525</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>29</v>
@@ -6523,7 +6811,7 @@
         <v>39</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H111" s="24" t="s">
         <v>210</v>
@@ -6534,10 +6822,10 @@
         <v>17</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>29</v>
@@ -6546,7 +6834,7 @@
         <v>39</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H112" s="25" t="s">
         <v>210</v>
@@ -6557,10 +6845,10 @@
         <v>17</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>434</v>
+        <v>530</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>29</v>
@@ -6569,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>210</v>
@@ -6580,10 +6868,10 @@
         <v>17</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>435</v>
+        <v>531</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>436</v>
+        <v>532</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>29</v>
@@ -6592,7 +6880,7 @@
         <v>39</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H114" s="25" t="s">
         <v>210</v>
@@ -6603,10 +6891,10 @@
         <v>17</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>437</v>
+        <v>533</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>438</v>
+        <v>534</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>29</v>
@@ -6615,7 +6903,7 @@
         <v>39</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H115" s="24" t="s">
         <v>210</v>
@@ -6626,10 +6914,10 @@
         <v>17</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>29</v>
@@ -6638,7 +6926,7 @@
         <v>39</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H116" s="25" t="s">
         <v>210</v>
@@ -6649,10 +6937,10 @@
         <v>17</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>29</v>
@@ -6661,7 +6949,7 @@
         <v>39</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H117" s="24" t="s">
         <v>210</v>
@@ -6672,10 +6960,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>29</v>
@@ -6684,7 +6972,7 @@
         <v>39</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H118" s="25" t="s">
         <v>210</v>
@@ -6695,10 +6983,10 @@
         <v>17</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>446</v>
+        <v>542</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>29</v>
@@ -6707,7 +6995,7 @@
         <v>39</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>210</v>
@@ -6718,10 +7006,10 @@
         <v>17</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>29</v>
@@ -6730,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H120" s="25" t="s">
         <v>210</v>
@@ -6741,10 +7029,10 @@
         <v>17</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>449</v>
+        <v>545</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="E121" s="24" t="s">
         <v>29</v>
@@ -6753,7 +7041,7 @@
         <v>39</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H121" s="24" t="s">
         <v>210</v>
@@ -6764,10 +7052,10 @@
         <v>17</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>451</v>
+        <v>547</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>452</v>
+        <v>548</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>29</v>
@@ -6776,7 +7064,7 @@
         <v>39</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H122" s="25" t="s">
         <v>210</v>
@@ -6787,10 +7075,10 @@
         <v>17</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>453</v>
+        <v>549</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>29</v>
@@ -6799,7 +7087,7 @@
         <v>39</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>210</v>
@@ -6810,10 +7098,10 @@
         <v>17</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>29</v>
@@ -6822,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H124" s="25" t="s">
         <v>210</v>
@@ -6833,10 +7121,10 @@
         <v>17</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>457</v>
+        <v>553</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>29</v>
@@ -6845,7 +7133,7 @@
         <v>39</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>210</v>
@@ -6856,10 +7144,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>459</v>
+        <v>555</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>29</v>
@@ -6868,7 +7156,7 @@
         <v>39</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H126" s="25" t="s">
         <v>210</v>
@@ -6879,10 +7167,10 @@
         <v>17</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>461</v>
+        <v>557</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>29</v>
@@ -6891,7 +7179,7 @@
         <v>39</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H127" s="24" t="s">
         <v>210</v>
@@ -6902,10 +7190,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>463</v>
+        <v>559</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>29</v>
@@ -6914,7 +7202,7 @@
         <v>39</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H128" s="25" t="s">
         <v>210</v>
@@ -6925,10 +7213,10 @@
         <v>17</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>465</v>
+        <v>561</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>466</v>
+        <v>562</v>
       </c>
       <c r="E129" s="24" t="s">
         <v>29</v>
@@ -6937,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H129" s="24" t="s">
         <v>210</v>
@@ -6948,10 +7236,10 @@
         <v>17</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>468</v>
+        <v>564</v>
       </c>
       <c r="E130" s="25" t="s">
         <v>29</v>
@@ -6960,7 +7248,7 @@
         <v>39</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H130" s="25" t="s">
         <v>210</v>
@@ -6971,10 +7259,10 @@
         <v>17</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>470</v>
+        <v>566</v>
       </c>
       <c r="E131" s="24" t="s">
         <v>29</v>
@@ -6983,7 +7271,7 @@
         <v>39</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>210</v>
@@ -6994,10 +7282,10 @@
         <v>17</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>471</v>
+        <v>567</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>29</v>
@@ -7006,7 +7294,7 @@
         <v>39</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H132" s="25" t="s">
         <v>210</v>
@@ -7017,10 +7305,10 @@
         <v>17</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>473</v>
+        <v>569</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="E133" s="24" t="s">
         <v>29</v>
@@ -7029,7 +7317,7 @@
         <v>39</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H133" s="24" t="s">
         <v>210</v>
@@ -7040,10 +7328,10 @@
         <v>17</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>29</v>
@@ -7052,7 +7340,7 @@
         <v>39</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H134" s="25" t="s">
         <v>210</v>
@@ -7063,10 +7351,10 @@
         <v>17</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>29</v>
@@ -7075,7 +7363,7 @@
         <v>39</v>
       </c>
       <c r="G135" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>210</v>
@@ -7086,10 +7374,10 @@
         <v>17</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>29</v>
@@ -7098,7 +7386,7 @@
         <v>39</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H136" s="25" t="s">
         <v>210</v>
@@ -7109,10 +7397,10 @@
         <v>17</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>481</v>
+        <v>577</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="E137" s="24" t="s">
         <v>29</v>
@@ -7121,7 +7409,7 @@
         <v>39</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>210</v>
@@ -7132,10 +7420,10 @@
         <v>17</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>29</v>
@@ -7144,7 +7432,7 @@
         <v>39</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H138" s="25" t="s">
         <v>210</v>
@@ -7155,10 +7443,10 @@
         <v>17</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="E139" s="24" t="s">
         <v>29</v>
@@ -7167,7 +7455,7 @@
         <v>39</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H139" s="24" t="s">
         <v>210</v>
@@ -7178,10 +7466,10 @@
         <v>17</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>487</v>
+        <v>583</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>29</v>
@@ -7190,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H140" s="25" t="s">
         <v>210</v>
@@ -7201,10 +7489,10 @@
         <v>17</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>490</v>
+        <v>586</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>29</v>
@@ -7213,7 +7501,7 @@
         <v>39</v>
       </c>
       <c r="G141" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H141" s="24" t="s">
         <v>210</v>
@@ -7224,10 +7512,10 @@
         <v>17</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="E142" s="25" t="s">
         <v>29</v>
@@ -7236,7 +7524,7 @@
         <v>39</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H142" s="25" t="s">
         <v>210</v>
@@ -7247,10 +7535,10 @@
         <v>17</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>494</v>
+        <v>590</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>29</v>
@@ -7259,7 +7547,7 @@
         <v>39</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>210</v>
@@ -7270,10 +7558,10 @@
         <v>17</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>29</v>
@@ -7282,7 +7570,7 @@
         <v>39</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H144" s="25" t="s">
         <v>210</v>
@@ -7293,10 +7581,10 @@
         <v>17</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>497</v>
+        <v>593</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>29</v>
@@ -7305,7 +7593,7 @@
         <v>39</v>
       </c>
       <c r="G145" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H145" s="24" t="s">
         <v>210</v>
@@ -7316,10 +7604,10 @@
         <v>17</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="E146" s="25" t="s">
         <v>29</v>
@@ -7328,7 +7616,7 @@
         <v>39</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H146" s="25" t="s">
         <v>210</v>
@@ -7339,10 +7627,10 @@
         <v>17</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>29</v>
@@ -7351,7 +7639,7 @@
         <v>39</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H147" s="24" t="s">
         <v>210</v>
@@ -7362,10 +7650,10 @@
         <v>17</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>503</v>
+        <v>599</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="E148" s="25" t="s">
         <v>29</v>
@@ -7374,7 +7662,7 @@
         <v>39</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H148" s="25" t="s">
         <v>210</v>
@@ -7385,10 +7673,10 @@
         <v>17</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>29</v>
@@ -7397,7 +7685,7 @@
         <v>39</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>210</v>
@@ -7408,10 +7696,10 @@
         <v>17</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>507</v>
+        <v>603</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="E150" s="25" t="s">
         <v>29</v>
@@ -7420,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H150" s="25" t="s">
         <v>210</v>
@@ -7431,10 +7719,10 @@
         <v>17</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>509</v>
+        <v>605</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>29</v>
@@ -7443,7 +7731,7 @@
         <v>39</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H151" s="24" t="s">
         <v>210</v>
@@ -7454,10 +7742,10 @@
         <v>17</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>29</v>
@@ -7466,7 +7754,7 @@
         <v>39</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H152" s="25" t="s">
         <v>210</v>
@@ -7477,10 +7765,10 @@
         <v>17</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="E153" s="24" t="s">
         <v>29</v>
@@ -7489,7 +7777,7 @@
         <v>39</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H153" s="24" t="s">
         <v>210</v>
@@ -7500,10 +7788,10 @@
         <v>17</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="E154" s="25" t="s">
         <v>29</v>
@@ -7512,7 +7800,7 @@
         <v>39</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H154" s="25" t="s">
         <v>210</v>
@@ -7523,10 +7811,10 @@
         <v>17</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>518</v>
+        <v>614</v>
       </c>
       <c r="E155" s="24" t="s">
         <v>29</v>
@@ -7535,7 +7823,7 @@
         <v>39</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H155" s="24" t="s">
         <v>210</v>
@@ -7546,10 +7834,10 @@
         <v>17</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>519</v>
+        <v>615</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>29</v>
@@ -7558,7 +7846,7 @@
         <v>39</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H156" s="25" t="s">
         <v>210</v>
@@ -7569,10 +7857,10 @@
         <v>17</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>522</v>
+        <v>618</v>
       </c>
       <c r="E157" s="24" t="s">
         <v>29</v>
@@ -7581,7 +7869,7 @@
         <v>39</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H157" s="24" t="s">
         <v>210</v>
@@ -7592,10 +7880,10 @@
         <v>17</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>523</v>
+        <v>619</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>524</v>
+        <v>620</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>29</v>
@@ -7604,7 +7892,7 @@
         <v>39</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="H158" s="25" t="s">
         <v>210</v>
@@ -7692,7 +7980,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7708,7 +7996,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -7727,7 +8015,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -7753,22 +8041,25 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -7788,13 +8079,16 @@
         <v>209</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7805,83 +8099,230 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
         <v>212</v>
       </c>
-      <c r="O6" t="s">
-        <v>209</v>
-      </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" t="s">
+        <v>224</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O13" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>227</v>
+      </c>
+      <c r="O14" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -7900,8 +8341,26 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:17">
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -7914,8 +8373,26 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>231</v>
+      </c>
+      <c r="O16" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -7928,8 +8405,26 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -7942,8 +8437,26 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -7962,8 +8475,26 @@
       <c r="G19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>237</v>
+      </c>
+      <c r="O19" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" t="s">
         <v>197</v>
       </c>
@@ -7976,21 +8507,735 @@
       <c r="E20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>239</v>
+      </c>
+      <c r="O20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="C21" t="s">
         <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>241</v>
+      </c>
+      <c r="O21" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="C22" t="s">
         <v>205</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>243</v>
+      </c>
+      <c r="O22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>245</v>
+      </c>
+      <c r="O23" t="s">
+        <v>246</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>248</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>254</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>262</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18">
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>266</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18">
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>268</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="13:18">
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>270</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="13:18">
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>272</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="13:18">
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="13:18">
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="13:18">
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>278</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="13:18">
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" t="s">
+        <v>280</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="13:18">
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="13:18">
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>283</v>
+      </c>
+      <c r="O42" t="s">
+        <v>284</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="13:18">
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>286</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="13:18">
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" t="s">
+        <v>288</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="13:18">
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" t="s">
+        <v>290</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="13:18">
+      <c r="M46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" t="s">
+        <v>292</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="13:18">
+      <c r="M47" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" t="s">
+        <v>293</v>
+      </c>
+      <c r="O47" t="s">
+        <v>294</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="13:18">
+      <c r="M48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" t="s">
+        <v>295</v>
+      </c>
+      <c r="O48" t="s">
+        <v>296</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18">
+      <c r="M49" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" t="s">
+        <v>297</v>
+      </c>
+      <c r="O49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="13:18">
+      <c r="M50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" t="s">
+        <v>299</v>
+      </c>
+      <c r="O50" t="s">
+        <v>300</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18">
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" t="s">
+        <v>301</v>
+      </c>
+      <c r="O51" t="s">
+        <v>302</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="13:18">
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" t="s">
+        <v>303</v>
+      </c>
+      <c r="O52" t="s">
+        <v>304</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="13:18">
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
+        <v>305</v>
+      </c>
+      <c r="O53" t="s">
+        <v>306</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="13:18">
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>307</v>
+      </c>
+      <c r="O54" t="s">
+        <v>308</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="13:18">
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s">
+        <v>309</v>
+      </c>
+      <c r="O55" t="s">
+        <v>310</v>
+      </c>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F40F6C-8950-48EF-AC2A-D9809339E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CD77E-EC0C-47BC-8989-3C2842E05CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAD55A0-35F5-45D5-98C6-DE126109475E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC54EE3-CBEB-4730-81A3-6591BCAB8D7E}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CD77E-EC0C-47BC-8989-3C2842E05CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499894B4-CE46-45CC-A1D8-0F9F6F7F0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC54EE3-CBEB-4730-81A3-6591BCAB8D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C510333A-489C-453C-A978-5C4EFE1617E7}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499894B4-CE46-45CC-A1D8-0F9F6F7F0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6FFBF-8CCE-4579-BAF3-BBB24B9F42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C510333A-489C-453C-A978-5C4EFE1617E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8F4BA8-0DE9-4A02-AC80-3A12A52D2573}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6FFBF-8CCE-4579-BAF3-BBB24B9F42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC960A0-39DD-4E1C-BA16-48DAF0B38F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8F4BA8-0DE9-4A02-AC80-3A12A52D2573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F60AF2-731B-4A66-8106-CE3BD9B01EB4}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC960A0-39DD-4E1C-BA16-48DAF0B38F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B06887-EC7B-4995-9A25-D233DDF6B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
     <t>~fi_comm</t>
   </si>
   <si>
-    <t>CH1-220</t>
+    <t>e_CH1-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH1-220</t>
@@ -986,919 +986,919 @@
     <t>fx</t>
   </si>
   <si>
-    <t>CH11-220</t>
+    <t>e_CH11-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH11-220</t>
   </si>
   <si>
-    <t>CH12-220</t>
+    <t>e_CH12-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH12-220,CH12-380</t>
   </si>
   <si>
-    <t>CH13-220</t>
+    <t>e_CH13-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH13-220</t>
   </si>
   <si>
-    <t>CH14-220</t>
+    <t>e_CH14-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH14-220,CH14-380</t>
   </si>
   <si>
-    <t>CH15-220</t>
+    <t>e_CH15-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH15-220</t>
   </si>
   <si>
-    <t>CH16-380</t>
+    <t>e_CH16-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH16-380</t>
   </si>
   <si>
-    <t>CH17-380</t>
+    <t>e_CH17-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH17-380</t>
   </si>
   <si>
-    <t>CH18-220</t>
+    <t>e_CH18-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH18-220,CH18-380</t>
   </si>
   <si>
-    <t>CH19-220</t>
+    <t>e_CH19-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH19-220</t>
   </si>
   <si>
-    <t>CH2-220</t>
+    <t>e_CH2-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH2-220</t>
   </si>
   <si>
-    <t>CH20-220</t>
+    <t>e_CH20-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH20-220</t>
   </si>
   <si>
-    <t>CH21-220</t>
+    <t>e_CH21-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH21-220</t>
   </si>
   <si>
-    <t>CH22-220</t>
+    <t>e_CH22-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH22-220,CH22-380</t>
   </si>
   <si>
-    <t>CH23-220</t>
+    <t>e_CH23-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH23-220</t>
   </si>
   <si>
-    <t>CH24-220</t>
+    <t>e_CH24-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH24-220</t>
   </si>
   <si>
-    <t>CH25-220</t>
+    <t>e_CH25-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH25-220</t>
   </si>
   <si>
-    <t>CH26-220</t>
+    <t>e_CH26-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH26-220</t>
   </si>
   <si>
-    <t>CH27-220</t>
+    <t>e_CH27-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH27-220</t>
   </si>
   <si>
-    <t>CH28-220</t>
+    <t>e_CH28-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH28-220</t>
   </si>
   <si>
-    <t>CH29-220</t>
+    <t>e_CH29-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH29-220,CH29-380</t>
   </si>
   <si>
-    <t>CH3-220</t>
+    <t>e_CH3-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH3-220</t>
   </si>
   <si>
-    <t>CH30-380</t>
+    <t>e_CH30-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH30-380</t>
   </si>
   <si>
-    <t>CH31-220</t>
+    <t>e_CH31-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH31-220</t>
   </si>
   <si>
-    <t>CH32-220</t>
+    <t>e_CH32-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH32-220</t>
   </si>
   <si>
-    <t>CH33-380</t>
+    <t>e_CH33-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH33-380</t>
   </si>
   <si>
-    <t>CH34-220</t>
+    <t>e_CH34-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH34-220,CH34-380</t>
   </si>
   <si>
-    <t>CH35-220</t>
+    <t>e_CH35-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH35-220</t>
   </si>
   <si>
-    <t>CH36-220</t>
+    <t>e_CH36-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH36-220</t>
   </si>
   <si>
-    <t>CH37-380</t>
+    <t>e_CH37-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH37-380</t>
   </si>
   <si>
-    <t>CH38-220</t>
+    <t>e_CH38-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH38-220</t>
   </si>
   <si>
-    <t>CH39-220</t>
+    <t>e_CH39-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH39-220</t>
   </si>
   <si>
-    <t>CH4-220</t>
+    <t>e_CH4-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH4-220</t>
   </si>
   <si>
-    <t>CH40-220</t>
+    <t>e_CH40-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH40-220</t>
   </si>
   <si>
-    <t>CH41-380</t>
+    <t>e_CH41-380</t>
   </si>
   <si>
     <t>aggregated grid node -- CH41-380</t>
   </si>
   <si>
-    <t>CH42-220</t>
+    <t>e_CH42-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH42-220</t>
   </si>
   <si>
-    <t>CH43-220</t>
+    <t>e_CH43-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH43-220</t>
   </si>
   <si>
-    <t>CH44-220</t>
+    <t>e_CH44-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH44-220</t>
   </si>
   <si>
-    <t>CH45-220</t>
+    <t>e_CH45-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH45-220</t>
   </si>
   <si>
-    <t>CH46-220</t>
+    <t>e_CH46-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH46-220</t>
   </si>
   <si>
-    <t>CH47-220</t>
+    <t>e_CH47-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH47-220</t>
   </si>
   <si>
-    <t>CH48-225</t>
+    <t>e_CH48-225</t>
   </si>
   <si>
     <t>aggregated grid node -- CH48-225</t>
   </si>
   <si>
-    <t>CH49-225</t>
+    <t>e_CH49-225</t>
   </si>
   <si>
     <t>aggregated grid node -- CH49-225</t>
   </si>
   <si>
-    <t>CH5-220</t>
+    <t>e_CH5-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH5-220</t>
   </si>
   <si>
-    <t>CH50-220</t>
+    <t>e_CH50-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH50-220</t>
   </si>
   <si>
-    <t>CH51-220</t>
+    <t>e_CH51-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH51-220,CH51-225,CH51-400</t>
   </si>
   <si>
-    <t>CH52-220</t>
+    <t>e_CH52-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH52-220</t>
   </si>
   <si>
-    <t>CH53-225</t>
+    <t>e_CH53-225</t>
   </si>
   <si>
     <t>aggregated grid node -- CH53-225</t>
   </si>
   <si>
-    <t>CH56-220</t>
+    <t>e_CH56-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH56-220</t>
   </si>
   <si>
-    <t>CH57-220</t>
+    <t>e_CH57-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH57-220,CH57-225</t>
   </si>
   <si>
-    <t>CH58-220</t>
+    <t>e_CH58-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH58-220</t>
   </si>
   <si>
-    <t>CH59-220</t>
+    <t>e_CH59-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH59-220</t>
   </si>
   <si>
-    <t>CH6-220</t>
+    <t>e_CH6-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH6-220</t>
   </si>
   <si>
-    <t>CH60-225</t>
+    <t>e_CH60-225</t>
   </si>
   <si>
     <t>aggregated grid node -- CH60-225,way/936521586-380</t>
   </si>
   <si>
-    <t>CH7-220</t>
+    <t>e_CH7-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH7-220</t>
   </si>
   <si>
-    <t>CH9-220</t>
+    <t>e_CH9-220</t>
   </si>
   <si>
     <t>aggregated grid node -- CH9-220</t>
   </si>
   <si>
-    <t>r5378910-220</t>
+    <t>e_r5378910-220</t>
   </si>
   <si>
     <t>aggregated grid node -- relation/5378910-220</t>
   </si>
   <si>
-    <t>r7933294-380</t>
+    <t>e_r7933294-380</t>
   </si>
   <si>
     <t>aggregated grid node -- relation/7933294-380</t>
   </si>
   <si>
-    <t>r9310861-220</t>
+    <t>e_r9310861-220</t>
   </si>
   <si>
     <t>aggregated grid node -- relation/9310861-220</t>
   </si>
   <si>
-    <t>w100662075-220</t>
+    <t>e_w100662075-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/100662075-220</t>
   </si>
   <si>
-    <t>w108257952-220</t>
+    <t>e_w108257952-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/108257952-220</t>
   </si>
   <si>
-    <t>w1086214433-220</t>
+    <t>e_w1086214433-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1086214433-220</t>
   </si>
   <si>
-    <t>w109037817-220</t>
+    <t>e_w109037817-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/109037817-220,way/109037817-380</t>
   </si>
   <si>
-    <t>w1092884227-220</t>
+    <t>e_w1092884227-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1092884227-220</t>
   </si>
   <si>
-    <t>w1105061707-220</t>
+    <t>e_w1105061707-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1105061707-220,way/1105061707-380</t>
   </si>
   <si>
-    <t>w111162936-220</t>
+    <t>e_w111162936-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/111162936-220,way/111162936-380,way/111162936-400</t>
   </si>
   <si>
-    <t>w11282314-220</t>
+    <t>e_w11282314-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/11282314-220</t>
   </si>
   <si>
-    <t>w1208713169-220</t>
+    <t>e_w1208713169-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1208713169-220</t>
   </si>
   <si>
-    <t>w122720993-220</t>
+    <t>e_w122720993-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/122720993-220</t>
   </si>
   <si>
-    <t>w127004407-380</t>
+    <t>e_w127004407-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
   </si>
   <si>
-    <t>w1284913429-220</t>
+    <t>e_w1284913429-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1284913429-220,way/165513396-220,way/165513396-380</t>
   </si>
   <si>
-    <t>w130198336-220</t>
+    <t>e_w130198336-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/130198336-220</t>
   </si>
   <si>
-    <t>w132373704-220</t>
+    <t>e_w132373704-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/132373704-220</t>
   </si>
   <si>
-    <t>w1327084723-220</t>
+    <t>e_w1327084723-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/1327084723-220</t>
   </si>
   <si>
-    <t>w140873735-220</t>
+    <t>e_w140873735-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/140873735-220</t>
   </si>
   <si>
-    <t>w146225999-220</t>
+    <t>e_w146225999-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/146225999-220</t>
   </si>
   <si>
-    <t>w147557680-220</t>
+    <t>e_w147557680-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/147557680-220</t>
   </si>
   <si>
-    <t>w147714395-220</t>
+    <t>e_w147714395-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/147714395-220,way/147714395-380</t>
   </si>
   <si>
-    <t>w148015471-220</t>
+    <t>e_w148015471-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/148015471-220</t>
   </si>
   <si>
-    <t>w159527493-220</t>
+    <t>e_w159527493-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/159527493-220</t>
   </si>
   <si>
-    <t>w161853746-220</t>
+    <t>e_w161853746-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/161853746-220</t>
   </si>
   <si>
-    <t>w165254212-220</t>
+    <t>e_w165254212-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/165254212-220</t>
   </si>
   <si>
-    <t>w177392130-220</t>
+    <t>e_w177392130-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/177392130-220,way/177392130-400</t>
   </si>
   <si>
-    <t>w190819048-220</t>
+    <t>e_w190819048-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/190819048-220</t>
   </si>
   <si>
-    <t>w192677427-220</t>
+    <t>e_w192677427-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/192677427-220,way/192677427-380</t>
   </si>
   <si>
-    <t>w194258388-220</t>
+    <t>e_w194258388-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/194258388-220</t>
   </si>
   <si>
-    <t>w207991759-380</t>
+    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/207991759-380</t>
   </si>
   <si>
-    <t>w207993342-220</t>
+    <t>e_w207993342-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/207993342-220,way/207993342-380</t>
   </si>
   <si>
-    <t>w208780268-380</t>
+    <t>e_w208780268-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/208780268-380</t>
   </si>
   <si>
-    <t>w209324991-220</t>
+    <t>e_w209324991-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/209324991-220</t>
   </si>
   <si>
-    <t>w210568055-220</t>
+    <t>e_w210568055-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/210568055-220,way/210568055-380</t>
   </si>
   <si>
-    <t>w211907009-220</t>
+    <t>e_w211907009-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/211907009-220</t>
   </si>
   <si>
-    <t>w212498548-220</t>
+    <t>e_w212498548-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/212498548-220</t>
   </si>
   <si>
-    <t>w212722603-220</t>
+    <t>e_w212722603-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/212722603-220,way/212722603-380</t>
   </si>
   <si>
-    <t>w228003081-220</t>
+    <t>e_w228003081-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/228003081-220</t>
   </si>
   <si>
-    <t>w22899676-220</t>
+    <t>e_w22899676-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/22899676-220</t>
   </si>
   <si>
-    <t>w232662311-220</t>
+    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/232662311-220</t>
   </si>
   <si>
-    <t>w234983117-220</t>
+    <t>e_w234983117-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/234983117-220,way/234983117-380</t>
   </si>
   <si>
-    <t>w236819191-220</t>
+    <t>e_w236819191-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/236819191-220</t>
   </si>
   <si>
-    <t>w238138373-380</t>
+    <t>e_w238138373-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/238138373-380</t>
   </si>
   <si>
-    <t>w239937062-220</t>
+    <t>e_w239937062-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/239937062-220</t>
   </si>
   <si>
-    <t>w240575085-220</t>
+    <t>e_w240575085-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/240575085-220</t>
   </si>
   <si>
-    <t>w240959264-220</t>
+    <t>e_w240959264-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/240959264-220</t>
   </si>
   <si>
-    <t>w242269161-220</t>
+    <t>e_w242269161-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/242269161-220</t>
   </si>
   <si>
-    <t>w260211728-225</t>
+    <t>e_w260211728-225</t>
   </si>
   <si>
     <t>aggregated grid node -- way/260211728-225,way/260211728-380</t>
   </si>
   <si>
-    <t>w26166640-220</t>
+    <t>e_w26166640-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/26166640-220</t>
   </si>
   <si>
-    <t>w26843160-220</t>
+    <t>e_w26843160-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/26843160-220</t>
   </si>
   <si>
-    <t>w27107779-220</t>
+    <t>e_w27107779-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/27107779-220</t>
   </si>
   <si>
-    <t>w27435934-220</t>
+    <t>e_w27435934-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/27435934-220</t>
   </si>
   <si>
-    <t>w281799252-220</t>
+    <t>e_w281799252-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281799252-220</t>
   </si>
   <si>
-    <t>w281800404-220</t>
+    <t>e_w281800404-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281800404-220</t>
   </si>
   <si>
-    <t>w281803398-220</t>
+    <t>e_w281803398-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281803398-220</t>
   </si>
   <si>
-    <t>w281804158-220</t>
+    <t>e_w281804158-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281804158-220,way/281804158-380</t>
   </si>
   <si>
-    <t>w281809991-220</t>
+    <t>e_w281809991-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281809991-220</t>
   </si>
   <si>
-    <t>w281815404-220</t>
+    <t>e_w281815404-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281815404-220</t>
   </si>
   <si>
-    <t>w281822905-220</t>
+    <t>e_w281822905-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/281822905-220</t>
   </si>
   <si>
-    <t>w30350721-220</t>
+    <t>e_w30350721-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/30350721-220</t>
   </si>
   <si>
-    <t>w31308888-220</t>
+    <t>e_w31308888-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/31308888-220</t>
   </si>
   <si>
-    <t>w33271433-220</t>
+    <t>e_w33271433-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/33271433-220</t>
   </si>
   <si>
-    <t>w35002638-220</t>
+    <t>e_w35002638-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/35002638-220,way/35002638-380</t>
   </si>
   <si>
-    <t>w35487135-220</t>
+    <t>e_w35487135-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/35487135-220</t>
   </si>
   <si>
-    <t>w356292116-220</t>
+    <t>e_w356292116-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/356292116-220,way/356292116-380</t>
   </si>
   <si>
-    <t>w35840165-380</t>
+    <t>e_w35840165-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/35840165-380</t>
   </si>
   <si>
-    <t>w36348118-220</t>
+    <t>e_w36348118-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/36348118-220</t>
   </si>
   <si>
-    <t>w364949845-220</t>
+    <t>e_w364949845-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/364949845-220,way/364949845-380</t>
   </si>
   <si>
-    <t>w365556107-220</t>
+    <t>e_w365556107-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/365556107-220</t>
   </si>
   <si>
-    <t>w391576135-220</t>
+    <t>e_w391576135-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/391576135-220</t>
   </si>
   <si>
-    <t>w391577741-220</t>
+    <t>e_w391577741-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/391577741-220</t>
   </si>
   <si>
-    <t>w397960460-380</t>
+    <t>e_w397960460-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/397960460-380,way/397960460-400</t>
   </si>
   <si>
-    <t>w402053379-220</t>
+    <t>e_w402053379-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/402053379-220</t>
   </si>
   <si>
-    <t>w402055336-220</t>
+    <t>e_w402055336-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/402055336-220</t>
   </si>
   <si>
-    <t>w431234146-220</t>
+    <t>e_w431234146-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/431234146-220</t>
   </si>
   <si>
-    <t>w44496892-220</t>
+    <t>e_w44496892-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/44496892-220</t>
   </si>
   <si>
-    <t>w455120191-220</t>
+    <t>e_w455120191-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/455120191-220</t>
   </si>
   <si>
-    <t>w50319857-220</t>
+    <t>e_w50319857-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/50319857-220,way/50319857-380,way/50319857-400</t>
   </si>
   <si>
-    <t>w50561341-220</t>
+    <t>e_w50561341-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/50561341-220</t>
   </si>
   <si>
-    <t>w52738225-220</t>
+    <t>e_w52738225-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/52738225-220,way/52738225-380</t>
   </si>
   <si>
-    <t>w55695765-220</t>
+    <t>e_w55695765-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/55695765-220</t>
   </si>
   <si>
-    <t>w55698557-220</t>
+    <t>e_w55698557-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/55698557-220,way/55698557-225</t>
   </si>
   <si>
-    <t>w71500123-220</t>
+    <t>e_w71500123-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/71500123-220,way/71500123-380</t>
   </si>
   <si>
-    <t>w758315582-220</t>
+    <t>e_w758315582-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/758315582-220</t>
   </si>
   <si>
-    <t>w758943072-220</t>
+    <t>e_w758943072-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/758943072-220</t>
   </si>
   <si>
-    <t>w802058337-220</t>
+    <t>e_w802058337-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/802058337-220,way/802058337-225</t>
   </si>
   <si>
-    <t>w83861269-220</t>
+    <t>e_w83861269-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/83861269-220</t>
   </si>
   <si>
-    <t>w87281514-220</t>
+    <t>e_w87281514-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/87281514-220</t>
   </si>
   <si>
-    <t>w88901626-380</t>
+    <t>e_w88901626-380</t>
   </si>
   <si>
     <t>aggregated grid node -- way/88901626-380</t>
   </si>
   <si>
-    <t>w89405664-220</t>
+    <t>e_w89405664-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/89405664-220</t>
   </si>
   <si>
-    <t>w89977424-220</t>
+    <t>e_w89977424-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/89977424-220</t>
   </si>
   <si>
-    <t>w92798668-220</t>
+    <t>e_w92798668-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/92798668-220</t>
   </si>
   <si>
-    <t>w92873516-220</t>
+    <t>e_w92873516-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/92873516-220</t>
   </si>
   <si>
-    <t>w969811258-220</t>
+    <t>e_w969811258-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/969811258-220,way/969811258-380</t>
   </si>
   <si>
-    <t>w969819301-220</t>
+    <t>e_w969819301-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/969819301-220,way/969819301-380</t>
   </si>
   <si>
-    <t>w97941869-220</t>
+    <t>e_w97941869-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/97941869-220</t>
   </si>
   <si>
-    <t>w98648381-220</t>
+    <t>e_w98648381-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/98648381-220,way/98648381-380</t>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F60AF2-731B-4A66-8106-CE3BD9B01EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC93E6-BDB4-4296-BB84-DC413DAD4D44}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4307,7 +4307,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B06887-EC7B-4995-9A25-D233DDF6B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F151C024-2D01-4609-A517-3701254349F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -665,7 +665,7 @@
     <t>set</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0000</t>
+    <t>elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_0</t>
@@ -674,301 +674,301 @@
     <t>TWh</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0001</t>
+    <t>elc_spv-CHE_0001</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_1</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0002</t>
+    <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_2</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0003</t>
+    <t>elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_3</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0004</t>
+    <t>elc_spv-CHE_0004</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_4</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0005</t>
+    <t>elc_spv-CHE_0005</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_5</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0006</t>
+    <t>elc_spv-CHE_0006</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_6</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0007</t>
+    <t>elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_7</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0008</t>
+    <t>elc_spv-CHE_0008</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_8</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0009</t>
+    <t>elc_spv-CHE_0009</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_9</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0010</t>
+    <t>elc_spv-CHE_0010</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_10</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0011</t>
+    <t>elc_spv-CHE_0011</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_11</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0012</t>
+    <t>elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_12</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0013</t>
+    <t>elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_13</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0014</t>
+    <t>elc_spv-CHE_0014</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_14</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0015</t>
+    <t>elc_spv-CHE_0015</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_15</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0017</t>
+    <t>elc_spv-CHE_0017</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_17</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0018</t>
+    <t>elc_spv-CHE_0018</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_18</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0019</t>
+    <t>elc_spv-CHE_0019</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_19</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0020</t>
+    <t>elc_spv-CHE_0020</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_20</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0021</t>
+    <t>elc_spv-CHE_0021</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_21</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0022</t>
+    <t>elc_spv-CHE_0022</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_22</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0023</t>
+    <t>elc_spv-CHE_0023</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_23</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0024</t>
+    <t>elc_spv-CHE_0024</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_24</t>
   </si>
   <si>
-    <t>elc_sol-CHE_0025</t>
+    <t>elc_spv-CHE_0025</t>
   </si>
   <si>
     <t>solar generation in grid cell -- CHE_25</t>
   </si>
   <si>
-    <t>elc_win-CHE_0000</t>
+    <t>elc_won-CHE_0000</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_0</t>
   </si>
   <si>
-    <t>elc_win-CHE_0001</t>
+    <t>elc_won-CHE_0001</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_1</t>
   </si>
   <si>
-    <t>elc_win-CHE_0002</t>
+    <t>elc_won-CHE_0002</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_2</t>
   </si>
   <si>
-    <t>elc_win-CHE_0003</t>
+    <t>elc_won-CHE_0003</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_3</t>
   </si>
   <si>
-    <t>elc_win-CHE_0004</t>
+    <t>elc_won-CHE_0004</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_4</t>
   </si>
   <si>
-    <t>elc_win-CHE_0005</t>
+    <t>elc_won-CHE_0005</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_5</t>
   </si>
   <si>
-    <t>elc_win-CHE_0006</t>
+    <t>elc_won-CHE_0006</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_6</t>
   </si>
   <si>
-    <t>elc_win-CHE_0007</t>
+    <t>elc_won-CHE_0007</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_7</t>
   </si>
   <si>
-    <t>elc_win-CHE_0008</t>
+    <t>elc_won-CHE_0008</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_8</t>
   </si>
   <si>
-    <t>elc_win-CHE_0009</t>
+    <t>elc_won-CHE_0009</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_9</t>
   </si>
   <si>
-    <t>elc_win-CHE_0010</t>
+    <t>elc_won-CHE_0010</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_10</t>
   </si>
   <si>
-    <t>elc_win-CHE_0011</t>
+    <t>elc_won-CHE_0011</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_11</t>
   </si>
   <si>
-    <t>elc_win-CHE_0012</t>
+    <t>elc_won-CHE_0012</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_12</t>
   </si>
   <si>
-    <t>elc_win-CHE_0013</t>
+    <t>elc_won-CHE_0013</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_13</t>
   </si>
   <si>
-    <t>elc_win-CHE_0014</t>
+    <t>elc_won-CHE_0014</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_14</t>
   </si>
   <si>
-    <t>elc_win-CHE_0015</t>
+    <t>elc_won-CHE_0015</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_15</t>
   </si>
   <si>
-    <t>elc_win-CHE_0016</t>
+    <t>elc_won-CHE_0016</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_16</t>
   </si>
   <si>
-    <t>elc_win-CHE_0017</t>
+    <t>elc_won-CHE_0017</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_17</t>
   </si>
   <si>
-    <t>elc_win-CHE_0018</t>
+    <t>elc_won-CHE_0018</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_18</t>
   </si>
   <si>
-    <t>elc_win-CHE_0019</t>
+    <t>elc_won-CHE_0019</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_19</t>
   </si>
   <si>
-    <t>elc_win-CHE_0020</t>
+    <t>elc_won-CHE_0020</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_20</t>
   </si>
   <si>
-    <t>elc_win-CHE_0021</t>
+    <t>elc_won-CHE_0021</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_21</t>
   </si>
   <si>
-    <t>elc_win-CHE_0022</t>
+    <t>elc_won-CHE_0022</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_22</t>
   </si>
   <si>
-    <t>elc_win-CHE_0023</t>
+    <t>elc_won-CHE_0023</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_23</t>
   </si>
   <si>
-    <t>elc_win-CHE_0024</t>
+    <t>elc_won-CHE_0024</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_24</t>
   </si>
   <si>
-    <t>elc_win-CHE_0025</t>
+    <t>elc_won-CHE_0025</t>
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_25</t>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC93E6-BDB4-4296-BB84-DC413DAD4D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE2CCE-66F4-4544-B8F2-32C58A9BB188}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F151C024-2D01-4609-A517-3701254349F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E86F0-27A0-4E59-91EE-50D9B1DFB24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE2CCE-66F4-4544-B8F2-32C58A9BB188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC44C36-1EB4-41D6-86EE-1D3AA09C5A9F}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E86F0-27A0-4E59-91EE-50D9B1DFB24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D13853-D879-43A1-88B3-F073F49CDB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC44C36-1EB4-41D6-86EE-1D3AA09C5A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83841DF-ABFD-47B4-8DD1-4FA7F2835554}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D13853-D879-43A1-88B3-F073F49CDB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C715BC-F366-41D2-B6E6-870F9BC19A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83841DF-ABFD-47B4-8DD1-4FA7F2835554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76E67F-A154-490C-A110-622F428C7991}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C715BC-F366-41D2-B6E6-870F9BC19A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F8464-5443-492A-A0DB-F26257C3341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76E67F-A154-490C-A110-622F428C7991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CCE88A-DE82-4216-9C52-77B9B0CA1CB4}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F8464-5443-492A-A0DB-F26257C3341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F07B2A-144F-436F-8D4C-F104481335C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CCE88A-DE82-4216-9C52-77B9B0CA1CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DD370-B69E-40E4-9FCE-D78A00DA479B}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F07B2A-144F-436F-8D4C-F104481335C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACC94F-83A1-4F34-8FDE-40AAC20122E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DD370-B69E-40E4-9FCE-D78A00DA479B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3AC25-BDCA-425A-9B30-E5936B2554EC}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACC94F-83A1-4F34-8FDE-40AAC20122E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446CF39-A1A8-4306-892F-9CFE7D4453F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="7" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3AC25-BDCA-425A-9B30-E5936B2554EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F47CD-D565-4D9D-B74F-1406739279BF}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446CF39-A1A8-4306-892F-9CFE7D4453F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77937716-9C3D-4307-919D-B2D43438EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F47CD-D565-4D9D-B74F-1406739279BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C044CB-CCA7-49CD-A635-4396F98F2CA7}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77937716-9C3D-4307-919D-B2D43438EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5508340-D873-4522-B3FD-D81ADF513188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C044CB-CCA7-49CD-A635-4396F98F2CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B576D2-D2F0-4587-87C2-8E65EE272E6D}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5508340-D873-4522-B3FD-D81ADF513188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD875837-42DD-4742-8A19-802658C29E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B576D2-D2F0-4587-87C2-8E65EE272E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA02E175-797D-4F29-9C7F-D2FC70581113}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD875837-42DD-4742-8A19-802658C29E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0ABD5-10DE-487C-BBB5-681FE420C914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA02E175-797D-4F29-9C7F-D2FC70581113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094FA45-254C-4151-A6EA-9D65909894DF}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0ABD5-10DE-487C-BBB5-681FE420C914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4059AE-642A-4DA5-91EF-7FE9216742C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094FA45-254C-4151-A6EA-9D65909894DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A4396C-F52F-4DB3-83FF-137889B8F938}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4059AE-642A-4DA5-91EF-7FE9216742C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB225B3F-7831-489E-85EB-12F3F0BD2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A4396C-F52F-4DB3-83FF-137889B8F938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CF0E0D-EB19-4D47-B212-4C7EA8AC8633}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB225B3F-7831-489E-85EB-12F3F0BD2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC2A63-66F7-473A-B8FC-002DFD8E8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CF0E0D-EB19-4D47-B212-4C7EA8AC8633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B531080-5DB0-4659-969D-352CE914CD2D}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC2A63-66F7-473A-B8FC-002DFD8E8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401EB82-2661-4078-92E3-9446AE56927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B531080-5DB0-4659-969D-352CE914CD2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEEF482-E8DC-419C-BCA8-406FBE7AB3A4}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401EB82-2661-4078-92E3-9446AE56927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDDEF4-D30B-4C56-9875-03324FE2B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEEF482-E8DC-419C-BCA8-406FBE7AB3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB118DB-8287-4F22-B1BE-02F06D073822}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDDEF4-D30B-4C56-9875-03324FE2B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CC40C9-646E-491E-8C90-45D480DC8345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB118DB-8287-4F22-B1BE-02F06D073822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166E243-E37F-4B99-8471-4C31099E15B9}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CC40C9-646E-491E-8C90-45D480DC8345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCA88E-CCD1-4C0C-B929-4B9914BBC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166E243-E37F-4B99-8471-4C31099E15B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DE7380-2A03-4FE6-AE12-CA0BFB61ED6A}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCA88E-CCD1-4C0C-B929-4B9914BBC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12E1FC-C4EA-4AAF-B949-C026A1E9C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DE7380-2A03-4FE6-AE12-CA0BFB61ED6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0397A189-11EB-4EAB-8306-2A96CCDA3D20}">
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12E1FC-C4EA-4AAF-B949-C026A1E9C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D834E-D7FE-47BA-AB08-5C1824B6A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids" sheetId="7" r:id="rId1"/>
-    <sheet name="system_settings" sheetId="1" r:id="rId2"/>
-    <sheet name="fuels" sheetId="2" r:id="rId3"/>
-    <sheet name="TimePeriods" sheetId="3" r:id="rId4"/>
-    <sheet name="System Settings" sheetId="4" r:id="rId5"/>
+    <sheet name="system_settings" sheetId="1" r:id="rId1"/>
+    <sheet name="fuels" sheetId="2" r:id="rId2"/>
+    <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
+    <sheet name="System Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="grids" sheetId="7" r:id="rId5"/>
     <sheet name="Constants" sheetId="5" r:id="rId6"/>
     <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="380">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -980,40 +980,16 @@
     <t>e_CH1-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH1-220</t>
+    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395-220,way/147714395-380,way/148015471-220,way/165254212-220,way/165513396-220,way/165513396-380,way/190819048-220,way/22899676-220,way/240575085-220,way/242269161-220,way/27107779-220,way/27435934-220,way/30350721-220,way/31308888-220,way/33271433-220,way/35002638-220,way/35002638-380,way/356292116-220,way/356292116-380,way/35840165-380,way/397960460-380,way/397960460-400,way/402053379-220,way/50319857-220,way/50319857-380,way/50319857-400,way/50561341-220,way/87281514-220,way/88901626-380,way/89405664-220,way/89977424-220,way/97941869-220,way/98648381-220,way/98648381-380</t>
   </si>
   <si>
     <t>fx</t>
   </si>
   <si>
-    <t>e_CH11-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH11-220</t>
-  </si>
-  <si>
     <t>e_CH12-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH12-220,CH12-380</t>
-  </si>
-  <si>
-    <t>e_CH13-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH13-220</t>
-  </si>
-  <si>
-    <t>e_CH14-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH14-220,CH14-380</t>
-  </si>
-  <si>
-    <t>e_CH15-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH15-220</t>
+    <t>aggregated grid node -- CH12-220,CH12-380,CH13-220,way/192677427-220,way/192677427-380</t>
   </si>
   <si>
     <t>e_CH16-380</t>
@@ -1025,7 +1001,7 @@
     <t>e_CH17-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH17-380</t>
+    <t>aggregated grid node -- CH17-380,way/211907009-220</t>
   </si>
   <si>
     <t>e_CH18-220</t>
@@ -1037,175 +1013,49 @@
     <t>e_CH19-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH2-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH2-220</t>
-  </si>
-  <si>
-    <t>e_CH20-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH20-220</t>
+    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327084723-220,way/140873735-220,way/159527493-220,way/240959264-220,way/281822905-220,way/431234146-220</t>
   </si>
   <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH21-220</t>
-  </si>
-  <si>
-    <t>e_CH22-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH22-220,CH22-380</t>
-  </si>
-  <si>
-    <t>e_CH23-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH23-220</t>
-  </si>
-  <si>
-    <t>e_CH24-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH24-220</t>
-  </si>
-  <si>
-    <t>e_CH25-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH25-220</t>
-  </si>
-  <si>
-    <t>e_CH26-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH26-220</t>
-  </si>
-  <si>
-    <t>e_CH27-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH27-220</t>
-  </si>
-  <si>
-    <t>e_CH28-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH28-220</t>
-  </si>
-  <si>
-    <t>e_CH29-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH29-220,CH29-380</t>
-  </si>
-  <si>
-    <t>e_CH3-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH3-220</t>
+    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,way/71500123-380</t>
   </si>
   <si>
     <t>e_CH30-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH30-380</t>
+    <t>aggregated grid node -- CH30-380,CH33-380,CH37-380</t>
   </si>
   <si>
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH31-220</t>
+    <t>aggregated grid node -- CH31-220,way/111162936-220,way/111162936-380,way/111162936-400,way/44496892-220,way/55695765-220</t>
   </si>
   <si>
     <t>e_CH32-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH32-220</t>
-  </si>
-  <si>
-    <t>e_CH33-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH33-380</t>
-  </si>
-  <si>
-    <t>e_CH34-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH34-220,CH34-380</t>
-  </si>
-  <si>
-    <t>e_CH35-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH35-220</t>
-  </si>
-  <si>
-    <t>e_CH36-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH36-220</t>
-  </si>
-  <si>
-    <t>e_CH37-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH37-380</t>
-  </si>
-  <si>
-    <t>e_CH38-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH38-220</t>
-  </si>
-  <si>
-    <t>e_CH39-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH39-220</t>
+    <t>aggregated grid node -- CH32-220,way/969811258-220,way/969811258-380</t>
   </si>
   <si>
     <t>e_CH4-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH4-220</t>
-  </si>
-  <si>
-    <t>e_CH40-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH40-220</t>
+    <t>aggregated grid node -- CH4-220,CH9-220,way/455120191-220,way/83861269-220,way/92798668-220,way/92873516-220</t>
   </si>
   <si>
     <t>e_CH41-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH41-380</t>
-  </si>
-  <si>
-    <t>e_CH42-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH42-220</t>
+    <t>aggregated grid node -- CH41-380,way/281804158-220,way/281804158-380</t>
   </si>
   <si>
     <t>e_CH43-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH43-220</t>
-  </si>
-  <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH44-220</t>
+    <t>aggregated grid node -- CH43-220,CH44-220,way/402055336-220</t>
   </si>
   <si>
     <t>e_CH45-220</t>
@@ -1217,109 +1067,31 @@
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH46-220</t>
-  </si>
-  <si>
-    <t>e_CH47-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH47-220</t>
+    <t>aggregated grid node -- CH46-220,CH47-220,way/236819191-220,way/364949845-220,way/364949845-380,way/969819301-220,way/969819301-380</t>
   </si>
   <si>
     <t>e_CH48-225</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH48-225</t>
-  </si>
-  <si>
-    <t>e_CH49-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH49-225</t>
-  </si>
-  <si>
-    <t>e_CH5-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH5-220</t>
+    <t>aggregated grid node -- CH48-225,CH49-225,CH53-225,CH60-225,way/234983117-220,way/234983117-380,way/238138373-380,way/260211728-225,way/260211728-380,way/55698557-220,way/55698557-225,way/802058337-220,way/802058337-225,way/936521586-380</t>
   </si>
   <si>
     <t>e_CH50-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH50-220</t>
+    <t>aggregated grid node -- CH50-220,CH56-220,CH58-220,CH59-220,way/281800404-220,way/281803398-220,way/281815404-220,way/35487135-220</t>
   </si>
   <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400</t>
-  </si>
-  <si>
-    <t>e_CH52-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH52-220</t>
-  </si>
-  <si>
-    <t>e_CH53-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH53-225</t>
-  </si>
-  <si>
-    <t>e_CH56-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH56-220</t>
-  </si>
-  <si>
-    <t>e_CH57-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH57-220,CH57-225</t>
-  </si>
-  <si>
-    <t>e_CH58-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH58-220</t>
-  </si>
-  <si>
-    <t>e_CH59-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH59-220</t>
-  </si>
-  <si>
-    <t>e_CH6-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH6-220</t>
-  </si>
-  <si>
-    <t>e_CH60-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH60-225,way/936521586-380</t>
-  </si>
-  <si>
-    <t>e_CH7-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH7-220</t>
-  </si>
-  <si>
-    <t>e_CH9-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH9-220</t>
+    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400,CH52-220,CH57-220,CH57-225,way/132373704-220,way/177392130-220,way/177392130-400,way/239937062-220</t>
   </si>
   <si>
     <t>e_r5378910-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/5378910-220</t>
+    <t>aggregated grid node -- relation/5378910-220,way/1105061707-220,way/1105061707-380,way/161853746-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
@@ -1328,64 +1100,10 @@
     <t>aggregated grid node -- relation/7933294-380</t>
   </si>
   <si>
-    <t>e_r9310861-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- relation/9310861-220</t>
-  </si>
-  <si>
-    <t>e_w100662075-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/100662075-220</t>
-  </si>
-  <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/108257952-220</t>
-  </si>
-  <si>
-    <t>e_w1086214433-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1086214433-220</t>
-  </si>
-  <si>
-    <t>e_w109037817-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/109037817-220,way/109037817-380</t>
-  </si>
-  <si>
-    <t>e_w1092884227-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1092884227-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1105061707-220,way/1105061707-380</t>
-  </si>
-  <si>
-    <t>e_w111162936-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/111162936-220,way/111162936-380,way/111162936-400</t>
-  </si>
-  <si>
-    <t>e_w11282314-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/11282314-220</t>
-  </si>
-  <si>
-    <t>e_w1208713169-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1208713169-220</t>
+    <t>aggregated grid node -- way/108257952-220,way/281799252-220,way/52738225-220,way/52738225-380</t>
   </si>
   <si>
     <t>e_w122720993-220</t>
@@ -1400,96 +1118,6 @@
     <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
   </si>
   <si>
-    <t>e_w1284913429-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1284913429-220,way/165513396-220,way/165513396-380</t>
-  </si>
-  <si>
-    <t>e_w130198336-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/130198336-220</t>
-  </si>
-  <si>
-    <t>e_w132373704-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/132373704-220</t>
-  </si>
-  <si>
-    <t>e_w1327084723-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/1327084723-220</t>
-  </si>
-  <si>
-    <t>e_w140873735-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/140873735-220</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/146225999-220</t>
-  </si>
-  <si>
-    <t>e_w147557680-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/147557680-220</t>
-  </si>
-  <si>
-    <t>e_w147714395-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/147714395-220,way/147714395-380</t>
-  </si>
-  <si>
-    <t>e_w148015471-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/148015471-220</t>
-  </si>
-  <si>
-    <t>e_w159527493-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/159527493-220</t>
-  </si>
-  <si>
-    <t>e_w161853746-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/161853746-220</t>
-  </si>
-  <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/165254212-220</t>
-  </si>
-  <si>
-    <t>e_w177392130-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/177392130-220,way/177392130-400</t>
-  </si>
-  <si>
-    <t>e_w190819048-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/190819048-220</t>
-  </si>
-  <si>
-    <t>e_w192677427-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/192677427-220,way/192677427-380</t>
-  </si>
-  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
@@ -1502,42 +1130,12 @@
     <t>aggregated grid node -- way/207991759-380</t>
   </si>
   <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/207993342-220,way/207993342-380</t>
-  </si>
-  <si>
-    <t>e_w208780268-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/208780268-380</t>
-  </si>
-  <si>
     <t>e_w209324991-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/209324991-220</t>
   </si>
   <si>
-    <t>e_w210568055-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/210568055-220,way/210568055-380</t>
-  </si>
-  <si>
-    <t>e_w211907009-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/211907009-220</t>
-  </si>
-  <si>
-    <t>e_w212498548-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/212498548-220</t>
-  </si>
-  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
@@ -1547,13 +1145,7 @@
     <t>e_w228003081-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/228003081-220</t>
-  </si>
-  <si>
-    <t>e_w22899676-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/22899676-220</t>
+    <t>aggregated grid node -- way/228003081-220,way/391576135-220,way/391577741-220</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
@@ -1562,54 +1154,6 @@
     <t>aggregated grid node -- way/232662311-220</t>
   </si>
   <si>
-    <t>e_w234983117-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/234983117-220,way/234983117-380</t>
-  </si>
-  <si>
-    <t>e_w236819191-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/236819191-220</t>
-  </si>
-  <si>
-    <t>e_w238138373-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/238138373-380</t>
-  </si>
-  <si>
-    <t>e_w239937062-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/239937062-220</t>
-  </si>
-  <si>
-    <t>e_w240575085-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/240575085-220</t>
-  </si>
-  <si>
-    <t>e_w240959264-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/240959264-220</t>
-  </si>
-  <si>
-    <t>e_w242269161-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/242269161-220</t>
-  </si>
-  <si>
-    <t>e_w260211728-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/260211728-225,way/260211728-380</t>
-  </si>
-  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
@@ -1619,205 +1163,7 @@
     <t>e_w26843160-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/26843160-220</t>
-  </si>
-  <si>
-    <t>e_w27107779-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/27107779-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/27435934-220</t>
-  </si>
-  <si>
-    <t>e_w281799252-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281799252-220</t>
-  </si>
-  <si>
-    <t>e_w281800404-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281800404-220</t>
-  </si>
-  <si>
-    <t>e_w281803398-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281803398-220</t>
-  </si>
-  <si>
-    <t>e_w281804158-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281804158-220,way/281804158-380</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281809991-220</t>
-  </si>
-  <si>
-    <t>e_w281815404-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281815404-220</t>
-  </si>
-  <si>
-    <t>e_w281822905-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/281822905-220</t>
-  </si>
-  <si>
-    <t>e_w30350721-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/30350721-220</t>
-  </si>
-  <si>
-    <t>e_w31308888-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/31308888-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/33271433-220</t>
-  </si>
-  <si>
-    <t>e_w35002638-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/35002638-220,way/35002638-380</t>
-  </si>
-  <si>
-    <t>e_w35487135-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/35487135-220</t>
-  </si>
-  <si>
-    <t>e_w356292116-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/356292116-220,way/356292116-380</t>
-  </si>
-  <si>
-    <t>e_w35840165-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/35840165-380</t>
-  </si>
-  <si>
-    <t>e_w36348118-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/36348118-220</t>
-  </si>
-  <si>
-    <t>e_w364949845-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/364949845-220,way/364949845-380</t>
-  </si>
-  <si>
-    <t>e_w365556107-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/365556107-220</t>
-  </si>
-  <si>
-    <t>e_w391576135-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/391576135-220</t>
-  </si>
-  <si>
-    <t>e_w391577741-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/391577741-220</t>
-  </si>
-  <si>
-    <t>e_w397960460-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/397960460-380,way/397960460-400</t>
-  </si>
-  <si>
-    <t>e_w402053379-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/402053379-220</t>
-  </si>
-  <si>
-    <t>e_w402055336-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/402055336-220</t>
-  </si>
-  <si>
-    <t>e_w431234146-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/431234146-220</t>
-  </si>
-  <si>
-    <t>e_w44496892-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/44496892-220</t>
-  </si>
-  <si>
-    <t>e_w455120191-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/455120191-220</t>
-  </si>
-  <si>
-    <t>e_w50319857-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/50319857-220,way/50319857-380,way/50319857-400</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/50561341-220</t>
-  </si>
-  <si>
-    <t>e_w52738225-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/52738225-220,way/52738225-380</t>
-  </si>
-  <si>
-    <t>e_w55695765-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/55695765-220</t>
-  </si>
-  <si>
-    <t>e_w55698557-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/55698557-220,way/55698557-225</t>
-  </si>
-  <si>
-    <t>e_w71500123-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/71500123-220,way/71500123-380</t>
+    <t>aggregated grid node -- way/26843160-220,way/281809991-220</t>
   </si>
   <si>
     <t>e_w758315582-220</t>
@@ -1830,78 +1176,6 @@
   </si>
   <si>
     <t>aggregated grid node -- way/758943072-220</t>
-  </si>
-  <si>
-    <t>e_w802058337-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/802058337-220,way/802058337-225</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/83861269-220</t>
-  </si>
-  <si>
-    <t>e_w87281514-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/87281514-220</t>
-  </si>
-  <si>
-    <t>e_w88901626-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/88901626-380</t>
-  </si>
-  <si>
-    <t>e_w89405664-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/89405664-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/89977424-220</t>
-  </si>
-  <si>
-    <t>e_w92798668-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/92798668-220</t>
-  </si>
-  <si>
-    <t>e_w92873516-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/92873516-220</t>
-  </si>
-  <si>
-    <t>e_w969811258-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/969811258-220,way/969811258-380</t>
-  </si>
-  <si>
-    <t>e_w969819301-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/969819301-220,way/969819301-380</t>
-  </si>
-  <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/97941869-220</t>
-  </si>
-  <si>
-    <t>e_w98648381-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/98648381-220,way/98648381-380</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -2291,8 +1565,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -2308,12 +1588,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -3446,13 +2720,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="57" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -4299,3614 +3573,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0397A189-11EB-4EAB-8306-2A96CCDA3D20}">
-  <dimension ref="A1:J158"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="B3" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H88" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G113" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8">
-      <c r="B119" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="B120" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H120" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H130" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H133" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D137" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H141" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8">
-      <c r="B145" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H147" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H153" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8">
-      <c r="B154" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H155" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8">
-      <c r="B156" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H156" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G157" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8">
-      <c r="B158" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H158" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
@@ -7978,7 +3644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:R55"/>
   <sheetViews>
@@ -9246,7 +4912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
@@ -9527,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N40"/>
   <sheetViews>
@@ -10085,11 +5751,838 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A879C61-090D-4BA0-A876-5848E0C64179}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P93"/>
+  <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
@@ -11152,14 +7645,20 @@
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>196</v>
+      <c r="G51" s="11" t="str">
+        <f>G46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <v>USD20</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K51" s="11">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="13.15">
@@ -11170,7 +7669,7 @@
         <v>196</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11184,7 +7683,7 @@
         <v>196</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11198,7 +7697,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11209,7 +7708,7 @@
         <v>196</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11220,7 +7719,7 @@
         <v>196</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11231,7 +7730,7 @@
         <v>196</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11242,7 +7741,7 @@
         <v>196</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11253,7 +7752,7 @@
         <v>196</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11264,7 +7763,7 @@
         <v>196</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11275,7 +7774,7 @@
         <v>196</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11286,7 +7785,7 @@
         <v>196</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11297,7 +7796,7 @@
         <v>196</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11308,7 +7807,7 @@
         <v>196</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11319,7 +7818,7 @@
         <v>196</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11330,7 +7829,7 @@
         <v>196</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11341,7 +7840,7 @@
         <v>196</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11352,7 +7851,7 @@
         <v>196</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="K68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11363,7 +7862,7 @@
         <v>196</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11374,7 +7873,7 @@
         <v>196</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11385,7 +7884,7 @@
         <v>196</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11396,7 +7895,7 @@
         <v>196</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11407,7 +7906,7 @@
         <v>196</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11418,7 +7917,7 @@
         <v>196</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11429,7 +7928,7 @@
         <v>196</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11440,7 +7939,7 @@
         <v>196</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11451,7 +7950,7 @@
         <v>196</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11462,7 +7961,7 @@
         <v>196</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11473,7 +7972,7 @@
         <v>196</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11484,7 +7983,7 @@
         <v>196</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11495,7 +7994,7 @@
         <v>196</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11506,7 +8005,7 @@
         <v>196</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11517,7 +8016,7 @@
         <v>196</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11528,7 +8027,7 @@
         <v>196</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11539,7 +8038,7 @@
         <v>196</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11550,7 +8049,7 @@
         <v>196</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11561,7 +8060,7 @@
         <v>196</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11572,7 +8071,7 @@
         <v>196</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11583,7 +8082,7 @@
         <v>196</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11594,7 +8093,7 @@
         <v>196</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11605,7 +8104,7 @@
         <v>196</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11616,7 +8115,7 @@
         <v>196</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -11627,9 +8126,32 @@
         <v>196</v>
       </c>
       <c r="J93" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="11" t="str">
+        <f>J51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="K95" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D834E-D7FE-47BA-AB08-5C1824B6A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484CC8F-F3ED-421F-9232-3667222B17A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A879C61-090D-4BA0-A876-5848E0C64179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A579182-D1DB-41BC-87B3-6EF6B828173A}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484CC8F-F3ED-421F-9232-3667222B17A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F1E5D-43FD-4A16-BB08-77092E95F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A579182-D1DB-41BC-87B3-6EF6B828173A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAFC1B-79F1-43F1-AABC-A7D90235D019}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F1E5D-43FD-4A16-BB08-77092E95F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA33B5-78AF-4327-8B06-B303293A89A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAFC1B-79F1-43F1-AABC-A7D90235D019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F63FB3-3B96-4197-AC84-6121136B4DEA}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA33B5-78AF-4327-8B06-B303293A89A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6727C-DE33-427D-996E-0C4500B86743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F63FB3-3B96-4197-AC84-6121136B4DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9A6B0-C0ED-48E0-B8C1-F4B483FD7DEF}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6727C-DE33-427D-996E-0C4500B86743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01235074-A88D-4823-9EA4-191C61E07A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9A6B0-C0ED-48E0-B8C1-F4B483FD7DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4317EA0D-8451-4587-BD19-98C29D3BCF01}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01235074-A88D-4823-9EA4-191C61E07A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF0A9CE-FC64-4F9F-BBD1-CBBBD2F72036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5752,7 +5752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4317EA0D-8451-4587-BD19-98C29D3BCF01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876065E0-533A-47DA-AE79-448637A453A1}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF0A9CE-FC64-4F9F-BBD1-CBBBD2F72036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47010FC3-50B9-4C38-B818-8B887B58934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="grids" sheetId="7" r:id="rId5"/>
-    <sheet name="Constants" sheetId="5" r:id="rId6"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
+    <sheet name="Constants" sheetId="5" r:id="rId5"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="311">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -972,213 +971,6 @@
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_25</t>
-  </si>
-  <si>
-    <t>~fi_comm</t>
-  </si>
-  <si>
-    <t>e_CH1-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395-220,way/147714395-380,way/148015471-220,way/165254212-220,way/165513396-220,way/165513396-380,way/190819048-220,way/22899676-220,way/240575085-220,way/242269161-220,way/27107779-220,way/27435934-220,way/30350721-220,way/31308888-220,way/33271433-220,way/35002638-220,way/35002638-380,way/356292116-220,way/356292116-380,way/35840165-380,way/397960460-380,way/397960460-400,way/402053379-220,way/50319857-220,way/50319857-380,way/50319857-400,way/50561341-220,way/87281514-220,way/88901626-380,way/89405664-220,way/89977424-220,way/97941869-220,way/98648381-220,way/98648381-380</t>
-  </si>
-  <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>e_CH12-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH12-220,CH12-380,CH13-220,way/192677427-220,way/192677427-380</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH17-380,way/211907009-220</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH18-220,CH18-380</t>
-  </si>
-  <si>
-    <t>e_CH19-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327084723-220,way/140873735-220,way/159527493-220,way/240959264-220,way/281822905-220,way/431234146-220</t>
-  </si>
-  <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,way/71500123-380</t>
-  </si>
-  <si>
-    <t>e_CH30-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH30-380,CH33-380,CH37-380</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH31-220,way/111162936-220,way/111162936-380,way/111162936-400,way/44496892-220,way/55695765-220</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH32-220,way/969811258-220,way/969811258-380</t>
-  </si>
-  <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH4-220,CH9-220,way/455120191-220,way/83861269-220,way/92798668-220,way/92873516-220</t>
-  </si>
-  <si>
-    <t>e_CH41-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH41-380,way/281804158-220,way/281804158-380</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH43-220,CH44-220,way/402055336-220</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH46-220,CH47-220,way/236819191-220,way/364949845-220,way/364949845-380,way/969819301-220,way/969819301-380</t>
-  </si>
-  <si>
-    <t>e_CH48-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH48-225,CH49-225,CH53-225,CH60-225,way/234983117-220,way/234983117-380,way/238138373-380,way/260211728-225,way/260211728-380,way/55698557-220,way/55698557-225,way/802058337-220,way/802058337-225,way/936521586-380</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH50-220,CH56-220,CH58-220,CH59-220,way/281800404-220,way/281803398-220,way/281815404-220,way/35487135-220</t>
-  </si>
-  <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400,CH52-220,CH57-220,CH57-225,way/132373704-220,way/177392130-220,way/177392130-400,way/239937062-220</t>
-  </si>
-  <si>
-    <t>e_r5378910-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- relation/5378910-220,way/1105061707-220,way/1105061707-380,way/161853746-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- relation/7933294-380</t>
-  </si>
-  <si>
-    <t>e_w108257952-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/108257952-220,way/281799252-220,way/52738225-220,way/52738225-380</t>
-  </si>
-  <si>
-    <t>e_w122720993-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/122720993-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/194258388-220</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/207991759-380</t>
-  </si>
-  <si>
-    <t>e_w209324991-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/209324991-220</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/212722603-220,way/212722603-380</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/228003081-220,way/391576135-220,way/391577741-220</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/232662311-220</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/26166640-220</t>
-  </si>
-  <si>
-    <t>e_w26843160-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/26843160-220,way/281809991-220</t>
-  </si>
-  <si>
-    <t>e_w758315582-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/758315582-220</t>
-  </si>
-  <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- way/758943072-220</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +994,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1564,35 +1356,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="50">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1844,26 +1609,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2127,21 +1874,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2696,7 +2428,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2720,13 +2452,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -5752,835 +5477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876065E0-533A-47DA-AE79-448637A453A1}">
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="B3" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
@@ -8161,7 +7061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47010FC3-50B9-4C38-B818-8B887B58934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB135BF9-BC72-421E-9EEB-235E68D06219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB135BF9-BC72-421E-9EEB-235E68D06219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D337E6C-82CB-4657-8471-ED90F368B0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId5"/>
+    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="380">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -971,6 +972,213 @@
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_25</t>
+  </si>
+  <si>
+    <t>~fi_comm</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395-220,way/147714395-380,way/148015471-220,way/165254212-220,way/165513396-220,way/165513396-380,way/190819048-220,way/22899676-220,way/240575085-220,way/242269161-220,way/27107779-220,way/27435934-220,way/30350721-220,way/31308888-220,way/33271433-220,way/35002638-220,way/35002638-380,way/356292116-220,way/356292116-380,way/35840165-380,way/397960460-380,way/397960460-400,way/402053379-220,way/50319857-220,way/50319857-380,way/50319857-400,way/50561341-220,way/87281514-220,way/88901626-380,way/89405664-220,way/89977424-220,way/97941869-220,way/98648381-220,way/98648381-380</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH12-220,CH12-380,CH13-220,way/192677427-220,way/192677427-380</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH17-380,way/211907009-220</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH18-220,CH18-380</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327084723-220,way/140873735-220,way/159527493-220,way/240959264-220,way/281822905-220,way/431234146-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,way/71500123-380</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH30-380,CH33-380,CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH31-220,way/111162936-220,way/111162936-380,way/111162936-400,way/44496892-220,way/55695765-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH32-220,way/969811258-220,way/969811258-380</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH4-220,CH9-220,way/455120191-220,way/83861269-220,way/92798668-220,way/92873516-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH41-380,way/281804158-220,way/281804158-380</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH43-220,CH44-220,way/402055336-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH46-220,CH47-220,way/236819191-220,way/364949845-220,way/364949845-380,way/969819301-220,way/969819301-380</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH48-225,CH49-225,CH53-225,CH60-225,way/234983117-220,way/234983117-380,way/238138373-380,way/260211728-225,way/260211728-380,way/55698557-220,way/55698557-225,way/802058337-220,way/802058337-225,way/936521586-380</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH50-220,CH56-220,CH58-220,CH59-220,way/281800404-220,way/281803398-220,way/281815404-220,way/35487135-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400,CH52-220,CH57-220,CH57-225,way/132373704-220,way/177392130-220,way/177392130-400,way/239937062-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/5378910-220,way/1105061707-220,way/1105061707-380,way/161853746-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/7933294-380</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/108257952-220,way/281799252-220,way/52738225-220,way/52738225-380</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/122720993-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/194258388-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/207991759-380</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/209324991-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/212722603-220,way/212722603-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/228003081-220,way/391576135-220,way/391577741-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/232662311-220</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/26166640-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/26843160-220,way/281809991-220</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/758315582-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/758943072-220</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1202,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +1564,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,8 +1844,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1874,6 +2127,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2428,7 +2696,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2452,6 +2720,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -2905,6 +3180,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D91A476-68C4-8376-50E5-01501417E961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -5477,10 +5807,834 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191ACD33-4634-4054-BC2F-0B675C8E7209}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
@@ -7061,7 +8215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D337E6C-82CB-4657-8471-ED90F368B0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72461F3-C235-4EDA-8B17-1029242887B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D91A476-68C4-8376-50E5-01501417E961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FCD260-DAC0-8139-E113-BCA7821A308A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191ACD33-4634-4054-BC2F-0B675C8E7209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08244421-847D-4CDF-AC2D-B790650CA2DB}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72461F3-C235-4EDA-8B17-1029242887B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A51C0-06B5-4397-A99C-500D3E1C28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FCD260-DAC0-8139-E113-BCA7821A308A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9308BB2B-DD05-021E-6D76-3FC5ACC28F1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08244421-847D-4CDF-AC2D-B790650CA2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0DA7D4-8E80-4D84-995B-CCAF4E98351E}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A51C0-06B5-4397-A99C-500D3E1C28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493BFA2-A217-4A93-8761-010878A65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9308BB2B-DD05-021E-6D76-3FC5ACC28F1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9E8513-49BE-16FA-AA55-4C3A8E674194}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0DA7D4-8E80-4D84-995B-CCAF4E98351E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BDE6B6-0A97-4CAF-8B70-7A5498390726}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493BFA2-A217-4A93-8761-010878A65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236E557-4E06-4139-A16C-541B5CA30101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
     <t>e_CH1-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395-220,way/147714395-380,way/148015471-220,way/165254212-220,way/165513396-220,way/165513396-380,way/190819048-220,way/22899676-220,way/240575085-220,way/242269161-220,way/27107779-220,way/27435934-220,way/30350721-220,way/31308888-220,way/33271433-220,way/35002638-220,way/35002638-380,way/356292116-220,way/356292116-380,way/35840165-380,way/397960460-380,way/397960460-400,way/402053379-220,way/50319857-220,way/50319857-380,way/50319857-400,way/50561341-220,way/87281514-220,way/88901626-380,way/89405664-220,way/89977424-220,way/97941869-220,way/98648381-220,way/98648381-380</t>
+    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395...</t>
   </si>
   <si>
     <t>fx</t>
@@ -1013,13 +1013,13 @@
     <t>e_CH19-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327084723-220,way/140873735-220,way/159527493-220,way/240959264-220,way/281822905-220,way/431234146-220</t>
+    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327...</t>
   </si>
   <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,way/71500123-380</t>
+    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,wa...</t>
   </si>
   <si>
     <t>e_CH30-380</t>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9E8513-49BE-16FA-AA55-4C3A8E674194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8DC6DB-FE9B-627F-9533-2B08CFCA6481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BDE6B6-0A97-4CAF-8B70-7A5498390726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E5B5A7-A9F7-49A3-8C02-F6AB2853244F}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236E557-4E06-4139-A16C-541B5CA30101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA2074F-11A2-4243-94FD-F90ECC9354A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8DC6DB-FE9B-627F-9533-2B08CFCA6481}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A8EED5-6AA0-9882-0218-30E1EE187A06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E5B5A7-A9F7-49A3-8C02-F6AB2853244F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D1BE1B-E977-4809-874A-C492FEC78DE1}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA2074F-11A2-4243-94FD-F90ECC9354A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3AD3B8-AF04-4C2C-801E-912FBE28DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="622">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -980,16 +980,40 @@
     <t>e_CH1-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH1-220,CH11-220,CH14-220,CH14-380,CH15-220,CH2-220,CH3-220,CH5-220,CH6-220,CH7-220,relation/9310861-220,way/109037817-220,way/109037817-380,way/11282314-220,way/1284913429-220,way/146225999-220,way/147557680-220,way/147714395...</t>
+    <t>aggregated grid node -- CH1-220</t>
   </si>
   <si>
     <t>fx</t>
   </si>
   <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH11-220</t>
+  </si>
+  <si>
     <t>e_CH12-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH12-220,CH12-380,CH13-220,way/192677427-220,way/192677427-380</t>
+    <t>aggregated grid node -- CH12-220,CH12-380</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH14-220,CH14-380</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH15-220</t>
   </si>
   <si>
     <t>e_CH16-380</t>
@@ -1001,7 +1025,7 @@
     <t>e_CH17-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH17-380,way/211907009-220</t>
+    <t>aggregated grid node -- CH17-380</t>
   </si>
   <si>
     <t>e_CH18-220</t>
@@ -1013,49 +1037,175 @@
     <t>e_CH19-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH19-220,CH20-220,CH23-220,CH24-220,CH25-220,CH26-220,CH27-220,CH28-220,CH34-220,CH34-380,CH35-220,CH36-220,CH38-220,CH39-220,CH40-220,CH42-220,way/100662075-220,way/1086214433-220,way/1092884227-220,way/130198336-220,way/1327...</t>
+    <t>aggregated grid node -- CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH20-220</t>
   </si>
   <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH21-220,CH22-220,CH22-380,CH29-220,CH29-380,way/1208713169-220,way/207993342-220,way/207993342-380,way/208780268-380,way/210568055-220,way/210568055-380,way/212498548-220,way/36348118-220,way/365556107-220,way/71500123-220,wa...</t>
+    <t>aggregated grid node -- CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH22-220,CH22-380</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH24-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH29-220,CH29-380</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH3-220</t>
   </si>
   <si>
     <t>e_CH30-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH30-380,CH33-380,CH37-380</t>
+    <t>aggregated grid node -- CH30-380</t>
   </si>
   <si>
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH31-220,way/111162936-220,way/111162936-380,way/111162936-400,way/44496892-220,way/55695765-220</t>
+    <t>aggregated grid node -- CH31-220</t>
   </si>
   <si>
     <t>e_CH32-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH32-220,way/969811258-220,way/969811258-380</t>
+    <t>aggregated grid node -- CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH33-380</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH34-220,CH34-380</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH39-220</t>
   </si>
   <si>
     <t>e_CH4-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH4-220,CH9-220,way/455120191-220,way/83861269-220,way/92798668-220,way/92873516-220</t>
+    <t>aggregated grid node -- CH4-220</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH40-220</t>
   </si>
   <si>
     <t>e_CH41-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH41-380,way/281804158-220,way/281804158-380</t>
+    <t>aggregated grid node -- CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH42-220</t>
   </si>
   <si>
     <t>e_CH43-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH43-220,CH44-220,way/402055336-220</t>
+    <t>aggregated grid node -- CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH44-220</t>
   </si>
   <si>
     <t>e_CH45-220</t>
@@ -1067,31 +1217,109 @@
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH46-220,CH47-220,way/236819191-220,way/364949845-220,way/364949845-380,way/969819301-220,way/969819301-380</t>
+    <t>aggregated grid node -- CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH47-220</t>
   </si>
   <si>
     <t>e_CH48-225</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH48-225,CH49-225,CH53-225,CH60-225,way/234983117-220,way/234983117-380,way/238138373-380,way/260211728-225,way/260211728-380,way/55698557-220,way/55698557-225,way/802058337-220,way/802058337-225,way/936521586-380</t>
+    <t>aggregated grid node -- CH48-225</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH5-220</t>
   </si>
   <si>
     <t>e_CH50-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH50-220,CH56-220,CH58-220,CH59-220,way/281800404-220,way/281803398-220,way/281815404-220,way/35487135-220</t>
+    <t>aggregated grid node -- CH50-220</t>
   </si>
   <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400,CH52-220,CH57-220,CH57-225,way/132373704-220,way/177392130-220,way/177392130-400,way/239937062-220</t>
+    <t>aggregated grid node -- CH51-220,CH51-225,CH51-400</t>
+  </si>
+  <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH53-225</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH57-220,CH57-225</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH59-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH60-225,way/936521586-380</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH7-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- CH9-220</t>
   </si>
   <si>
     <t>e_r5378910-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/5378910-220,way/1105061707-220,way/1105061707-380,way/161853746-220</t>
+    <t>aggregated grid node -- relation/5378910-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
@@ -1100,10 +1328,64 @@
     <t>aggregated grid node -- relation/7933294-380</t>
   </si>
   <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- relation/9310861-220</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/100662075-220</t>
+  </si>
+  <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/108257952-220,way/281799252-220,way/52738225-220,way/52738225-380</t>
+    <t>aggregated grid node -- way/108257952-220</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/109037817-220,way/109037817-380</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1092884227-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1105061707-220,way/1105061707-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/111162936-220,way/111162936-380,way/111162936-400</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/11282314-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1208713169-220</t>
   </si>
   <si>
     <t>e_w122720993-220</t>
@@ -1118,6 +1400,96 @@
     <t>aggregated grid node -- way/127004407-380,way/127004407-400</t>
   </si>
   <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1284913429-220,way/165513396-220,way/165513396-380</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/130198336-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/132373704-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/1327084723-220</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/140873735-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/146225999-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/147714395-220,way/147714395-380</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/148015471-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/159527493-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/161853746-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/165254212-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/177392130-220,way/177392130-400</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/190819048-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/192677427-220,way/192677427-380</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
@@ -1130,12 +1502,42 @@
     <t>aggregated grid node -- way/207991759-380</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/207993342-220,way/207993342-380</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/208780268-380</t>
+  </si>
+  <si>
     <t>e_w209324991-220</t>
   </si>
   <si>
     <t>aggregated grid node -- way/209324991-220</t>
   </si>
   <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/210568055-220,way/210568055-380</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/211907009-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/212498548-220</t>
+  </si>
+  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
@@ -1145,7 +1547,13 @@
     <t>e_w228003081-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/228003081-220,way/391576135-220,way/391577741-220</t>
+    <t>aggregated grid node -- way/228003081-220</t>
+  </si>
+  <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/22899676-220</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
@@ -1154,6 +1562,54 @@
     <t>aggregated grid node -- way/232662311-220</t>
   </si>
   <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/234983117-220,way/234983117-380</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/236819191-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/238138373-380</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/239937062-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/240575085-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/240959264-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/242269161-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/260211728-225,way/260211728-380</t>
+  </si>
+  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
@@ -1163,7 +1619,205 @@
     <t>e_w26843160-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/26843160-220,way/281809991-220</t>
+    <t>aggregated grid node -- way/26843160-220</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/27107779-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/27435934-220</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281800404-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281803398-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281804158-220,way/281804158-380</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281809991-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/281822905-220</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/30350721-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/31308888-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/33271433-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35002638-220,way/35002638-380</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35487135-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/356292116-220,way/356292116-380</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/35840165-380</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/36348118-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/364949845-220,way/364949845-380</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/365556107-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/391576135-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/391577741-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/397960460-380,way/397960460-400</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/402053379-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/402055336-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/431234146-220</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/50319857-220,way/50319857-380,way/50319857-400</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/50561341-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/52738225-220,way/52738225-380</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/55698557-220,way/55698557-225</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/71500123-220,way/71500123-380</t>
   </si>
   <si>
     <t>e_w758315582-220</t>
@@ -1176,6 +1830,78 @@
   </si>
   <si>
     <t>aggregated grid node -- way/758943072-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/802058337-220,way/802058337-225</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/83861269-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/87281514-220</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/88901626-380</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/89405664-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/89977424-220</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/92798668-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/92873516-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/969811258-220,way/969811258-380</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/969819301-220,way/969819301-380</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/97941869-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- way/98648381-220,way/98648381-380</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -3198,7 +3924,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A8EED5-6AA0-9882-0218-30E1EE187A06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88523DF5-ECFC-CCFB-101D-3E9CB208FB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,15 +6533,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D1BE1B-E977-4809-874A-C492FEC78DE1}">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F7D7A-4C22-45FA-BFCC-BF3D4AAF3205}">
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
@@ -5824,7 +6550,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>379</v>
+        <v>621</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6618,6 +7344,2789 @@
         <v>314</v>
       </c>
       <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H158" s="25" t="s">
         <v>210</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3AD3B8-AF04-4C2C-801E-912FBE28DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544954E4-949B-4772-B12A-3124ED6BB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3924,7 +3924,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88523DF5-ECFC-CCFB-101D-3E9CB208FB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35136B32-8840-0A2B-1506-BD9D9851F395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F7D7A-4C22-45FA-BFCC-BF3D4AAF3205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEB953-A700-4DC1-8E72-45C02494B187}">
   <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544954E4-949B-4772-B12A-3124ED6BB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792162D-5579-43D6-A4E7-9C2779B10D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3924,7 +3924,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35136B32-8840-0A2B-1506-BD9D9851F395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7EDA70-664B-1D56-3678-34BFDB9436DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEB953-A700-4DC1-8E72-45C02494B187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC910DF9-EFF8-4E82-BA7F-0C2480A5AB0E}">
   <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BECBDF-5189-4DBA-BC99-E2D246D09681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B0192-5711-4852-BC96-72A82145CF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId5"/>
+    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="544">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -52,9 +53,6 @@
     <t>~TimeSlices</t>
   </si>
   <si>
-    <t>GBL</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -659,6 +657,1020 @@
   </si>
   <si>
     <t>co2net</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_0</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_1</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_2</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_3</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_4</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_5</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_6</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_7</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_8</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_9</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_10</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_11</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_12</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_13</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_14</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_15</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_17</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_18</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_19</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_20</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_21</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_22</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_23</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_24</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>solar generation in grid cell -- CHE_25</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_0</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_1</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_2</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_3</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_4</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_5</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_6</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_7</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_8</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_9</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_10</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_11</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_12</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_13</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_14</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_15</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_16</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_17</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_18</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_19</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_20</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_21</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_22</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_23</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_24</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>wind generation in grid cell -- CHE_25</t>
+  </si>
+  <si>
+    <t>~fi_comm</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 148,161,5532,5533,5534</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 149</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 150,151,3839,3840</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 152</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 153,154</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 155,6669</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 156</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 157</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 158,159</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 160,162</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 163,5113,5951,5952</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 164,165</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 166,167,169,171,2835</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 168,170,2307</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 172,173</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 174,3294,3295,4170</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 175</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 176,2377,2378,2379,5370</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 177</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 178</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 179,180,181,182,184,185,187</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 183</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 186</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 188</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 189,4675</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 190,191</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 192</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 193,6641,6642</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 194</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 195,196</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 197,6434</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 198</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 199,200,201</t>
+  </si>
+  <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 202,4301</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 203,5636,5637</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 204,207,4674</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 205,206,3700,3701</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 208</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 209</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 210,6531</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 211</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 212,5399,6219</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 1912,3464</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 1966</t>
+  </si>
+  <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2023,3297</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2064</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2304</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2317,2318</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2326</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2366,2367</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2417</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2597</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2643</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2757,2758</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2799,3496,3497</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2875</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2886</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2995</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3196</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3273</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3445</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3495</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3827</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3849</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4029</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4030,4031</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4045</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4054</t>
+  </si>
+  <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4066,4067</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4078</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4080</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4081,4082</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4163</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4234</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4257,4258,6103,6104</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4275</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4282,4494,4495</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4315</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4316</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4326</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4509</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4567</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4578</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4595</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4668</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4669</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4670</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4671,4672</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4673</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4878</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4926</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5004</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5071,5072</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5092</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5096,5097</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5104</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5115,5116</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5118</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5197,5198</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5217,5218</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5231</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5232</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5329</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5537</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5580,5581</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5634</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6028</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6031</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6336</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6389</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6410</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6502</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6504</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6639,6640</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6699,6700</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
@@ -682,7 +1694,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,8 +2056,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,8 +2336,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1562,6 +2619,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2116,7 +3188,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2140,6 +3212,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -2593,6 +3672,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B889C7-5394-945D-914B-B9DEECE9D81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3020,35 +4154,35 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +4193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3075,9 +4209,9 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3087,237 +4221,1234 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="M3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="M4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="C9" t="s">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" t="s">
+        <v>224</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O13" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>227</v>
+      </c>
+      <c r="O14" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>231</v>
+      </c>
+      <c r="O16" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>237</v>
+      </c>
+      <c r="O19" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
         <v>198</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>199</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>200</v>
       </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>239</v>
+      </c>
+      <c r="O20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>241</v>
+      </c>
+      <c r="O21" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="C22" t="s">
         <v>205</v>
       </c>
-      <c r="E21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>243</v>
+      </c>
+      <c r="O22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>245</v>
+      </c>
+      <c r="O23" t="s">
+        <v>246</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>248</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>254</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>262</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18">
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>266</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18">
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>268</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="13:18">
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>270</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="13:18">
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>272</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="13:18">
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="13:18">
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="13:18">
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>278</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="13:18">
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" t="s">
+        <v>280</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="13:18">
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="13:18">
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>283</v>
+      </c>
+      <c r="O42" t="s">
+        <v>284</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="13:18">
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>286</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="13:18">
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" t="s">
+        <v>288</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="13:18">
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" t="s">
+        <v>290</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="13:18">
+      <c r="M46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" t="s">
+        <v>292</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="13:18">
+      <c r="M47" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" t="s">
+        <v>293</v>
+      </c>
+      <c r="O47" t="s">
+        <v>294</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="13:18">
+      <c r="M48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" t="s">
+        <v>295</v>
+      </c>
+      <c r="O48" t="s">
+        <v>296</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18">
+      <c r="M49" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" t="s">
+        <v>297</v>
+      </c>
+      <c r="O49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="13:18">
+      <c r="M50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" t="s">
+        <v>299</v>
+      </c>
+      <c r="O50" t="s">
+        <v>300</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="13:18">
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" t="s">
+        <v>301</v>
+      </c>
+      <c r="O51" t="s">
+        <v>302</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="13:18">
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" t="s">
+        <v>303</v>
+      </c>
+      <c r="O52" t="s">
+        <v>304</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="13:18">
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
+        <v>305</v>
+      </c>
+      <c r="O53" t="s">
+        <v>306</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="13:18">
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>307</v>
+      </c>
+      <c r="O54" t="s">
+        <v>308</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="13:18">
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s">
+        <v>309</v>
+      </c>
+      <c r="O55" t="s">
+        <v>310</v>
+      </c>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3347,7 +5478,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3357,28 +5488,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3398,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3406,7 +5537,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3426,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3446,7 +5577,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3466,7 +5597,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3486,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3506,7 +5637,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3522,7 +5653,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3534,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3542,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3550,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3558,37 +5689,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3656,7 +5787,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3664,42 +5795,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3710,7 +5841,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3721,7 +5852,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3732,7 +5863,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3743,7 +5874,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3751,50 +5882,50 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="11">
         <v>2222</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="11">
         <v>8888</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="12.75">
@@ -4168,10 +6299,2720 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E108952-E510-4AF4-8482-F3C21B507031}">
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
@@ -4185,13 +9026,13 @@
     <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4199,62 +9040,62 @@
     <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K3" s="4">
         <v>2022</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6"/>
       <c r="G4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="11">
         <v>0.05</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="P4" s="6">
         <v>1055.55</v>
@@ -4263,25 +9104,25 @@
     <row r="5" spans="1:16" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="K5" s="11">
         <v>1</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" s="6">
         <v>3.6</v>
@@ -4290,19 +9131,19 @@
     <row r="6" spans="1:16" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" s="11">
         <v>2025</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="P6" s="6">
         <v>1000</v>
@@ -4311,19 +9152,19 @@
     <row r="7" spans="1:16" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="11">
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="P7" s="6">
         <v>1000</v>
@@ -4332,25 +9173,25 @@
     <row r="8" spans="1:16" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="11">
         <v>2.2201</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" s="6">
         <v>1.05555</v>
@@ -4359,25 +9200,25 @@
     <row r="9" spans="1:16" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="11">
         <v>2.1427</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4386,25 +9227,25 @@
     <row r="10" spans="1:16" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" s="11">
         <v>2.077</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="6">
         <v>41.868000000000002</v>
@@ -4413,25 +9254,25 @@
     <row r="11" spans="1:16" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4440,25 +9281,25 @@
     <row r="12" spans="1:16" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="6">
         <v>1000000</v>
@@ -4467,25 +9308,25 @@
     <row r="13" spans="1:16" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" s="11">
         <v>1.9192</v>
       </c>
       <c r="N13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="P13" s="6">
         <v>1000</v>
@@ -4494,25 +9335,25 @@
     <row r="14" spans="1:16" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="11">
         <v>1.8468</v>
       </c>
       <c r="N14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="P14" s="6">
         <v>5.8615199999999996</v>
@@ -4521,25 +9362,25 @@
     <row r="15" spans="1:16" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="11">
         <v>1.7799</v>
       </c>
       <c r="N15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="P15" s="6">
         <v>1E-3</v>
@@ -4548,25 +9389,25 @@
     <row r="16" spans="1:16" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="11">
         <v>1.722</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="6">
         <v>1000</v>
@@ -4575,25 +9416,25 @@
     <row r="17" spans="1:16" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" s="11">
         <v>1.6836</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" s="6">
         <v>37.68</v>
@@ -4601,25 +9442,25 @@
     </row>
     <row r="18" spans="1:16" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P18" s="6">
         <v>2139.4548</v>
@@ -4627,25 +9468,25 @@
     </row>
     <row r="19" spans="1:16" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="P19" s="6">
         <v>2.78</v>
@@ -4653,25 +9494,25 @@
     </row>
     <row r="20" spans="1:16" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P20" s="6">
         <v>3.6</v>
@@ -4679,25 +9520,25 @@
     </row>
     <row r="21" spans="1:16" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" s="11">
         <v>1.5488</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P21" s="6">
         <v>1</v>
@@ -4705,25 +9546,25 @@
     </row>
     <row r="22" spans="1:16" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="11">
         <v>1.5224</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P22" s="6">
         <v>31.536000000000001</v>
@@ -4731,25 +9572,25 @@
     </row>
     <row r="23" spans="1:16" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="11">
         <v>1.5058</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P23" s="6">
         <v>120</v>
@@ -4757,25 +9598,25 @@
     </row>
     <row r="24" spans="1:16" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P24" s="11">
         <v>5.8615199999999996</v>
@@ -4783,25 +9624,25 @@
     </row>
     <row r="25" spans="1:16" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="11">
         <v>1.4518</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P25" s="11">
         <v>54</v>
@@ -4809,16 +9650,16 @@
     </row>
     <row r="26" spans="1:16" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" s="11">
         <v>1.4198999999999999</v>
@@ -4826,16 +9667,16 @@
     </row>
     <row r="27" spans="1:16" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="11">
         <v>1.3986000000000001</v>
@@ -4843,16 +9684,16 @@
     </row>
     <row r="28" spans="1:16" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" s="11">
         <v>1.3727</v>
@@ -4860,16 +9701,16 @@
     </row>
     <row r="29" spans="1:16" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K29" s="11">
         <v>1.3369</v>
@@ -4877,16 +9718,16 @@
     </row>
     <row r="30" spans="1:16" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="11">
         <v>1.2967</v>
@@ -4894,16 +9735,16 @@
     </row>
     <row r="31" spans="1:16" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K31" s="11">
         <v>1.2583</v>
@@ -4911,16 +9752,16 @@
     </row>
     <row r="32" spans="1:16" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" s="11">
         <v>1.2253000000000001</v>
@@ -4928,16 +9769,16 @@
     </row>
     <row r="33" spans="2:11" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="11">
         <v>1.2023999999999999</v>
@@ -4945,16 +9786,16 @@
     </row>
     <row r="34" spans="2:11" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K34" s="11">
         <v>1.1931</v>
@@ -4962,16 +9803,16 @@
     </row>
     <row r="35" spans="2:11" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" s="11">
         <v>1.1793</v>
@@ -4979,16 +9820,16 @@
     </row>
     <row r="36" spans="2:11" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" s="11">
         <v>1.1552</v>
@@ -4996,16 +9837,16 @@
     </row>
     <row r="37" spans="2:11" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="11">
         <v>1.1334</v>
@@ -5013,16 +9854,16 @@
     </row>
     <row r="38" spans="2:11" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K38" s="11">
         <v>1.1136999999999999</v>
@@ -5030,16 +9871,16 @@
     </row>
     <row r="39" spans="2:11" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K39" s="11">
         <v>1.0934999999999999</v>
@@ -5047,16 +9888,16 @@
     </row>
     <row r="40" spans="2:11" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K40" s="11">
         <v>1.0831</v>
@@ -5064,16 +9905,16 @@
     </row>
     <row r="41" spans="2:11" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K41" s="11">
         <v>1.0719000000000001</v>
@@ -5081,16 +9922,16 @@
     </row>
     <row r="42" spans="2:11" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" s="11">
         <v>1.0519000000000001</v>
@@ -5098,16 +9939,16 @@
     </row>
     <row r="43" spans="2:11" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K43" s="11">
         <v>1.0274000000000001</v>
@@ -5115,16 +9956,16 @@
     </row>
     <row r="44" spans="2:11" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" s="11">
         <v>1.0091000000000001</v>
@@ -5132,16 +9973,16 @@
     </row>
     <row r="45" spans="2:11" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="11">
         <v>1</v>
@@ -5149,16 +9990,16 @@
     </row>
     <row r="46" spans="2:11" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K46" s="11">
         <v>0.98960000000000004</v>
@@ -5166,16 +10007,16 @@
     </row>
     <row r="47" spans="2:11" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K47" s="11">
         <v>0.97809999999999997</v>
@@ -5183,16 +10024,16 @@
     </row>
     <row r="48" spans="2:11" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K48" s="11">
         <v>0.96499999999999997</v>
@@ -5200,16 +10041,16 @@
     </row>
     <row r="49" spans="2:11" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K49" s="11">
         <v>0.94910000000000005</v>
@@ -5217,16 +10058,16 @@
     </row>
     <row r="50" spans="2:11" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K50" s="11">
         <v>0.92969999999999997</v>
@@ -5234,18 +10075,18 @@
     </row>
     <row r="51" spans="2:11" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G51" s="11" t="str">
         <f>G46</f>
         <v>G_CUREX</v>
       </c>
       <c r="I51" s="11" t="str">
-        <f t="shared" ref="H51:K51" si="0">I46</f>
+        <f t="shared" ref="I51:K51" si="0">I46</f>
         <v>USD20</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K51" s="11">
         <f t="shared" si="0"/>
@@ -5254,13 +10095,13 @@
     </row>
     <row r="52" spans="2:11" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5268,13 +10109,13 @@
     </row>
     <row r="53" spans="2:11" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5282,13 +10123,13 @@
     </row>
     <row r="54" spans="2:11" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5296,10 +10137,10 @@
     </row>
     <row r="55" spans="2:11">
       <c r="G55" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5307,10 +10148,10 @@
     </row>
     <row r="56" spans="2:11">
       <c r="G56" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5318,10 +10159,10 @@
     </row>
     <row r="57" spans="2:11">
       <c r="G57" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5329,10 +10170,10 @@
     </row>
     <row r="58" spans="2:11">
       <c r="G58" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5340,10 +10181,10 @@
     </row>
     <row r="59" spans="2:11">
       <c r="G59" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5351,10 +10192,10 @@
     </row>
     <row r="60" spans="2:11">
       <c r="G60" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5362,10 +10203,10 @@
     </row>
     <row r="61" spans="2:11">
       <c r="G61" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5373,10 +10214,10 @@
     </row>
     <row r="62" spans="2:11">
       <c r="G62" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5384,10 +10225,10 @@
     </row>
     <row r="63" spans="2:11">
       <c r="G63" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5395,10 +10236,10 @@
     </row>
     <row r="64" spans="2:11">
       <c r="G64" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5406,10 +10247,10 @@
     </row>
     <row r="65" spans="7:11">
       <c r="G65" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5417,10 +10258,10 @@
     </row>
     <row r="66" spans="7:11">
       <c r="G66" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5428,10 +10269,10 @@
     </row>
     <row r="67" spans="7:11">
       <c r="G67" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5439,10 +10280,10 @@
     </row>
     <row r="68" spans="7:11">
       <c r="G68" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5450,10 +10291,10 @@
     </row>
     <row r="69" spans="7:11">
       <c r="G69" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5461,10 +10302,10 @@
     </row>
     <row r="70" spans="7:11">
       <c r="G70" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5472,10 +10313,10 @@
     </row>
     <row r="71" spans="7:11">
       <c r="G71" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5483,10 +10324,10 @@
     </row>
     <row r="72" spans="7:11">
       <c r="G72" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5494,10 +10335,10 @@
     </row>
     <row r="73" spans="7:11">
       <c r="G73" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5505,10 +10346,10 @@
     </row>
     <row r="74" spans="7:11">
       <c r="G74" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5516,10 +10357,10 @@
     </row>
     <row r="75" spans="7:11">
       <c r="G75" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5527,10 +10368,10 @@
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5538,10 +10379,10 @@
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5549,10 +10390,10 @@
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5560,10 +10401,10 @@
     </row>
     <row r="79" spans="7:11">
       <c r="G79" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5571,10 +10412,10 @@
     </row>
     <row r="80" spans="7:11">
       <c r="G80" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5582,10 +10423,10 @@
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5593,10 +10434,10 @@
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5604,10 +10445,10 @@
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5615,10 +10456,10 @@
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5626,10 +10467,10 @@
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5637,10 +10478,10 @@
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5648,10 +10489,10 @@
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5659,10 +10500,10 @@
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5670,10 +10511,10 @@
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5681,10 +10522,10 @@
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5692,10 +10533,10 @@
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5703,10 +10544,10 @@
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5714,10 +10555,10 @@
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5725,10 +10566,10 @@
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5736,7 +10577,7 @@
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J95" s="11" t="str">
         <f>J51</f>
@@ -5752,7 +10593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
@@ -5769,26 +10610,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5796,10 +10637,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5807,10 +10648,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5818,10 +10659,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -5829,10 +10670,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5840,10 +10681,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5851,10 +10692,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5862,10 +10703,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5873,10 +10714,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5884,10 +10725,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -5895,10 +10736,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -5906,10 +10747,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5917,10 +10758,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5928,10 +10769,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5939,10 +10780,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -5950,10 +10791,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -5961,73 +10802,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B0192-5711-4852-BC96-72A82145CF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7D30F-3C18-4524-B545-110437A6C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3690,7 +3690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B889C7-5394-945D-914B-B9DEECE9D81F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6065ADB-E650-C067-4208-5429A2DD622E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E108952-E510-4AF4-8482-F3C21B507031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB984CF8-0D86-4283-9DEF-AE9491AFD9D8}">
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7D30F-3C18-4524-B545-110437A6C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943A7E8-55DA-436F-A15D-13F2E4B88E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="626">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -980,7 +980,7 @@
     <t>e_CH1-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 148,161,5532,5533,5534</t>
+    <t>aggregated grid node -- 148</t>
   </si>
   <si>
     <t>fx</t>
@@ -995,7 +995,7 @@
     <t>e_CH12-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 150,151,3839,3840</t>
+    <t>aggregated grid node -- 150,151</t>
   </si>
   <si>
     <t>e_CH13-220</t>
@@ -1013,7 +1013,7 @@
     <t>e_CH15-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 155,6669</t>
+    <t>aggregated grid node -- 155</t>
   </si>
   <si>
     <t>e_CH16-380</t>
@@ -1037,13 +1037,25 @@
     <t>e_CH19-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 160,162</t>
+    <t>aggregated grid node -- 160</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 161</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 162</t>
   </si>
   <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 163,5113,5951,5952</t>
+    <t>aggregated grid node -- 163</t>
   </si>
   <si>
     <t>e_CH22-220</t>
@@ -1055,13 +1067,37 @@
     <t>e_CH23-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 166,167,169,171,2835</t>
+    <t>aggregated grid node -- 166</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 167</t>
   </si>
   <si>
     <t>e_CH25-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 168,170,2307</t>
+    <t>aggregated grid node -- 168</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 169</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 170</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 171</t>
   </si>
   <si>
     <t>e_CH29-220</t>
@@ -1073,7 +1109,7 @@
     <t>e_CH3-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 174,3294,3295,4170</t>
+    <t>aggregated grid node -- 174</t>
   </si>
   <si>
     <t>e_CH30-380</t>
@@ -1085,7 +1121,7 @@
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 176,2377,2378,2379,5370</t>
+    <t>aggregated grid node -- 176</t>
   </si>
   <si>
     <t>e_CH32-220</t>
@@ -1103,7 +1139,19 @@
     <t>e_CH34-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 179,180,181,182,184,185,187</t>
+    <t>aggregated grid node -- 179,180</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 181</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 182</t>
   </si>
   <si>
     <t>e_CH37-380</t>
@@ -1112,12 +1160,30 @@
     <t>aggregated grid node -- 183</t>
   </si>
   <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 184</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 185</t>
+  </si>
+  <si>
     <t>e_CH4-220</t>
   </si>
   <si>
     <t>aggregated grid node -- 186</t>
   </si>
   <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 187</t>
+  </si>
+  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
@@ -1127,13 +1193,19 @@
     <t>e_CH42-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 189,4675</t>
+    <t>aggregated grid node -- 189</t>
   </si>
   <si>
     <t>e_CH43-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 190,191</t>
+    <t>aggregated grid node -- 190</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 191</t>
   </si>
   <si>
     <t>e_CH45-220</t>
@@ -1145,7 +1217,7 @@
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 193,6641,6642</t>
+    <t>aggregated grid node -- 193</t>
   </si>
   <si>
     <t>e_CH47-220</t>
@@ -1157,13 +1229,19 @@
     <t>e_CH48-225</t>
   </si>
   <si>
-    <t>aggregated grid node -- 195,196</t>
+    <t>aggregated grid node -- 195</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 196</t>
   </si>
   <si>
     <t>e_CH5-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 197,6434</t>
+    <t>aggregated grid node -- 197</t>
   </si>
   <si>
     <t>e_CH50-220</t>
@@ -1181,25 +1259,31 @@
     <t>e_CH52-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 202,4301</t>
+    <t>aggregated grid node -- 202</t>
   </si>
   <si>
     <t>e_CH53-225</t>
   </si>
   <si>
-    <t>aggregated grid node -- 203,5636,5637</t>
+    <t>aggregated grid node -- 203</t>
   </si>
   <si>
     <t>e_CH56-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 204,207,4674</t>
+    <t>aggregated grid node -- 204</t>
   </si>
   <si>
     <t>e_CH57-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 205,206,3700,3701</t>
+    <t>aggregated grid node -- 205,206</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 207</t>
   </si>
   <si>
     <t>e_CH59-220</t>
@@ -1217,7 +1301,7 @@
     <t>e_CH60-225</t>
   </si>
   <si>
-    <t>aggregated grid node -- 210,6531</t>
+    <t>aggregated grid node -- 210</t>
   </si>
   <si>
     <t>e_CH7-220</t>
@@ -1229,13 +1313,13 @@
     <t>e_CH9-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 212,5399,6219</t>
+    <t>aggregated grid node -- 212</t>
   </si>
   <si>
     <t>e_r5378910-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 1912,3464</t>
+    <t>aggregated grid node -- 1912</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
@@ -1247,7 +1331,7 @@
     <t>e_r9310861-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 2023,3297</t>
+    <t>aggregated grid node -- 2023</t>
   </si>
   <si>
     <t>e_w100662075-220</t>
@@ -1262,6 +1346,12 @@
     <t>aggregated grid node -- 2304</t>
   </si>
   <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2307</t>
+  </si>
+  <si>
     <t>e_w109037817-220</t>
   </si>
   <si>
@@ -1280,6 +1370,12 @@
     <t>aggregated grid node -- 2366,2367</t>
   </si>
   <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2377,2378,2379</t>
+  </si>
+  <si>
     <t>e_w11282314-220</t>
   </si>
   <si>
@@ -1307,7 +1403,13 @@
     <t>e_w1284913429-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 2799,3496,3497</t>
+    <t>aggregated grid node -- 2799</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 2835</t>
   </si>
   <si>
     <t>e_w132373704-220</t>
@@ -1340,24 +1442,60 @@
     <t>aggregated grid node -- 3273</t>
   </si>
   <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3294,3295</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3297</t>
+  </si>
+  <si>
     <t>e_w159527493-220</t>
   </si>
   <si>
     <t>aggregated grid node -- 3445</t>
   </si>
   <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3464</t>
+  </si>
+  <si>
     <t>e_w165254212-220</t>
   </si>
   <si>
     <t>aggregated grid node -- 3495</t>
   </si>
   <si>
+    <t>e_w165513396-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3496,3497</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3700,3701</t>
+  </si>
+  <si>
     <t>e_w190819048-220</t>
   </si>
   <si>
     <t>aggregated grid node -- 3827</t>
   </si>
   <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 3839,3840</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
@@ -1418,6 +1556,12 @@
     <t>aggregated grid node -- 4163</t>
   </si>
   <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4170</t>
+  </si>
+  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
@@ -1427,7 +1571,7 @@
     <t>e_w234983117-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 4257,4258,6103,6104</t>
+    <t>aggregated grid node -- 4257,4258</t>
   </si>
   <si>
     <t>e_w236819191-220</t>
@@ -1439,7 +1583,13 @@
     <t>e_w238138373-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- 4282,4494,4495</t>
+    <t>aggregated grid node -- 4282</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4301</t>
   </si>
   <si>
     <t>e_w240575085-220</t>
@@ -1460,6 +1610,12 @@
     <t>aggregated grid node -- 4326</t>
   </si>
   <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4494,4495</t>
+  </si>
+  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
@@ -1514,6 +1670,18 @@
     <t>aggregated grid node -- 4673</t>
   </si>
   <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4674</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 4675</t>
+  </si>
+  <si>
     <t>e_w30350721-220</t>
   </si>
   <si>
@@ -1556,6 +1724,12 @@
     <t>aggregated grid node -- 5104</t>
   </si>
   <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5113</t>
+  </si>
+  <si>
     <t>e_w364949845-220</t>
   </si>
   <si>
@@ -1571,7 +1745,13 @@
     <t>e_w391576135-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- 5197,5198</t>
+    <t>aggregated grid node -- 5197</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5198</t>
   </si>
   <si>
     <t>e_w397960460-380</t>
@@ -1598,6 +1778,24 @@
     <t>aggregated grid node -- 5329</t>
   </si>
   <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5370</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5399</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5532,5533,5534</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
@@ -1616,6 +1814,18 @@
     <t>aggregated grid node -- 5634</t>
   </si>
   <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5636,5637</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 5951,5952</t>
+  </si>
+  <si>
     <t>e_w758315582-220</t>
   </si>
   <si>
@@ -1628,6 +1838,18 @@
     <t>aggregated grid node -- 6031</t>
   </si>
   <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6103,6104</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6219</t>
+  </si>
+  <si>
     <t>e_w87281514-220</t>
   </si>
   <si>
@@ -1646,6 +1868,12 @@
     <t>aggregated grid node -- 6410</t>
   </si>
   <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6434</t>
+  </si>
+  <si>
     <t>e_w92798668-220</t>
   </si>
   <si>
@@ -1658,10 +1886,28 @@
     <t>aggregated grid node -- 6504</t>
   </si>
   <si>
+    <t>e_w936521586-380</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6531</t>
+  </si>
+  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
     <t>aggregated grid node -- 6639,6640</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6641,6642</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>aggregated grid node -- 6669</t>
   </si>
   <si>
     <t>e_w98648381-220</t>
@@ -3690,7 +3936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6065ADB-E650-C067-4208-5429A2DD622E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644EB9E3-B8ED-CE77-D661-F28580A1947D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,8 +6545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB984CF8-0D86-4283-9DEF-AE9491AFD9D8}">
-  <dimension ref="A1:H119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EE851B-2BF8-49B1-AE4E-A8CE7284DBFC}">
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6308,7 +6554,7 @@
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.59765625" customWidth="1"/>
@@ -6316,7 +6562,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8996,6 +9242,949 @@
         <v>314</v>
       </c>
       <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H160" s="25" t="s">
         <v>210</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943A7E8-55DA-436F-A15D-13F2E4B88E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B01EE9-483D-4C8E-A92A-EF37F9E89259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3936,7 +3936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644EB9E3-B8ED-CE77-D661-F28580A1947D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770CD335-6F5B-4FD6-4FF0-29C629D31E5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EE851B-2BF8-49B1-AE4E-A8CE7284DBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D86A00-24CC-4746-AF54-DD35BB2D5879}">
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B01EE9-483D-4C8E-A92A-EF37F9E89259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2903893-E4E6-415E-BCE0-063736FBC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3936,7 +3936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770CD335-6F5B-4FD6-4FF0-29C629D31E5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02806ADC-67CA-A728-94FB-BAC6728BA630}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D86A00-24CC-4746-AF54-DD35BB2D5879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FAB03C-9D1A-440C-A8A0-30D8F2A9D69F}">
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2903893-E4E6-415E-BCE0-063736FBC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4296182-3EE9-4BBA-9ADF-D498F38AF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3936,7 +3936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02806ADC-67CA-A728-94FB-BAC6728BA630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF0954A-256A-10EB-4244-C6BA14423856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FAB03C-9D1A-440C-A8A0-30D8F2A9D69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE537F-658B-4090-83E3-40260E438AF0}">
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4296182-3EE9-4BBA-9ADF-D498F38AF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58470107-6F4A-466B-A940-5B1387F91D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,8 @@
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="grids" sheetId="7" r:id="rId5"/>
-    <sheet name="Constants" sheetId="5" r:id="rId6"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
+    <sheet name="Constants" sheetId="5" r:id="rId5"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="311">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -972,951 +971,6 @@
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_25</t>
-  </si>
-  <si>
-    <t>~fi_comm</t>
-  </si>
-  <si>
-    <t>e_CH1-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 148</t>
-  </si>
-  <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>e_CH11-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 149</t>
-  </si>
-  <si>
-    <t>e_CH12-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 150,151</t>
-  </si>
-  <si>
-    <t>e_CH13-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 152</t>
-  </si>
-  <si>
-    <t>e_CH14-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 153,154</t>
-  </si>
-  <si>
-    <t>e_CH15-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 155</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 156</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 157</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 158,159</t>
-  </si>
-  <si>
-    <t>e_CH19-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 160</t>
-  </si>
-  <si>
-    <t>e_CH2-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 161</t>
-  </si>
-  <si>
-    <t>e_CH20-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 162</t>
-  </si>
-  <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 163</t>
-  </si>
-  <si>
-    <t>e_CH22-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 164,165</t>
-  </si>
-  <si>
-    <t>e_CH23-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 166</t>
-  </si>
-  <si>
-    <t>e_CH24-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 167</t>
-  </si>
-  <si>
-    <t>e_CH25-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 168</t>
-  </si>
-  <si>
-    <t>e_CH26-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 169</t>
-  </si>
-  <si>
-    <t>e_CH27-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 170</t>
-  </si>
-  <si>
-    <t>e_CH28-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 171</t>
-  </si>
-  <si>
-    <t>e_CH29-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 172,173</t>
-  </si>
-  <si>
-    <t>e_CH3-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 174</t>
-  </si>
-  <si>
-    <t>e_CH30-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 175</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 176</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 177</t>
-  </si>
-  <si>
-    <t>e_CH33-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 178</t>
-  </si>
-  <si>
-    <t>e_CH34-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 179,180</t>
-  </si>
-  <si>
-    <t>e_CH35-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 181</t>
-  </si>
-  <si>
-    <t>e_CH36-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 182</t>
-  </si>
-  <si>
-    <t>e_CH37-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 183</t>
-  </si>
-  <si>
-    <t>e_CH38-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 184</t>
-  </si>
-  <si>
-    <t>e_CH39-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 185</t>
-  </si>
-  <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 186</t>
-  </si>
-  <si>
-    <t>e_CH40-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 187</t>
-  </si>
-  <si>
-    <t>e_CH41-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 188</t>
-  </si>
-  <si>
-    <t>e_CH42-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 189</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 190</t>
-  </si>
-  <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 191</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 192</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 193</t>
-  </si>
-  <si>
-    <t>e_CH47-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 194</t>
-  </si>
-  <si>
-    <t>e_CH48-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 195</t>
-  </si>
-  <si>
-    <t>e_CH49-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 196</t>
-  </si>
-  <si>
-    <t>e_CH5-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 197</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 198</t>
-  </si>
-  <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 199,200,201</t>
-  </si>
-  <si>
-    <t>e_CH52-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 202</t>
-  </si>
-  <si>
-    <t>e_CH53-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 203</t>
-  </si>
-  <si>
-    <t>e_CH56-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 204</t>
-  </si>
-  <si>
-    <t>e_CH57-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 205,206</t>
-  </si>
-  <si>
-    <t>e_CH58-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 207</t>
-  </si>
-  <si>
-    <t>e_CH59-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 208</t>
-  </si>
-  <si>
-    <t>e_CH6-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 209</t>
-  </si>
-  <si>
-    <t>e_CH60-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 210</t>
-  </si>
-  <si>
-    <t>e_CH7-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 211</t>
-  </si>
-  <si>
-    <t>e_CH9-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 212</t>
-  </si>
-  <si>
-    <t>e_r5378910-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 1912</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 1966</t>
-  </si>
-  <si>
-    <t>e_r9310861-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2023</t>
-  </si>
-  <si>
-    <t>e_w100662075-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2064</t>
-  </si>
-  <si>
-    <t>e_w108257952-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2304</t>
-  </si>
-  <si>
-    <t>e_w1086214433-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2307</t>
-  </si>
-  <si>
-    <t>e_w109037817-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2317,2318</t>
-  </si>
-  <si>
-    <t>e_w1092884227-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2326</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2366,2367</t>
-  </si>
-  <si>
-    <t>e_w111162936-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2377,2378,2379</t>
-  </si>
-  <si>
-    <t>e_w11282314-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2417</t>
-  </si>
-  <si>
-    <t>e_w1208713169-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2597</t>
-  </si>
-  <si>
-    <t>e_w122720993-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2643</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2757,2758</t>
-  </si>
-  <si>
-    <t>e_w1284913429-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2799</t>
-  </si>
-  <si>
-    <t>e_w130198336-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2835</t>
-  </si>
-  <si>
-    <t>e_w132373704-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2875</t>
-  </si>
-  <si>
-    <t>e_w1327084723-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2886</t>
-  </si>
-  <si>
-    <t>e_w140873735-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 2995</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3196</t>
-  </si>
-  <si>
-    <t>e_w147557680-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3273</t>
-  </si>
-  <si>
-    <t>e_w147714395-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3294,3295</t>
-  </si>
-  <si>
-    <t>e_w148015471-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3297</t>
-  </si>
-  <si>
-    <t>e_w159527493-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3445</t>
-  </si>
-  <si>
-    <t>e_w161853746-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3464</t>
-  </si>
-  <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3495</t>
-  </si>
-  <si>
-    <t>e_w165513396-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3496,3497</t>
-  </si>
-  <si>
-    <t>e_w177392130-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3700,3701</t>
-  </si>
-  <si>
-    <t>e_w190819048-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3827</t>
-  </si>
-  <si>
-    <t>e_w192677427-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3839,3840</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 3849</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4029</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4030,4031</t>
-  </si>
-  <si>
-    <t>e_w208780268-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4045</t>
-  </si>
-  <si>
-    <t>e_w209324991-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4054</t>
-  </si>
-  <si>
-    <t>e_w210568055-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4066,4067</t>
-  </si>
-  <si>
-    <t>e_w211907009-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4078</t>
-  </si>
-  <si>
-    <t>e_w212498548-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4080</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4081,4082</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4163</t>
-  </si>
-  <si>
-    <t>e_w22899676-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4170</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4234</t>
-  </si>
-  <si>
-    <t>e_w234983117-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4257,4258</t>
-  </si>
-  <si>
-    <t>e_w236819191-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4275</t>
-  </si>
-  <si>
-    <t>e_w238138373-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4282</t>
-  </si>
-  <si>
-    <t>e_w239937062-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4301</t>
-  </si>
-  <si>
-    <t>e_w240575085-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4315</t>
-  </si>
-  <si>
-    <t>e_w240959264-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4316</t>
-  </si>
-  <si>
-    <t>e_w242269161-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4326</t>
-  </si>
-  <si>
-    <t>e_w260211728-225</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4494,4495</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4509</t>
-  </si>
-  <si>
-    <t>e_w26843160-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4567</t>
-  </si>
-  <si>
-    <t>e_w27107779-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4578</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4595</t>
-  </si>
-  <si>
-    <t>e_w281799252-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4668</t>
-  </si>
-  <si>
-    <t>e_w281800404-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4669</t>
-  </si>
-  <si>
-    <t>e_w281803398-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4670</t>
-  </si>
-  <si>
-    <t>e_w281804158-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4671,4672</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4673</t>
-  </si>
-  <si>
-    <t>e_w281815404-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4674</t>
-  </si>
-  <si>
-    <t>e_w281822905-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4675</t>
-  </si>
-  <si>
-    <t>e_w30350721-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4878</t>
-  </si>
-  <si>
-    <t>e_w31308888-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 4926</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5004</t>
-  </si>
-  <si>
-    <t>e_w35002638-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5071,5072</t>
-  </si>
-  <si>
-    <t>e_w35487135-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5092</t>
-  </si>
-  <si>
-    <t>e_w356292116-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5096,5097</t>
-  </si>
-  <si>
-    <t>e_w35840165-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5104</t>
-  </si>
-  <si>
-    <t>e_w36348118-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5113</t>
-  </si>
-  <si>
-    <t>e_w364949845-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5115,5116</t>
-  </si>
-  <si>
-    <t>e_w365556107-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5118</t>
-  </si>
-  <si>
-    <t>e_w391576135-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5197</t>
-  </si>
-  <si>
-    <t>e_w391577741-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5198</t>
-  </si>
-  <si>
-    <t>e_w397960460-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5217,5218</t>
-  </si>
-  <si>
-    <t>e_w402053379-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5231</t>
-  </si>
-  <si>
-    <t>e_w402055336-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5232</t>
-  </si>
-  <si>
-    <t>e_w431234146-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5329</t>
-  </si>
-  <si>
-    <t>e_w44496892-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5370</t>
-  </si>
-  <si>
-    <t>e_w455120191-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5399</t>
-  </si>
-  <si>
-    <t>e_w50319857-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5532,5533,5534</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5537</t>
-  </si>
-  <si>
-    <t>e_w52738225-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5580,5581</t>
-  </si>
-  <si>
-    <t>e_w55695765-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5634</t>
-  </si>
-  <si>
-    <t>e_w55698557-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5636,5637</t>
-  </si>
-  <si>
-    <t>e_w71500123-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 5951,5952</t>
-  </si>
-  <si>
-    <t>e_w758315582-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6028</t>
-  </si>
-  <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6031</t>
-  </si>
-  <si>
-    <t>e_w802058337-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6103,6104</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6219</t>
-  </si>
-  <si>
-    <t>e_w87281514-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6336</t>
-  </si>
-  <si>
-    <t>e_w88901626-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6389</t>
-  </si>
-  <si>
-    <t>e_w89405664-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6410</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6434</t>
-  </si>
-  <si>
-    <t>e_w92798668-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6502</t>
-  </si>
-  <si>
-    <t>e_w92873516-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6504</t>
-  </si>
-  <si>
-    <t>e_w936521586-380</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6531</t>
-  </si>
-  <si>
-    <t>e_w969811258-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6639,6640</t>
-  </si>
-  <si>
-    <t>e_w969819301-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6641,6642</t>
-  </si>
-  <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6669</t>
-  </si>
-  <si>
-    <t>e_w98648381-220</t>
-  </si>
-  <si>
-    <t>aggregated grid node -- 6699,6700</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +994,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2302,35 +1356,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="50">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2582,26 +1609,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2865,21 +1874,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3434,7 +2428,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -3458,13 +2452,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -3918,61 +2905,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF0954A-256A-10EB-4244-C6BA14423856}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -6545,3663 +5477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE537F-658B-4090-83E3-40260E438AF0}">
-  <dimension ref="A1:H160"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.65" thickBot="1">
-      <c r="B3" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H88" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G113" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H116" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8">
-      <c r="B119" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="B120" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H120" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H130" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H133" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H134" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D137" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H141" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H144" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8">
-      <c r="B145" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H147" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H153" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8">
-      <c r="B154" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H154" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H155" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8">
-      <c r="B156" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H156" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G157" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8">
-      <c r="B158" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H158" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8">
-      <c r="B159" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H159" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8">
-      <c r="B160" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
@@ -11782,7 +7061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58470107-6F4A-466B-A940-5B1387F91D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1589C-7CAA-4A52-92E0-071D45AFBD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1589C-7CAA-4A52-92E0-071D45AFBD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D02E5B-219D-4D33-9F54-B181FE74710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId5"/>
+    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="700">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -971,6 +972,1173 @@
   </si>
   <si>
     <t>wind generation in grid cell -- CHE_25</t>
+  </si>
+  <si>
+    <t>~fi_comm</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH1-220</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH11-220</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH12-220</t>
+  </si>
+  <si>
+    <t>e_CH12-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH12-380</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH14-220</t>
+  </si>
+  <si>
+    <t>e_CH14-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH14-380</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH15-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH17-380</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH18-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH18-380</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH20-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH22-220</t>
+  </si>
+  <si>
+    <t>e_CH22-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH22-380</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH24-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH29-220</t>
+  </si>
+  <si>
+    <t>e_CH29-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH29-380</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH3-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH30-380</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH31-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH33-380</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH34-220</t>
+  </si>
+  <si>
+    <t>e_CH34-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH34-380</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH39-220</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH4-220</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH40-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>grid node -- CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH42-220</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH44-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH47-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH48-225</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH5-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH51-220</t>
+  </si>
+  <si>
+    <t>e_CH51-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH51-225</t>
+  </si>
+  <si>
+    <t>e_CH51-400</t>
+  </si>
+  <si>
+    <t>grid node -- CH51-400</t>
+  </si>
+  <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH53-225</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH57-220</t>
+  </si>
+  <si>
+    <t>e_CH57-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH57-225</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH59-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>grid node -- CH60-225</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH7-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>grid node -- CH9-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>grid node -- relation/5378910-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>grid node -- relation/7933294-380</t>
+  </si>
+  <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>grid node -- relation/9310861-220</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/100662075-220</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/108257952-220</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/109037817-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/109037817-380</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1092884227-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1105061707-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/1105061707-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/111162936-220</t>
+  </si>
+  <si>
+    <t>e_w111162936-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/111162936-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/111162936-400</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/11282314-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1208713169-220</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/122720993-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/127004407-380</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/127004407-400</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1284913429-220</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/130198336-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/132373704-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/1327084723-220</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/140873735-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/146225999-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/147714395-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/147714395-380</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/148015471-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/159527493-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/161853746-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/165254212-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/165513396-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/165513396-380</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/177392130-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/177392130-400</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/190819048-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/192677427-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/192677427-380</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/194258388-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/207991759-380</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/207993342-220</t>
+  </si>
+  <si>
+    <t>e_w207993342-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/207993342-380</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/208780268-380</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/209324991-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/210568055-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/210568055-380</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/211907009-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/212498548-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/212722603-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/212722603-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/228003081-220</t>
+  </si>
+  <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/22899676-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/232662311-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/234983117-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/234983117-380</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/236819191-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/238138373-380</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/239937062-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/240575085-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/240959264-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/242269161-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/260211728-225</t>
+  </si>
+  <si>
+    <t>e_w260211728-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/260211728-380</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/26166640-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/26843160-220</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/27107779-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/27435934-220</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281800404-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281803398-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281804158-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/281804158-380</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281809991-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/281822905-220</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/30350721-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/31308888-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/33271433-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/35002638-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/35002638-380</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/35487135-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/356292116-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/356292116-380</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/35840165-380</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/36348118-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/364949845-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/364949845-380</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/365556107-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/391576135-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/391577741-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/397960460-380</t>
+  </si>
+  <si>
+    <t>e_w397960460-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/397960460-400</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/402053379-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/402055336-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/431234146-220</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/50319857-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/50319857-380</t>
+  </si>
+  <si>
+    <t>e_w50319857-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/50319857-400</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/50561341-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/52738225-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/52738225-380</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/55698557-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/55698557-225</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/71500123-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/71500123-380</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/758315582-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/758943072-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/802058337-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/802058337-225</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/83861269-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/87281514-220</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/88901626-380</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/89405664-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/89977424-220</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/92798668-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/92873516-220</t>
+  </si>
+  <si>
+    <t>e_w936521586-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/936521586-380</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/969811258-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/969811258-380</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/969819301-220</t>
+  </si>
+  <si>
+    <t>e_w969819301-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/969819301-380</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/97941869-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/98648381-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/98648381-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
@@ -994,7 +2162,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +2524,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,8 +2804,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1874,6 +3087,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2428,7 +3656,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2452,6 +3680,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -2905,6 +4140,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60245E6-0C35-992F-ACDA-93EDA22D1D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -5477,10 +6767,4514 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB78E1-30D6-4AC8-930E-7F6DFD522013}">
+  <dimension ref="A1:H197"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.65" thickBot="1">
+      <c r="B3" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G164" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H164" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H166" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H168" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H169" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G172" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H172" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H180" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H181" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H182" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H186" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H187" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H188" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H189" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="B192" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H192" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8">
+      <c r="B193" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8">
+      <c r="B194" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="B195" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G195" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H195" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="B196" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="E196" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H196" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8">
+      <c r="B197" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G197" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H197" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
@@ -7061,7 +12855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D02E5B-219D-4D33-9F54-B181FE74710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988DBA5-F182-4D03-81F6-CD04C98FB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60245E6-0C35-992F-ACDA-93EDA22D1D45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15C720F-0AF3-08D9-D1ED-A310D9961478}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB78E1-30D6-4AC8-930E-7F6DFD522013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030ED83A-5A90-441B-A964-9024BCF8DC6E}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988DBA5-F182-4D03-81F6-CD04C98FB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C648E09-04E1-476B-A162-2FF38CA3D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15C720F-0AF3-08D9-D1ED-A310D9961478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CFC9FF-9F53-8E52-96E3-CDC103235875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030ED83A-5A90-441B-A964-9024BCF8DC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BB652-6ED3-42C3-9EA2-A1C5DE5191A0}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C648E09-04E1-476B-A162-2FF38CA3D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317F50F-CF80-4AB9-8583-E4C9C87D4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3684,9 +3684,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -4158,7 +4164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CFC9FF-9F53-8E52-96E3-CDC103235875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1519C36-39E1-F6F9-A553-784654BCFBFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,19 +6773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BB652-6ED3-42C3-9EA2-A1C5DE5191A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45417D-802B-4883-9013-991B77017C5D}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
@@ -6799,7 +6800,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:8" ht="31.15" thickBot="1">
       <c r="B4" s="23" t="s">
         <v>207</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="26.25">
       <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="26.25">
       <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="26.25">
       <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="26.25">
       <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="26.25">
       <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="26.25">
       <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="26.25">
       <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="26.25">
       <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="26.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="26.25">
       <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="26.25">
       <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="26.25">
       <c r="B16" s="25" t="s">
         <v>17</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="26.25">
       <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="26.25">
       <c r="B18" s="25" t="s">
         <v>17</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" ht="26.25">
       <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" ht="26.25">
       <c r="B20" s="25" t="s">
         <v>17</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" ht="26.25">
       <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" ht="26.25">
       <c r="B22" s="25" t="s">
         <v>17</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="26.25">
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" ht="26.25">
       <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" ht="26.25">
       <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" ht="26.25">
       <c r="B26" s="25" t="s">
         <v>17</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" ht="26.25">
       <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" ht="26.25">
       <c r="B28" s="25" t="s">
         <v>17</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" ht="26.25">
       <c r="B29" s="24" t="s">
         <v>17</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" ht="26.25">
       <c r="B30" s="25" t="s">
         <v>17</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" ht="26.25">
       <c r="B31" s="24" t="s">
         <v>17</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" ht="26.25">
       <c r="B32" s="25" t="s">
         <v>17</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" ht="26.25">
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" ht="26.25">
       <c r="B34" s="25" t="s">
         <v>17</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" ht="26.25">
       <c r="B35" s="24" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" ht="26.25">
       <c r="B36" s="25" t="s">
         <v>17</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" ht="26.25">
       <c r="B37" s="24" t="s">
         <v>17</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" ht="26.25">
       <c r="B38" s="25" t="s">
         <v>17</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" ht="26.25">
       <c r="B39" s="24" t="s">
         <v>17</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" ht="26.25">
       <c r="B40" s="25" t="s">
         <v>17</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" ht="26.25">
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" ht="26.25">
       <c r="B42" s="25" t="s">
         <v>17</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" ht="26.25">
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" ht="26.25">
       <c r="B44" s="25" t="s">
         <v>17</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" ht="26.25">
       <c r="B45" s="24" t="s">
         <v>17</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" ht="26.25">
       <c r="B46" s="25" t="s">
         <v>17</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" ht="26.25">
       <c r="B47" s="24" t="s">
         <v>17</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="26.25">
       <c r="B48" s="25" t="s">
         <v>17</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" ht="26.25">
       <c r="B49" s="24" t="s">
         <v>17</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" ht="26.25">
       <c r="B50" s="25" t="s">
         <v>17</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="26.25">
       <c r="B51" s="24" t="s">
         <v>17</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" ht="26.25">
       <c r="B52" s="25" t="s">
         <v>17</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" ht="26.25">
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" ht="26.25">
       <c r="B54" s="25" t="s">
         <v>17</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" ht="26.25">
       <c r="B55" s="24" t="s">
         <v>17</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" ht="26.25">
       <c r="B56" s="25" t="s">
         <v>17</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" ht="26.25">
       <c r="B57" s="24" t="s">
         <v>17</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" ht="26.25">
       <c r="B58" s="25" t="s">
         <v>17</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" ht="26.25">
       <c r="B59" s="24" t="s">
         <v>17</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" ht="26.25">
       <c r="B60" s="25" t="s">
         <v>17</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" ht="26.25">
       <c r="B61" s="24" t="s">
         <v>17</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" ht="26.25">
       <c r="B62" s="25" t="s">
         <v>17</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" ht="26.25">
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" ht="26.25">
       <c r="B64" s="25" t="s">
         <v>17</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" ht="26.25">
       <c r="B65" s="24" t="s">
         <v>17</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" ht="26.25">
       <c r="B66" s="25" t="s">
         <v>17</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" ht="26.25">
       <c r="B67" s="24" t="s">
         <v>17</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" ht="26.25">
       <c r="B68" s="25" t="s">
         <v>17</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" ht="26.25">
       <c r="B69" s="24" t="s">
         <v>17</v>
       </c>
@@ -8317,7 +8318,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" ht="39.4">
       <c r="B70" s="25" t="s">
         <v>17</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" ht="39.4">
       <c r="B71" s="24" t="s">
         <v>17</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" ht="39.4">
       <c r="B72" s="25" t="s">
         <v>17</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" ht="39.4">
       <c r="B73" s="24" t="s">
         <v>17</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" ht="39.4">
       <c r="B74" s="25" t="s">
         <v>17</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" ht="39.4">
       <c r="B75" s="24" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" ht="39.4">
       <c r="B76" s="25" t="s">
         <v>17</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" ht="39.4">
       <c r="B77" s="24" t="s">
         <v>17</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" ht="39.4">
       <c r="B78" s="25" t="s">
         <v>17</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" ht="39.4">
       <c r="B79" s="24" t="s">
         <v>17</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" ht="39.4">
       <c r="B80" s="25" t="s">
         <v>17</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" ht="39.4">
       <c r="B81" s="24" t="s">
         <v>17</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" ht="39.4">
       <c r="B82" s="25" t="s">
         <v>17</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" ht="39.4">
       <c r="B83" s="24" t="s">
         <v>17</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" ht="39.4">
       <c r="B84" s="25" t="s">
         <v>17</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" ht="39.4">
       <c r="B85" s="24" t="s">
         <v>17</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" ht="39.4">
       <c r="B86" s="25" t="s">
         <v>17</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" ht="39.4">
       <c r="B87" s="24" t="s">
         <v>17</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" ht="39.4">
       <c r="B88" s="25" t="s">
         <v>17</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" ht="39.4">
       <c r="B89" s="24" t="s">
         <v>17</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" ht="39.4">
       <c r="B90" s="25" t="s">
         <v>17</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" ht="39.4">
       <c r="B91" s="24" t="s">
         <v>17</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" ht="39.4">
       <c r="B92" s="25" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" ht="39.4">
       <c r="B93" s="24" t="s">
         <v>17</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" ht="39.4">
       <c r="B94" s="25" t="s">
         <v>17</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" ht="39.4">
       <c r="B95" s="24" t="s">
         <v>17</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" ht="39.4">
       <c r="B96" s="25" t="s">
         <v>17</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" ht="39.4">
       <c r="B97" s="24" t="s">
         <v>17</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" ht="39.4">
       <c r="B98" s="25" t="s">
         <v>17</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" ht="39.4">
       <c r="B99" s="24" t="s">
         <v>17</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" ht="39.4">
       <c r="B100" s="25" t="s">
         <v>17</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" ht="39.4">
       <c r="B101" s="24" t="s">
         <v>17</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" ht="39.4">
       <c r="B102" s="25" t="s">
         <v>17</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" ht="39.4">
       <c r="B103" s="24" t="s">
         <v>17</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" ht="39.4">
       <c r="B104" s="25" t="s">
         <v>17</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" ht="39.4">
       <c r="B105" s="24" t="s">
         <v>17</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" ht="39.4">
       <c r="B106" s="25" t="s">
         <v>17</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" ht="39.4">
       <c r="B107" s="24" t="s">
         <v>17</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" ht="39.4">
       <c r="B108" s="25" t="s">
         <v>17</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" ht="39.4">
       <c r="B109" s="24" t="s">
         <v>17</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" ht="39.4">
       <c r="B110" s="25" t="s">
         <v>17</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" ht="39.4">
       <c r="B111" s="24" t="s">
         <v>17</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" ht="39.4">
       <c r="B112" s="25" t="s">
         <v>17</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" ht="39.4">
       <c r="B113" s="24" t="s">
         <v>17</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" ht="39.4">
       <c r="B114" s="25" t="s">
         <v>17</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" ht="39.4">
       <c r="B115" s="24" t="s">
         <v>17</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" ht="39.4">
       <c r="B116" s="25" t="s">
         <v>17</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" ht="39.4">
       <c r="B117" s="24" t="s">
         <v>17</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" ht="39.4">
       <c r="B118" s="25" t="s">
         <v>17</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" ht="39.4">
       <c r="B119" s="24" t="s">
         <v>17</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" ht="39.4">
       <c r="B120" s="25" t="s">
         <v>17</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" ht="39.4">
       <c r="B121" s="24" t="s">
         <v>17</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" ht="39.4">
       <c r="B122" s="25" t="s">
         <v>17</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" ht="39.4">
       <c r="B123" s="24" t="s">
         <v>17</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" ht="39.4">
       <c r="B124" s="25" t="s">
         <v>17</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" ht="39.4">
       <c r="B125" s="24" t="s">
         <v>17</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" ht="39.4">
       <c r="B126" s="25" t="s">
         <v>17</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" ht="39.4">
       <c r="B127" s="24" t="s">
         <v>17</v>
       </c>
@@ -9651,7 +9652,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" ht="39.4">
       <c r="B128" s="25" t="s">
         <v>17</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" ht="39.4">
       <c r="B129" s="24" t="s">
         <v>17</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" ht="39.4">
       <c r="B130" s="25" t="s">
         <v>17</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" ht="39.4">
       <c r="B131" s="24" t="s">
         <v>17</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" ht="39.4">
       <c r="B132" s="25" t="s">
         <v>17</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" ht="39.4">
       <c r="B133" s="24" t="s">
         <v>17</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" ht="39.4">
       <c r="B134" s="25" t="s">
         <v>17</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" ht="39.4">
       <c r="B135" s="24" t="s">
         <v>17</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" ht="39.4">
       <c r="B136" s="25" t="s">
         <v>17</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" ht="39.4">
       <c r="B137" s="24" t="s">
         <v>17</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" ht="39.4">
       <c r="B138" s="25" t="s">
         <v>17</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" ht="39.4">
       <c r="B139" s="24" t="s">
         <v>17</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" ht="39.4">
       <c r="B140" s="25" t="s">
         <v>17</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" ht="39.4">
       <c r="B141" s="24" t="s">
         <v>17</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" ht="39.4">
       <c r="B142" s="25" t="s">
         <v>17</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" ht="39.4">
       <c r="B143" s="24" t="s">
         <v>17</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" ht="39.4">
       <c r="B144" s="25" t="s">
         <v>17</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" ht="39.4">
       <c r="B145" s="24" t="s">
         <v>17</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" ht="39.4">
       <c r="B146" s="25" t="s">
         <v>17</v>
       </c>
@@ -10088,7 +10089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" ht="39.4">
       <c r="B147" s="24" t="s">
         <v>17</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" ht="39.4">
       <c r="B148" s="25" t="s">
         <v>17</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" ht="39.4">
       <c r="B149" s="24" t="s">
         <v>17</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" ht="39.4">
       <c r="B150" s="25" t="s">
         <v>17</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" ht="39.4">
       <c r="B151" s="24" t="s">
         <v>17</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" ht="39.4">
       <c r="B152" s="25" t="s">
         <v>17</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" ht="39.4">
       <c r="B153" s="24" t="s">
         <v>17</v>
       </c>
@@ -10249,7 +10250,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" ht="39.4">
       <c r="B154" s="25" t="s">
         <v>17</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" ht="39.4">
       <c r="B155" s="24" t="s">
         <v>17</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" ht="39.4">
       <c r="B156" s="25" t="s">
         <v>17</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" ht="39.4">
       <c r="B157" s="24" t="s">
         <v>17</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" ht="39.4">
       <c r="B158" s="25" t="s">
         <v>17</v>
       </c>
@@ -10364,7 +10365,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" ht="39.4">
       <c r="B159" s="24" t="s">
         <v>17</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" ht="39.4">
       <c r="B160" s="25" t="s">
         <v>17</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" ht="39.4">
       <c r="B161" s="24" t="s">
         <v>17</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" ht="39.4">
       <c r="B162" s="25" t="s">
         <v>17</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" ht="39.4">
       <c r="B163" s="24" t="s">
         <v>17</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" ht="39.4">
       <c r="B164" s="25" t="s">
         <v>17</v>
       </c>
@@ -10502,7 +10503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" ht="39.4">
       <c r="B165" s="24" t="s">
         <v>17</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" ht="39.4">
       <c r="B166" s="25" t="s">
         <v>17</v>
       </c>
@@ -10548,7 +10549,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" ht="39.4">
       <c r="B167" s="24" t="s">
         <v>17</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" ht="39.4">
       <c r="B168" s="25" t="s">
         <v>17</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" ht="39.4">
       <c r="B169" s="24" t="s">
         <v>17</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" ht="39.4">
       <c r="B170" s="25" t="s">
         <v>17</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" ht="39.4">
       <c r="B171" s="24" t="s">
         <v>17</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" ht="39.4">
       <c r="B172" s="25" t="s">
         <v>17</v>
       </c>
@@ -10686,7 +10687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" ht="39.4">
       <c r="B173" s="24" t="s">
         <v>17</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" ht="39.4">
       <c r="B174" s="25" t="s">
         <v>17</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" ht="39.4">
       <c r="B175" s="24" t="s">
         <v>17</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" ht="39.4">
       <c r="B176" s="25" t="s">
         <v>17</v>
       </c>
@@ -10778,7 +10779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" ht="39.4">
       <c r="B177" s="24" t="s">
         <v>17</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" ht="39.4">
       <c r="B178" s="25" t="s">
         <v>17</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" ht="39.4">
       <c r="B179" s="24" t="s">
         <v>17</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" ht="39.4">
       <c r="B180" s="25" t="s">
         <v>17</v>
       </c>
@@ -10870,7 +10871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" ht="39.4">
       <c r="B181" s="24" t="s">
         <v>17</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" ht="39.4">
       <c r="B182" s="25" t="s">
         <v>17</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" ht="39.4">
       <c r="B183" s="24" t="s">
         <v>17</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" ht="39.4">
       <c r="B184" s="25" t="s">
         <v>17</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" ht="39.4">
       <c r="B185" s="24" t="s">
         <v>17</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" ht="39.4">
       <c r="B186" s="25" t="s">
         <v>17</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" ht="39.4">
       <c r="B187" s="24" t="s">
         <v>17</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" ht="39.4">
       <c r="B188" s="25" t="s">
         <v>17</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" ht="39.4">
       <c r="B189" s="24" t="s">
         <v>17</v>
       </c>
@@ -11077,7 +11078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" ht="39.4">
       <c r="B190" s="25" t="s">
         <v>17</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" ht="39.4">
       <c r="B191" s="24" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" ht="39.4">
       <c r="B192" s="25" t="s">
         <v>17</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" ht="39.4">
       <c r="B193" s="24" t="s">
         <v>17</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" ht="39.4">
       <c r="B194" s="25" t="s">
         <v>17</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" ht="39.4">
       <c r="B195" s="24" t="s">
         <v>17</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" ht="39.4">
       <c r="B196" s="25" t="s">
         <v>17</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" ht="39.4">
       <c r="B197" s="24" t="s">
         <v>17</v>
       </c>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317F50F-CF80-4AB9-8583-E4C9C87D4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58911356-CADC-4074-8E1E-DF40985CA985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3684,15 +3684,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -4164,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1519C36-39E1-F6F9-A553-784654BCFBFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE19AE8C-3B74-B5FC-E26E-ED39F0F02D22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6773,14 +6767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45417D-802B-4883-9013-991B77017C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905AE095-121A-4712-B79B-FDE396DEBE97}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
@@ -6800,7 +6799,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="B4" s="23" t="s">
         <v>207</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="25" t="s">
         <v>17</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="26.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="26.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="25" t="s">
         <v>17</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="26.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="26.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="25" t="s">
         <v>17</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="26.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="26.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="25" t="s">
         <v>17</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="26.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="26.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="26.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="26.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="25" t="s">
         <v>17</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="26.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="26.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="25" t="s">
         <v>17</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="26.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="24" t="s">
         <v>17</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="26.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="25" t="s">
         <v>17</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="26.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="24" t="s">
         <v>17</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="26.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="25" t="s">
         <v>17</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="26.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="26.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="25" t="s">
         <v>17</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="26.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="24" t="s">
         <v>17</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="26.25">
+    <row r="36" spans="2:8">
       <c r="B36" s="25" t="s">
         <v>17</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="26.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="24" t="s">
         <v>17</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="26.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="25" t="s">
         <v>17</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="26.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="24" t="s">
         <v>17</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="26.25">
+    <row r="40" spans="2:8">
       <c r="B40" s="25" t="s">
         <v>17</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="26.25">
+    <row r="41" spans="2:8">
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="26.25">
+    <row r="42" spans="2:8">
       <c r="B42" s="25" t="s">
         <v>17</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="26.25">
+    <row r="43" spans="2:8">
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="26.25">
+    <row r="44" spans="2:8">
       <c r="B44" s="25" t="s">
         <v>17</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="26.25">
+    <row r="45" spans="2:8">
       <c r="B45" s="24" t="s">
         <v>17</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="26.25">
+    <row r="46" spans="2:8">
       <c r="B46" s="25" t="s">
         <v>17</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="26.25">
+    <row r="47" spans="2:8">
       <c r="B47" s="24" t="s">
         <v>17</v>
       </c>
@@ -7812,7 +7811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="26.25">
+    <row r="48" spans="2:8">
       <c r="B48" s="25" t="s">
         <v>17</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="26.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="24" t="s">
         <v>17</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="26.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="25" t="s">
         <v>17</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="26.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="24" t="s">
         <v>17</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="26.25">
+    <row r="52" spans="2:8">
       <c r="B52" s="25" t="s">
         <v>17</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="26.25">
+    <row r="53" spans="2:8">
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="26.25">
+    <row r="54" spans="2:8">
       <c r="B54" s="25" t="s">
         <v>17</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="26.25">
+    <row r="55" spans="2:8">
       <c r="B55" s="24" t="s">
         <v>17</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="26.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="25" t="s">
         <v>17</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="26.25">
+    <row r="57" spans="2:8">
       <c r="B57" s="24" t="s">
         <v>17</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="26.25">
+    <row r="58" spans="2:8">
       <c r="B58" s="25" t="s">
         <v>17</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="26.25">
+    <row r="59" spans="2:8">
       <c r="B59" s="24" t="s">
         <v>17</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="26.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="25" t="s">
         <v>17</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="26.25">
+    <row r="61" spans="2:8">
       <c r="B61" s="24" t="s">
         <v>17</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="26.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="25" t="s">
         <v>17</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="26.25">
+    <row r="63" spans="2:8">
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="26.25">
+    <row r="64" spans="2:8">
       <c r="B64" s="25" t="s">
         <v>17</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="26.25">
+    <row r="65" spans="2:8">
       <c r="B65" s="24" t="s">
         <v>17</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="26.25">
+    <row r="66" spans="2:8">
       <c r="B66" s="25" t="s">
         <v>17</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="26.25">
+    <row r="67" spans="2:8">
       <c r="B67" s="24" t="s">
         <v>17</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="26.25">
+    <row r="68" spans="2:8">
       <c r="B68" s="25" t="s">
         <v>17</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="26.25">
+    <row r="69" spans="2:8">
       <c r="B69" s="24" t="s">
         <v>17</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="39.4">
+    <row r="70" spans="2:8">
       <c r="B70" s="25" t="s">
         <v>17</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="39.4">
+    <row r="71" spans="2:8">
       <c r="B71" s="24" t="s">
         <v>17</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="39.4">
+    <row r="72" spans="2:8">
       <c r="B72" s="25" t="s">
         <v>17</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="39.4">
+    <row r="73" spans="2:8">
       <c r="B73" s="24" t="s">
         <v>17</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="39.4">
+    <row r="74" spans="2:8">
       <c r="B74" s="25" t="s">
         <v>17</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="39.4">
+    <row r="75" spans="2:8">
       <c r="B75" s="24" t="s">
         <v>17</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="39.4">
+    <row r="76" spans="2:8">
       <c r="B76" s="25" t="s">
         <v>17</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="39.4">
+    <row r="77" spans="2:8">
       <c r="B77" s="24" t="s">
         <v>17</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="39.4">
+    <row r="78" spans="2:8">
       <c r="B78" s="25" t="s">
         <v>17</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="39.4">
+    <row r="79" spans="2:8">
       <c r="B79" s="24" t="s">
         <v>17</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="39.4">
+    <row r="80" spans="2:8">
       <c r="B80" s="25" t="s">
         <v>17</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="39.4">
+    <row r="81" spans="2:8">
       <c r="B81" s="24" t="s">
         <v>17</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="39.4">
+    <row r="82" spans="2:8">
       <c r="B82" s="25" t="s">
         <v>17</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="39.4">
+    <row r="83" spans="2:8">
       <c r="B83" s="24" t="s">
         <v>17</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="39.4">
+    <row r="84" spans="2:8">
       <c r="B84" s="25" t="s">
         <v>17</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="39.4">
+    <row r="85" spans="2:8">
       <c r="B85" s="24" t="s">
         <v>17</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="39.4">
+    <row r="86" spans="2:8">
       <c r="B86" s="25" t="s">
         <v>17</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="39.4">
+    <row r="87" spans="2:8">
       <c r="B87" s="24" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="39.4">
+    <row r="88" spans="2:8">
       <c r="B88" s="25" t="s">
         <v>17</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="39.4">
+    <row r="89" spans="2:8">
       <c r="B89" s="24" t="s">
         <v>17</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="39.4">
+    <row r="90" spans="2:8">
       <c r="B90" s="25" t="s">
         <v>17</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="39.4">
+    <row r="91" spans="2:8">
       <c r="B91" s="24" t="s">
         <v>17</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="39.4">
+    <row r="92" spans="2:8">
       <c r="B92" s="25" t="s">
         <v>17</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="39.4">
+    <row r="93" spans="2:8">
       <c r="B93" s="24" t="s">
         <v>17</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="39.4">
+    <row r="94" spans="2:8">
       <c r="B94" s="25" t="s">
         <v>17</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="39.4">
+    <row r="95" spans="2:8">
       <c r="B95" s="24" t="s">
         <v>17</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="39.4">
+    <row r="96" spans="2:8">
       <c r="B96" s="25" t="s">
         <v>17</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="39.4">
+    <row r="97" spans="2:8">
       <c r="B97" s="24" t="s">
         <v>17</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="39.4">
+    <row r="98" spans="2:8">
       <c r="B98" s="25" t="s">
         <v>17</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="39.4">
+    <row r="99" spans="2:8">
       <c r="B99" s="24" t="s">
         <v>17</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="39.4">
+    <row r="100" spans="2:8">
       <c r="B100" s="25" t="s">
         <v>17</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="39.4">
+    <row r="101" spans="2:8">
       <c r="B101" s="24" t="s">
         <v>17</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="39.4">
+    <row r="102" spans="2:8">
       <c r="B102" s="25" t="s">
         <v>17</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="39.4">
+    <row r="103" spans="2:8">
       <c r="B103" s="24" t="s">
         <v>17</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="39.4">
+    <row r="104" spans="2:8">
       <c r="B104" s="25" t="s">
         <v>17</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="39.4">
+    <row r="105" spans="2:8">
       <c r="B105" s="24" t="s">
         <v>17</v>
       </c>
@@ -9146,7 +9145,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="39.4">
+    <row r="106" spans="2:8">
       <c r="B106" s="25" t="s">
         <v>17</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="39.4">
+    <row r="107" spans="2:8">
       <c r="B107" s="24" t="s">
         <v>17</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="39.4">
+    <row r="108" spans="2:8">
       <c r="B108" s="25" t="s">
         <v>17</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="39.4">
+    <row r="109" spans="2:8">
       <c r="B109" s="24" t="s">
         <v>17</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="39.4">
+    <row r="110" spans="2:8">
       <c r="B110" s="25" t="s">
         <v>17</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="39.4">
+    <row r="111" spans="2:8">
       <c r="B111" s="24" t="s">
         <v>17</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="39.4">
+    <row r="112" spans="2:8">
       <c r="B112" s="25" t="s">
         <v>17</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="39.4">
+    <row r="113" spans="2:8">
       <c r="B113" s="24" t="s">
         <v>17</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="39.4">
+    <row r="114" spans="2:8">
       <c r="B114" s="25" t="s">
         <v>17</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="39.4">
+    <row r="115" spans="2:8">
       <c r="B115" s="24" t="s">
         <v>17</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="39.4">
+    <row r="116" spans="2:8">
       <c r="B116" s="25" t="s">
         <v>17</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="39.4">
+    <row r="117" spans="2:8">
       <c r="B117" s="24" t="s">
         <v>17</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="39.4">
+    <row r="118" spans="2:8">
       <c r="B118" s="25" t="s">
         <v>17</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="39.4">
+    <row r="119" spans="2:8">
       <c r="B119" s="24" t="s">
         <v>17</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="39.4">
+    <row r="120" spans="2:8">
       <c r="B120" s="25" t="s">
         <v>17</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="39.4">
+    <row r="121" spans="2:8">
       <c r="B121" s="24" t="s">
         <v>17</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="39.4">
+    <row r="122" spans="2:8">
       <c r="B122" s="25" t="s">
         <v>17</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="39.4">
+    <row r="123" spans="2:8">
       <c r="B123" s="24" t="s">
         <v>17</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="39.4">
+    <row r="124" spans="2:8">
       <c r="B124" s="25" t="s">
         <v>17</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="39.4">
+    <row r="125" spans="2:8">
       <c r="B125" s="24" t="s">
         <v>17</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="39.4">
+    <row r="126" spans="2:8">
       <c r="B126" s="25" t="s">
         <v>17</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="39.4">
+    <row r="127" spans="2:8">
       <c r="B127" s="24" t="s">
         <v>17</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="39.4">
+    <row r="128" spans="2:8">
       <c r="B128" s="25" t="s">
         <v>17</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="39.4">
+    <row r="129" spans="2:8">
       <c r="B129" s="24" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="39.4">
+    <row r="130" spans="2:8">
       <c r="B130" s="25" t="s">
         <v>17</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="39.4">
+    <row r="131" spans="2:8">
       <c r="B131" s="24" t="s">
         <v>17</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="39.4">
+    <row r="132" spans="2:8">
       <c r="B132" s="25" t="s">
         <v>17</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="39.4">
+    <row r="133" spans="2:8">
       <c r="B133" s="24" t="s">
         <v>17</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="39.4">
+    <row r="134" spans="2:8">
       <c r="B134" s="25" t="s">
         <v>17</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="39.4">
+    <row r="135" spans="2:8">
       <c r="B135" s="24" t="s">
         <v>17</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="39.4">
+    <row r="136" spans="2:8">
       <c r="B136" s="25" t="s">
         <v>17</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="39.4">
+    <row r="137" spans="2:8">
       <c r="B137" s="24" t="s">
         <v>17</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="39.4">
+    <row r="138" spans="2:8">
       <c r="B138" s="25" t="s">
         <v>17</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="39.4">
+    <row r="139" spans="2:8">
       <c r="B139" s="24" t="s">
         <v>17</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="39.4">
+    <row r="140" spans="2:8">
       <c r="B140" s="25" t="s">
         <v>17</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="39.4">
+    <row r="141" spans="2:8">
       <c r="B141" s="24" t="s">
         <v>17</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="39.4">
+    <row r="142" spans="2:8">
       <c r="B142" s="25" t="s">
         <v>17</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="39.4">
+    <row r="143" spans="2:8">
       <c r="B143" s="24" t="s">
         <v>17</v>
       </c>
@@ -10020,7 +10019,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="39.4">
+    <row r="144" spans="2:8">
       <c r="B144" s="25" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="39.4">
+    <row r="145" spans="2:8">
       <c r="B145" s="24" t="s">
         <v>17</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="39.4">
+    <row r="146" spans="2:8">
       <c r="B146" s="25" t="s">
         <v>17</v>
       </c>
@@ -10089,7 +10088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="39.4">
+    <row r="147" spans="2:8">
       <c r="B147" s="24" t="s">
         <v>17</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="39.4">
+    <row r="148" spans="2:8">
       <c r="B148" s="25" t="s">
         <v>17</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="39.4">
+    <row r="149" spans="2:8">
       <c r="B149" s="24" t="s">
         <v>17</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="39.4">
+    <row r="150" spans="2:8">
       <c r="B150" s="25" t="s">
         <v>17</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="39.4">
+    <row r="151" spans="2:8">
       <c r="B151" s="24" t="s">
         <v>17</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="39.4">
+    <row r="152" spans="2:8">
       <c r="B152" s="25" t="s">
         <v>17</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="39.4">
+    <row r="153" spans="2:8">
       <c r="B153" s="24" t="s">
         <v>17</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="39.4">
+    <row r="154" spans="2:8">
       <c r="B154" s="25" t="s">
         <v>17</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="39.4">
+    <row r="155" spans="2:8">
       <c r="B155" s="24" t="s">
         <v>17</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="39.4">
+    <row r="156" spans="2:8">
       <c r="B156" s="25" t="s">
         <v>17</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="39.4">
+    <row r="157" spans="2:8">
       <c r="B157" s="24" t="s">
         <v>17</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="39.4">
+    <row r="158" spans="2:8">
       <c r="B158" s="25" t="s">
         <v>17</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="39.4">
+    <row r="159" spans="2:8">
       <c r="B159" s="24" t="s">
         <v>17</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="39.4">
+    <row r="160" spans="2:8">
       <c r="B160" s="25" t="s">
         <v>17</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="2:8" ht="39.4">
+    <row r="161" spans="2:8">
       <c r="B161" s="24" t="s">
         <v>17</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="39.4">
+    <row r="162" spans="2:8">
       <c r="B162" s="25" t="s">
         <v>17</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="39.4">
+    <row r="163" spans="2:8">
       <c r="B163" s="24" t="s">
         <v>17</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="39.4">
+    <row r="164" spans="2:8">
       <c r="B164" s="25" t="s">
         <v>17</v>
       </c>
@@ -10503,7 +10502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="39.4">
+    <row r="165" spans="2:8">
       <c r="B165" s="24" t="s">
         <v>17</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="39.4">
+    <row r="166" spans="2:8">
       <c r="B166" s="25" t="s">
         <v>17</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="39.4">
+    <row r="167" spans="2:8">
       <c r="B167" s="24" t="s">
         <v>17</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="39.4">
+    <row r="168" spans="2:8">
       <c r="B168" s="25" t="s">
         <v>17</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="39.4">
+    <row r="169" spans="2:8">
       <c r="B169" s="24" t="s">
         <v>17</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="39.4">
+    <row r="170" spans="2:8">
       <c r="B170" s="25" t="s">
         <v>17</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="39.4">
+    <row r="171" spans="2:8">
       <c r="B171" s="24" t="s">
         <v>17</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="39.4">
+    <row r="172" spans="2:8">
       <c r="B172" s="25" t="s">
         <v>17</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="39.4">
+    <row r="173" spans="2:8">
       <c r="B173" s="24" t="s">
         <v>17</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="39.4">
+    <row r="174" spans="2:8">
       <c r="B174" s="25" t="s">
         <v>17</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="39.4">
+    <row r="175" spans="2:8">
       <c r="B175" s="24" t="s">
         <v>17</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="2:8" ht="39.4">
+    <row r="176" spans="2:8">
       <c r="B176" s="25" t="s">
         <v>17</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="39.4">
+    <row r="177" spans="2:8">
       <c r="B177" s="24" t="s">
         <v>17</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="39.4">
+    <row r="178" spans="2:8">
       <c r="B178" s="25" t="s">
         <v>17</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="39.4">
+    <row r="179" spans="2:8">
       <c r="B179" s="24" t="s">
         <v>17</v>
       </c>
@@ -10848,7 +10847,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="39.4">
+    <row r="180" spans="2:8">
       <c r="B180" s="25" t="s">
         <v>17</v>
       </c>
@@ -10871,7 +10870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="39.4">
+    <row r="181" spans="2:8">
       <c r="B181" s="24" t="s">
         <v>17</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="39.4">
+    <row r="182" spans="2:8">
       <c r="B182" s="25" t="s">
         <v>17</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="39.4">
+    <row r="183" spans="2:8">
       <c r="B183" s="24" t="s">
         <v>17</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="39.4">
+    <row r="184" spans="2:8">
       <c r="B184" s="25" t="s">
         <v>17</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="39.4">
+    <row r="185" spans="2:8">
       <c r="B185" s="24" t="s">
         <v>17</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="39.4">
+    <row r="186" spans="2:8">
       <c r="B186" s="25" t="s">
         <v>17</v>
       </c>
@@ -11009,7 +11008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="39.4">
+    <row r="187" spans="2:8">
       <c r="B187" s="24" t="s">
         <v>17</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="39.4">
+    <row r="188" spans="2:8">
       <c r="B188" s="25" t="s">
         <v>17</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="39.4">
+    <row r="189" spans="2:8">
       <c r="B189" s="24" t="s">
         <v>17</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="39.4">
+    <row r="190" spans="2:8">
       <c r="B190" s="25" t="s">
         <v>17</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="39.4">
+    <row r="191" spans="2:8">
       <c r="B191" s="24" t="s">
         <v>17</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="39.4">
+    <row r="192" spans="2:8">
       <c r="B192" s="25" t="s">
         <v>17</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="2:8" ht="39.4">
+    <row r="193" spans="2:8">
       <c r="B193" s="24" t="s">
         <v>17</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="194" spans="2:8" ht="39.4">
+    <row r="194" spans="2:8">
       <c r="B194" s="25" t="s">
         <v>17</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="39.4">
+    <row r="195" spans="2:8">
       <c r="B195" s="24" t="s">
         <v>17</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="39.4">
+    <row r="196" spans="2:8">
       <c r="B196" s="25" t="s">
         <v>17</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="39.4">
+    <row r="197" spans="2:8">
       <c r="B197" s="24" t="s">
         <v>17</v>
       </c>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58911356-CADC-4074-8E1E-DF40985CA985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8FB67-7CAE-4FF4-B1D8-06948FB4900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE19AE8C-3B74-B5FC-E26E-ED39F0F02D22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0A192E-9314-6929-C0D2-5376C9A7D21F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905AE095-121A-4712-B79B-FDE396DEBE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED69D62-B0C3-4351-96B7-4B8591A8FF33}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8FB67-7CAE-4FF4-B1D8-06948FB4900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7A915-9295-4808-92B8-906A515CA7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0A192E-9314-6929-C0D2-5376C9A7D21F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48652E0F-A295-494D-506D-D5F4E46B5C1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED69D62-B0C3-4351-96B7-4B8591A8FF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A502620-89A2-4EBB-9544-12D9E167DED2}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7A915-9295-4808-92B8-906A515CA7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94D764-2391-4C03-9B8D-347082A79ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48652E0F-A295-494D-506D-D5F4E46B5C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE260B27-062D-C0BA-323D-1E10A91EEE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A502620-89A2-4EBB-9544-12D9E167DED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7E1BCD-C858-40B4-97F6-28B59B35E921}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94D764-2391-4C03-9B8D-347082A79ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0C49-3E5B-4919-A668-1964BB2E5BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE260B27-062D-C0BA-323D-1E10A91EEE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55529FE9-4383-0DC0-E703-CA51E222B824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7E1BCD-C858-40B4-97F6-28B59B35E921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC5A867-DA98-4810-A842-C4EC3B669FDE}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0C49-3E5B-4919-A668-1964BB2E5BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B7694-7FB7-4DD6-A1F0-B8BD9E2CAFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55529FE9-4383-0DC0-E703-CA51E222B824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC8D0FC-85E3-5FCA-AB7B-4713FBE72FA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC5A867-DA98-4810-A842-C4EC3B669FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF9485-85E3-4512-9774-EF0DFB1A135F}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B7694-7FB7-4DD6-A1F0-B8BD9E2CAFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE7496-E7D8-494C-BF4F-29A1FEBCCBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC8D0FC-85E3-5FCA-AB7B-4713FBE72FA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCF96E3-61E8-C584-8DB4-DE3089D1157C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AF9485-85E3-4512-9774-EF0DFB1A135F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746A61C0-B64F-4968-BE3F-E87AF88EE2CF}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE7496-E7D8-494C-BF4F-29A1FEBCCBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3589CC-FAFD-4236-802C-D267AF9DCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCF96E3-61E8-C584-8DB4-DE3089D1157C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AB43E6-59ED-AC79-A84D-ADD03F7265B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746A61C0-B64F-4968-BE3F-E87AF88EE2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF06DFAC-6636-4168-BCF1-62D1E08D20A7}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3589CC-FAFD-4236-802C-D267AF9DCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219EBE69-2ACB-40DB-8DE5-B4333E7BB85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
     <sheet name="fuels" sheetId="2" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
-    <sheet name="grids" sheetId="7" r:id="rId5"/>
-    <sheet name="Constants" sheetId="5" r:id="rId6"/>
+    <sheet name="Constants" sheetId="5" r:id="rId5"/>
+    <sheet name="grids" sheetId="7" r:id="rId6"/>
     <sheet name="reporting options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="701">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>co2net</t>
+  </si>
+  <si>
+    <t>flo_mark</t>
   </si>
   <si>
     <t>CHE</t>
@@ -4158,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AB43E6-59ED-AC79-A84D-ADD03F7265B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19809D0D-6A18-C6B9-9E5A-FE3E03D5CD0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,9 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4636,7 +4637,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -4722,7 +4723,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -4754,10 +4755,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -4766,7 +4767,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -4780,10 +4781,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -4792,7 +4793,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -4806,10 +4807,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
         <v>29</v>
@@ -4818,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -4832,10 +4833,10 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
         <v>29</v>
@@ -4844,7 +4845,7 @@
         <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -4858,10 +4859,10 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
@@ -4870,7 +4871,7 @@
         <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -4884,10 +4885,10 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P10" t="s">
         <v>29</v>
@@ -4896,7 +4897,7 @@
         <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -4910,10 +4911,10 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -4922,7 +4923,7 @@
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -4936,10 +4937,10 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -4948,7 +4949,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -4962,10 +4963,10 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P13" t="s">
         <v>29</v>
@@ -4974,7 +4975,7 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -4988,10 +4989,10 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P14" t="s">
         <v>29</v>
@@ -5000,7 +5001,7 @@
         <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -5026,10 +5027,10 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P15" t="s">
         <v>29</v>
@@ -5038,7 +5039,7 @@
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -5058,10 +5059,10 @@
         <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -5070,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -5090,10 +5091,10 @@
         <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P17" t="s">
         <v>29</v>
@@ -5102,7 +5103,7 @@
         <v>39</v>
       </c>
       <c r="R17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -5122,10 +5123,10 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P18" t="s">
         <v>29</v>
@@ -5134,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="R18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -5160,10 +5161,10 @@
         <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P19" t="s">
         <v>29</v>
@@ -5172,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -5192,10 +5193,10 @@
         <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P20" t="s">
         <v>29</v>
@@ -5204,7 +5205,7 @@
         <v>39</v>
       </c>
       <c r="R20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -5218,10 +5219,10 @@
         <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s">
         <v>29</v>
@@ -5230,7 +5231,7 @@
         <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -5244,10 +5245,10 @@
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -5256,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="R22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -5264,10 +5265,10 @@
         <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -5276,7 +5277,7 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -5284,10 +5285,10 @@
         <v>17</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -5296,7 +5297,7 @@
         <v>39</v>
       </c>
       <c r="R24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -5304,10 +5305,10 @@
         <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P25" t="s">
         <v>29</v>
@@ -5316,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -5324,10 +5325,10 @@
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s">
         <v>29</v>
@@ -5336,7 +5337,7 @@
         <v>39</v>
       </c>
       <c r="R26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -5344,10 +5345,10 @@
         <v>17</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s">
         <v>29</v>
@@ -5356,7 +5357,7 @@
         <v>39</v>
       </c>
       <c r="R27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -5364,10 +5365,10 @@
         <v>17</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" t="s">
         <v>29</v>
@@ -5376,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="R28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -5384,10 +5385,10 @@
         <v>17</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s">
         <v>29</v>
@@ -5396,7 +5397,7 @@
         <v>39</v>
       </c>
       <c r="R29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -5404,10 +5405,10 @@
         <v>17</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P30" t="s">
         <v>29</v>
@@ -5416,7 +5417,7 @@
         <v>39</v>
       </c>
       <c r="R30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -5424,10 +5425,10 @@
         <v>17</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s">
         <v>29</v>
@@ -5436,7 +5437,7 @@
         <v>39</v>
       </c>
       <c r="R31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -5444,10 +5445,10 @@
         <v>17</v>
       </c>
       <c r="N32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P32" t="s">
         <v>29</v>
@@ -5456,7 +5457,7 @@
         <v>39</v>
       </c>
       <c r="R32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="13:18">
@@ -5464,10 +5465,10 @@
         <v>17</v>
       </c>
       <c r="N33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P33" t="s">
         <v>29</v>
@@ -5476,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="R33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="13:18">
@@ -5484,10 +5485,10 @@
         <v>17</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P34" t="s">
         <v>29</v>
@@ -5496,7 +5497,7 @@
         <v>39</v>
       </c>
       <c r="R34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="13:18">
@@ -5504,10 +5505,10 @@
         <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
@@ -5516,7 +5517,7 @@
         <v>39</v>
       </c>
       <c r="R35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="13:18">
@@ -5524,10 +5525,10 @@
         <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P36" t="s">
         <v>29</v>
@@ -5536,7 +5537,7 @@
         <v>39</v>
       </c>
       <c r="R36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="13:18">
@@ -5544,10 +5545,10 @@
         <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P37" t="s">
         <v>29</v>
@@ -5556,7 +5557,7 @@
         <v>39</v>
       </c>
       <c r="R37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="13:18">
@@ -5564,10 +5565,10 @@
         <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s">
         <v>29</v>
@@ -5576,7 +5577,7 @@
         <v>39</v>
       </c>
       <c r="R38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="13:18">
@@ -5584,10 +5585,10 @@
         <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P39" t="s">
         <v>29</v>
@@ -5596,7 +5597,7 @@
         <v>39</v>
       </c>
       <c r="R39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="13:18">
@@ -5604,10 +5605,10 @@
         <v>17</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P40" t="s">
         <v>29</v>
@@ -5616,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="R40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="13:18">
@@ -5624,10 +5625,10 @@
         <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P41" t="s">
         <v>29</v>
@@ -5636,7 +5637,7 @@
         <v>39</v>
       </c>
       <c r="R41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="13:18">
@@ -5644,10 +5645,10 @@
         <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P42" t="s">
         <v>29</v>
@@ -5656,7 +5657,7 @@
         <v>39</v>
       </c>
       <c r="R42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="13:18">
@@ -5664,10 +5665,10 @@
         <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P43" t="s">
         <v>29</v>
@@ -5676,7 +5677,7 @@
         <v>39</v>
       </c>
       <c r="R43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="13:18">
@@ -5684,10 +5685,10 @@
         <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P44" t="s">
         <v>29</v>
@@ -5696,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="13:18">
@@ -5704,10 +5705,10 @@
         <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s">
         <v>29</v>
@@ -5716,7 +5717,7 @@
         <v>39</v>
       </c>
       <c r="R45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="13:18">
@@ -5724,10 +5725,10 @@
         <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P46" t="s">
         <v>29</v>
@@ -5736,7 +5737,7 @@
         <v>39</v>
       </c>
       <c r="R46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="13:18">
@@ -5744,10 +5745,10 @@
         <v>17</v>
       </c>
       <c r="N47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s">
         <v>29</v>
@@ -5756,7 +5757,7 @@
         <v>39</v>
       </c>
       <c r="R47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="13:18">
@@ -5764,10 +5765,10 @@
         <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P48" t="s">
         <v>29</v>
@@ -5776,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="R48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="13:18">
@@ -5784,10 +5785,10 @@
         <v>17</v>
       </c>
       <c r="N49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P49" t="s">
         <v>29</v>
@@ -5796,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="R49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="13:18">
@@ -5804,10 +5805,10 @@
         <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P50" t="s">
         <v>29</v>
@@ -5816,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="R50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="13:18">
@@ -5824,10 +5825,10 @@
         <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P51" t="s">
         <v>29</v>
@@ -5836,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="R51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="13:18">
@@ -5844,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P52" t="s">
         <v>29</v>
@@ -5856,7 +5857,7 @@
         <v>39</v>
       </c>
       <c r="R52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="13:18">
@@ -5864,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="N53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P53" t="s">
         <v>29</v>
@@ -5876,7 +5877,7 @@
         <v>39</v>
       </c>
       <c r="R53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="13:18">
@@ -5884,10 +5885,10 @@
         <v>17</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P54" t="s">
         <v>29</v>
@@ -5896,7 +5897,7 @@
         <v>39</v>
       </c>
       <c r="R54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="13:18">
@@ -5904,10 +5905,10 @@
         <v>17</v>
       </c>
       <c r="N55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P55" t="s">
         <v>29</v>
@@ -5916,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="R55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6210,21 +6211,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="B1:N40"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -6340,49 +6347,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="14" t="s">
+    <row r="10" spans="2:12">
+      <c r="D10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="D14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2222</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -6390,22 +6397,22 @@
         <v>70</v>
       </c>
       <c r="F15" s="11">
+        <v>2222</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="11">
         <v>8888</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="12.75">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
@@ -6429,20 +6436,16 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+    <row r="19" spans="2:14" ht="12.75">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
@@ -6759,6 +6762,21 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
+    <row r="41" spans="2:14" ht="14.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6767,7 +6785,1590 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF06DFAC-6636-4168-BCF1-62D1E08D20A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
+  <dimension ref="A2:P95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="G4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.2201</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.1427</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.077</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="6">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.0358000000000001</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.9192</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.8468</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.7799</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.722</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.6836</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="6">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.15">
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.6446000000000001</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2139.4548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.15">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.15">
+      <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1.5770999999999999</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13.15">
+      <c r="B21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1.5488</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.15">
+      <c r="B22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1.5224</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="6">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.15">
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.5058</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.15">
+      <c r="B24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="11">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.15">
+      <c r="B25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.4518</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13.15">
+      <c r="B26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.4198999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13.15">
+      <c r="B27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.15">
+      <c r="B28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.3727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13.15">
+      <c r="B29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.3369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.15">
+      <c r="B30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1.2967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.15">
+      <c r="B31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.2583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13.15">
+      <c r="B32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2253000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13.15">
+      <c r="B33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.2023999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13.15">
+      <c r="B34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.1931</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.15">
+      <c r="B35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.1793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="13.15">
+      <c r="B36" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.1552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.15">
+      <c r="B37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.1334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13.15">
+      <c r="B38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.15">
+      <c r="B39" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.0934999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13.15">
+      <c r="B40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.0831</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13.15">
+      <c r="B41" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1.0719000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13.15">
+      <c r="B42" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.0519000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.15">
+      <c r="B43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.0274000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13.15">
+      <c r="B44" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1.0091000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13.15">
+      <c r="B45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="13.15">
+      <c r="B46" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13.15">
+      <c r="B47" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13.15">
+      <c r="B48" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="13.15">
+      <c r="B49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="13.15">
+      <c r="B50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="13.15">
+      <c r="B51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f>G46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <v>USD20</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="13.15">
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.15">
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K53" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.15">
+      <c r="B54" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="G55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="G56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="G57" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="G58" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="G59" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="G60" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="G61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K61" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="G62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="G63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="G64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K65" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K68" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K70" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K71" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K75" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11">
+      <c r="G76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11">
+      <c r="G77" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11">
+      <c r="G78" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K78" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11">
+      <c r="G79" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11">
+      <c r="G80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K80" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11">
+      <c r="G81" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K81" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K82" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K84" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11">
+      <c r="G85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K86" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
+      <c r="G87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K87" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K88" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11">
+      <c r="G89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K90" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11">
+      <c r="G91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K92" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="11" t="str">
+        <f>J51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="K95" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D55D1-4346-41B5-813F-F8A3074E9C02}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6784,7 +8385,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6796,12 +8397,12 @@
     </row>
     <row r="3" spans="1:8" ht="14.65" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="B4" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>10</v>
@@ -6827,10 +8428,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>29</v>
@@ -6839,10 +8440,10 @@
         <v>39</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6850,10 +8451,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>29</v>
@@ -6862,10 +8463,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6873,10 +8474,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>29</v>
@@ -6885,10 +8486,10 @@
         <v>39</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6896,10 +8497,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>29</v>
@@ -6908,10 +8509,10 @@
         <v>39</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6919,10 +8520,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>29</v>
@@ -6931,10 +8532,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6942,10 +8543,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>29</v>
@@ -6954,10 +8555,10 @@
         <v>39</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6965,10 +8566,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>29</v>
@@ -6977,10 +8578,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6988,10 +8589,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>29</v>
@@ -7000,10 +8601,10 @@
         <v>39</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7011,10 +8612,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>29</v>
@@ -7023,10 +8624,10 @@
         <v>39</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7034,10 +8635,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>29</v>
@@ -7046,10 +8647,10 @@
         <v>39</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7057,10 +8658,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>29</v>
@@ -7069,10 +8670,10 @@
         <v>39</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7080,10 +8681,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>29</v>
@@ -7092,10 +8693,10 @@
         <v>39</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -7103,10 +8704,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>29</v>
@@ -7115,10 +8716,10 @@
         <v>39</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -7126,10 +8727,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>29</v>
@@ -7138,10 +8739,10 @@
         <v>39</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -7149,10 +8750,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>29</v>
@@ -7161,10 +8762,10 @@
         <v>39</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -7172,10 +8773,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>29</v>
@@ -7184,10 +8785,10 @@
         <v>39</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -7195,10 +8796,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>29</v>
@@ -7207,10 +8808,10 @@
         <v>39</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -7218,10 +8819,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>29</v>
@@ -7230,10 +8831,10 @@
         <v>39</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -7241,10 +8842,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>29</v>
@@ -7253,10 +8854,10 @@
         <v>39</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -7264,10 +8865,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>29</v>
@@ -7276,10 +8877,10 @@
         <v>39</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -7287,10 +8888,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>29</v>
@@ -7299,10 +8900,10 @@
         <v>39</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -7310,10 +8911,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>29</v>
@@ -7322,10 +8923,10 @@
         <v>39</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -7333,10 +8934,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>29</v>
@@ -7345,10 +8946,10 @@
         <v>39</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -7356,10 +8957,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>29</v>
@@ -7368,10 +8969,10 @@
         <v>39</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -7379,10 +8980,10 @@
         <v>17</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>29</v>
@@ -7391,10 +8992,10 @@
         <v>39</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -7402,10 +9003,10 @@
         <v>17</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>29</v>
@@ -7414,10 +9015,10 @@
         <v>39</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -7425,10 +9026,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>29</v>
@@ -7437,10 +9038,10 @@
         <v>39</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -7448,10 +9049,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>29</v>
@@ -7460,10 +9061,10 @@
         <v>39</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -7471,10 +9072,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>29</v>
@@ -7483,10 +9084,10 @@
         <v>39</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -7494,10 +9095,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>29</v>
@@ -7506,10 +9107,10 @@
         <v>39</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -7517,10 +9118,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>29</v>
@@ -7529,10 +9130,10 @@
         <v>39</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -7540,10 +9141,10 @@
         <v>17</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>29</v>
@@ -7552,10 +9153,10 @@
         <v>39</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -7563,10 +9164,10 @@
         <v>17</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>29</v>
@@ -7575,10 +9176,10 @@
         <v>39</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -7586,10 +9187,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>29</v>
@@ -7598,10 +9199,10 @@
         <v>39</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -7609,10 +9210,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>29</v>
@@ -7621,10 +9222,10 @@
         <v>39</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -7632,10 +9233,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>29</v>
@@ -7644,10 +9245,10 @@
         <v>39</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -7655,10 +9256,10 @@
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>29</v>
@@ -7667,10 +9268,10 @@
         <v>39</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -7678,10 +9279,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>29</v>
@@ -7690,10 +9291,10 @@
         <v>39</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -7701,10 +9302,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>29</v>
@@ -7713,10 +9314,10 @@
         <v>39</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -7724,10 +9325,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>29</v>
@@ -7736,10 +9337,10 @@
         <v>39</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -7747,10 +9348,10 @@
         <v>17</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>29</v>
@@ -7759,10 +9360,10 @@
         <v>39</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -7770,10 +9371,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>29</v>
@@ -7782,10 +9383,10 @@
         <v>39</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -7793,10 +9394,10 @@
         <v>17</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>29</v>
@@ -7805,10 +9406,10 @@
         <v>39</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -7816,10 +9417,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>29</v>
@@ -7828,10 +9429,10 @@
         <v>39</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -7839,10 +9440,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>29</v>
@@ -7851,10 +9452,10 @@
         <v>39</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -7862,10 +9463,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>29</v>
@@ -7874,10 +9475,10 @@
         <v>39</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -7885,10 +9486,10 @@
         <v>17</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>29</v>
@@ -7897,10 +9498,10 @@
         <v>39</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -7908,10 +9509,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>29</v>
@@ -7920,10 +9521,10 @@
         <v>39</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -7931,10 +9532,10 @@
         <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>29</v>
@@ -7943,10 +9544,10 @@
         <v>39</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -7954,10 +9555,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>29</v>
@@ -7966,10 +9567,10 @@
         <v>39</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -7977,10 +9578,10 @@
         <v>17</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>29</v>
@@ -7989,10 +9590,10 @@
         <v>39</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -8000,10 +9601,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>29</v>
@@ -8012,10 +9613,10 @@
         <v>39</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -8023,10 +9624,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>29</v>
@@ -8035,10 +9636,10 @@
         <v>39</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -8046,10 +9647,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>29</v>
@@ -8058,10 +9659,10 @@
         <v>39</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -8069,10 +9670,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>29</v>
@@ -8081,10 +9682,10 @@
         <v>39</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -8092,10 +9693,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>29</v>
@@ -8104,10 +9705,10 @@
         <v>39</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -8115,10 +9716,10 @@
         <v>17</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>29</v>
@@ -8127,10 +9728,10 @@
         <v>39</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -8138,10 +9739,10 @@
         <v>17</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>29</v>
@@ -8150,10 +9751,10 @@
         <v>39</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -8161,10 +9762,10 @@
         <v>17</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>29</v>
@@ -8173,10 +9774,10 @@
         <v>39</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -8184,10 +9785,10 @@
         <v>17</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>29</v>
@@ -8196,10 +9797,10 @@
         <v>39</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -8207,10 +9808,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>29</v>
@@ -8219,10 +9820,10 @@
         <v>39</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -8230,10 +9831,10 @@
         <v>17</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>29</v>
@@ -8242,10 +9843,10 @@
         <v>39</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -8253,10 +9854,10 @@
         <v>17</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>29</v>
@@ -8265,10 +9866,10 @@
         <v>39</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -8276,10 +9877,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>29</v>
@@ -8288,10 +9889,10 @@
         <v>39</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -8299,10 +9900,10 @@
         <v>17</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>29</v>
@@ -8311,10 +9912,10 @@
         <v>39</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -8322,10 +9923,10 @@
         <v>17</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>29</v>
@@ -8334,10 +9935,10 @@
         <v>39</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -8345,10 +9946,10 @@
         <v>17</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>29</v>
@@ -8357,10 +9958,10 @@
         <v>39</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -8368,10 +9969,10 @@
         <v>17</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>29</v>
@@ -8380,10 +9981,10 @@
         <v>39</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -8391,10 +9992,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>29</v>
@@ -8403,10 +10004,10 @@
         <v>39</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -8414,10 +10015,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>29</v>
@@ -8426,10 +10027,10 @@
         <v>39</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -8437,10 +10038,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>29</v>
@@ -8449,10 +10050,10 @@
         <v>39</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -8460,10 +10061,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>29</v>
@@ -8472,10 +10073,10 @@
         <v>39</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -8483,10 +10084,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>29</v>
@@ -8495,10 +10096,10 @@
         <v>39</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -8506,10 +10107,10 @@
         <v>17</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>29</v>
@@ -8518,10 +10119,10 @@
         <v>39</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -8529,10 +10130,10 @@
         <v>17</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>29</v>
@@ -8541,10 +10142,10 @@
         <v>39</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -8552,10 +10153,10 @@
         <v>17</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>29</v>
@@ -8564,10 +10165,10 @@
         <v>39</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -8575,10 +10176,10 @@
         <v>17</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>29</v>
@@ -8587,10 +10188,10 @@
         <v>39</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="2:8">
@@ -8598,10 +10199,10 @@
         <v>17</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>29</v>
@@ -8610,10 +10211,10 @@
         <v>39</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -8621,10 +10222,10 @@
         <v>17</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>29</v>
@@ -8633,10 +10234,10 @@
         <v>39</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -8644,10 +10245,10 @@
         <v>17</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>29</v>
@@ -8656,10 +10257,10 @@
         <v>39</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -8667,10 +10268,10 @@
         <v>17</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>29</v>
@@ -8679,10 +10280,10 @@
         <v>39</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -8690,10 +10291,10 @@
         <v>17</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>29</v>
@@ -8702,10 +10303,10 @@
         <v>39</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -8713,10 +10314,10 @@
         <v>17</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E87" s="24" t="s">
         <v>29</v>
@@ -8725,10 +10326,10 @@
         <v>39</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -8736,10 +10337,10 @@
         <v>17</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>29</v>
@@ -8748,10 +10349,10 @@
         <v>39</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="2:8">
@@ -8759,10 +10360,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E89" s="24" t="s">
         <v>29</v>
@@ -8771,10 +10372,10 @@
         <v>39</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="2:8">
@@ -8782,10 +10383,10 @@
         <v>17</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>29</v>
@@ -8794,10 +10395,10 @@
         <v>39</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -8805,10 +10406,10 @@
         <v>17</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>29</v>
@@ -8817,10 +10418,10 @@
         <v>39</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -8828,10 +10429,10 @@
         <v>17</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>29</v>
@@ -8840,10 +10441,10 @@
         <v>39</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -8851,10 +10452,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>29</v>
@@ -8863,10 +10464,10 @@
         <v>39</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -8874,10 +10475,10 @@
         <v>17</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>29</v>
@@ -8886,10 +10487,10 @@
         <v>39</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -8897,10 +10498,10 @@
         <v>17</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>29</v>
@@ -8909,10 +10510,10 @@
         <v>39</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="2:8">
@@ -8920,10 +10521,10 @@
         <v>17</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>29</v>
@@ -8932,10 +10533,10 @@
         <v>39</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:8">
@@ -8943,10 +10544,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>29</v>
@@ -8955,10 +10556,10 @@
         <v>39</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="2:8">
@@ -8966,10 +10567,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>29</v>
@@ -8978,10 +10579,10 @@
         <v>39</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="2:8">
@@ -8989,10 +10590,10 @@
         <v>17</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>29</v>
@@ -9001,10 +10602,10 @@
         <v>39</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="2:8">
@@ -9012,10 +10613,10 @@
         <v>17</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E100" s="25" t="s">
         <v>29</v>
@@ -9024,10 +10625,10 @@
         <v>39</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="2:8">
@@ -9035,10 +10636,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>29</v>
@@ -9047,10 +10648,10 @@
         <v>39</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -9058,10 +10659,10 @@
         <v>17</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>29</v>
@@ -9070,10 +10671,10 @@
         <v>39</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="2:8">
@@ -9081,10 +10682,10 @@
         <v>17</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>29</v>
@@ -9093,10 +10694,10 @@
         <v>39</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="2:8">
@@ -9104,10 +10705,10 @@
         <v>17</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>29</v>
@@ -9116,10 +10717,10 @@
         <v>39</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="2:8">
@@ -9127,10 +10728,10 @@
         <v>17</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>29</v>
@@ -9139,10 +10740,10 @@
         <v>39</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="2:8">
@@ -9150,10 +10751,10 @@
         <v>17</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>29</v>
@@ -9162,10 +10763,10 @@
         <v>39</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="2:8">
@@ -9173,10 +10774,10 @@
         <v>17</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>29</v>
@@ -9185,10 +10786,10 @@
         <v>39</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="2:8">
@@ -9196,10 +10797,10 @@
         <v>17</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>29</v>
@@ -9208,10 +10809,10 @@
         <v>39</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="2:8">
@@ -9219,10 +10820,10 @@
         <v>17</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>29</v>
@@ -9231,10 +10832,10 @@
         <v>39</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="2:8">
@@ -9242,10 +10843,10 @@
         <v>17</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>29</v>
@@ -9254,10 +10855,10 @@
         <v>39</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="2:8">
@@ -9265,10 +10866,10 @@
         <v>17</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>29</v>
@@ -9277,10 +10878,10 @@
         <v>39</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="2:8">
@@ -9288,10 +10889,10 @@
         <v>17</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>29</v>
@@ -9300,10 +10901,10 @@
         <v>39</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="2:8">
@@ -9311,10 +10912,10 @@
         <v>17</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>29</v>
@@ -9323,10 +10924,10 @@
         <v>39</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="2:8">
@@ -9334,10 +10935,10 @@
         <v>17</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>29</v>
@@ -9346,10 +10947,10 @@
         <v>39</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="2:8">
@@ -9357,10 +10958,10 @@
         <v>17</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>29</v>
@@ -9369,10 +10970,10 @@
         <v>39</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="2:8">
@@ -9380,10 +10981,10 @@
         <v>17</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>29</v>
@@ -9392,10 +10993,10 @@
         <v>39</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="2:8">
@@ -9403,10 +11004,10 @@
         <v>17</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>29</v>
@@ -9415,10 +11016,10 @@
         <v>39</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -9426,10 +11027,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>29</v>
@@ -9438,10 +11039,10 @@
         <v>39</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="2:8">
@@ -9449,10 +11050,10 @@
         <v>17</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>29</v>
@@ -9461,10 +11062,10 @@
         <v>39</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="2:8">
@@ -9472,10 +11073,10 @@
         <v>17</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>29</v>
@@ -9484,10 +11085,10 @@
         <v>39</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="2:8">
@@ -9495,10 +11096,10 @@
         <v>17</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E121" s="24" t="s">
         <v>29</v>
@@ -9507,10 +11108,10 @@
         <v>39</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="2:8">
@@ -9518,10 +11119,10 @@
         <v>17</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>29</v>
@@ -9530,10 +11131,10 @@
         <v>39</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:8">
@@ -9541,10 +11142,10 @@
         <v>17</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>29</v>
@@ -9553,10 +11154,10 @@
         <v>39</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="2:8">
@@ -9564,10 +11165,10 @@
         <v>17</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>29</v>
@@ -9576,10 +11177,10 @@
         <v>39</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="2:8">
@@ -9587,10 +11188,10 @@
         <v>17</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>29</v>
@@ -9599,10 +11200,10 @@
         <v>39</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:8">
@@ -9610,10 +11211,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>29</v>
@@ -9622,10 +11223,10 @@
         <v>39</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -9633,10 +11234,10 @@
         <v>17</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>29</v>
@@ -9645,10 +11246,10 @@
         <v>39</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="2:8">
@@ -9656,10 +11257,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>29</v>
@@ -9668,10 +11269,10 @@
         <v>39</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="2:8">
@@ -9679,10 +11280,10 @@
         <v>17</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E129" s="24" t="s">
         <v>29</v>
@@ -9691,10 +11292,10 @@
         <v>39</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="2:8">
@@ -9702,10 +11303,10 @@
         <v>17</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E130" s="25" t="s">
         <v>29</v>
@@ -9714,10 +11315,10 @@
         <v>39</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="2:8">
@@ -9725,10 +11326,10 @@
         <v>17</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E131" s="24" t="s">
         <v>29</v>
@@ -9737,10 +11338,10 @@
         <v>39</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="2:8">
@@ -9748,10 +11349,10 @@
         <v>17</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>29</v>
@@ -9760,10 +11361,10 @@
         <v>39</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="2:8">
@@ -9771,10 +11372,10 @@
         <v>17</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E133" s="24" t="s">
         <v>29</v>
@@ -9783,10 +11384,10 @@
         <v>39</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="2:8">
@@ -9794,10 +11395,10 @@
         <v>17</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>29</v>
@@ -9806,10 +11407,10 @@
         <v>39</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="2:8">
@@ -9817,10 +11418,10 @@
         <v>17</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>29</v>
@@ -9829,10 +11430,10 @@
         <v>39</v>
       </c>
       <c r="G135" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="2:8">
@@ -9840,10 +11441,10 @@
         <v>17</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>29</v>
@@ -9852,10 +11453,10 @@
         <v>39</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="2:8">
@@ -9863,10 +11464,10 @@
         <v>17</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E137" s="24" t="s">
         <v>29</v>
@@ -9875,10 +11476,10 @@
         <v>39</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="2:8">
@@ -9886,10 +11487,10 @@
         <v>17</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>29</v>
@@ -9898,10 +11499,10 @@
         <v>39</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="2:8">
@@ -9909,10 +11510,10 @@
         <v>17</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E139" s="24" t="s">
         <v>29</v>
@@ -9921,10 +11522,10 @@
         <v>39</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H139" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="2:8">
@@ -9932,10 +11533,10 @@
         <v>17</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>29</v>
@@ -9944,10 +11545,10 @@
         <v>39</v>
       </c>
       <c r="G140" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="2:8">
@@ -9955,10 +11556,10 @@
         <v>17</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>29</v>
@@ -9967,10 +11568,10 @@
         <v>39</v>
       </c>
       <c r="G141" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H141" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="2:8">
@@ -9978,10 +11579,10 @@
         <v>17</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E142" s="25" t="s">
         <v>29</v>
@@ -9990,10 +11591,10 @@
         <v>39</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="2:8">
@@ -10001,10 +11602,10 @@
         <v>17</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>29</v>
@@ -10013,10 +11614,10 @@
         <v>39</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H143" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144" spans="2:8">
@@ -10024,10 +11625,10 @@
         <v>17</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>29</v>
@@ -10036,10 +11637,10 @@
         <v>39</v>
       </c>
       <c r="G144" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="2:8">
@@ -10047,10 +11648,10 @@
         <v>17</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>29</v>
@@ -10059,10 +11660,10 @@
         <v>39</v>
       </c>
       <c r="G145" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H145" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="2:8">
@@ -10070,10 +11671,10 @@
         <v>17</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E146" s="25" t="s">
         <v>29</v>
@@ -10082,10 +11683,10 @@
         <v>39</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="2:8">
@@ -10093,10 +11694,10 @@
         <v>17</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>29</v>
@@ -10105,10 +11706,10 @@
         <v>39</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="2:8">
@@ -10116,10 +11717,10 @@
         <v>17</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E148" s="25" t="s">
         <v>29</v>
@@ -10128,10 +11729,10 @@
         <v>39</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -10139,10 +11740,10 @@
         <v>17</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>29</v>
@@ -10151,10 +11752,10 @@
         <v>39</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="2:8">
@@ -10162,10 +11763,10 @@
         <v>17</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E150" s="25" t="s">
         <v>29</v>
@@ -10174,10 +11775,10 @@
         <v>39</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="2:8">
@@ -10185,10 +11786,10 @@
         <v>17</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>29</v>
@@ -10197,10 +11798,10 @@
         <v>39</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H151" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="2:8">
@@ -10208,10 +11809,10 @@
         <v>17</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>29</v>
@@ -10220,10 +11821,10 @@
         <v>39</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="2:8">
@@ -10231,10 +11832,10 @@
         <v>17</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E153" s="24" t="s">
         <v>29</v>
@@ -10243,10 +11844,10 @@
         <v>39</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H153" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="2:8">
@@ -10254,10 +11855,10 @@
         <v>17</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E154" s="25" t="s">
         <v>29</v>
@@ -10266,10 +11867,10 @@
         <v>39</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H154" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="2:8">
@@ -10277,10 +11878,10 @@
         <v>17</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E155" s="24" t="s">
         <v>29</v>
@@ -10289,10 +11890,10 @@
         <v>39</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H155" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="2:8">
@@ -10300,10 +11901,10 @@
         <v>17</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>29</v>
@@ -10312,10 +11913,10 @@
         <v>39</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H156" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="2:8">
@@ -10323,10 +11924,10 @@
         <v>17</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E157" s="24" t="s">
         <v>29</v>
@@ -10335,10 +11936,10 @@
         <v>39</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="2:8">
@@ -10346,10 +11947,10 @@
         <v>17</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>29</v>
@@ -10358,10 +11959,10 @@
         <v>39</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H158" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="2:8">
@@ -10369,10 +11970,10 @@
         <v>17</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E159" s="24" t="s">
         <v>29</v>
@@ -10381,10 +11982,10 @@
         <v>39</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="2:8">
@@ -10392,10 +11993,10 @@
         <v>17</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>29</v>
@@ -10404,10 +12005,10 @@
         <v>39</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H160" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="2:8">
@@ -10415,10 +12016,10 @@
         <v>17</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E161" s="24" t="s">
         <v>29</v>
@@ -10427,10 +12028,10 @@
         <v>39</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="2:8">
@@ -10438,10 +12039,10 @@
         <v>17</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E162" s="25" t="s">
         <v>29</v>
@@ -10450,10 +12051,10 @@
         <v>39</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H162" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="2:8">
@@ -10461,10 +12062,10 @@
         <v>17</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E163" s="24" t="s">
         <v>29</v>
@@ -10473,10 +12074,10 @@
         <v>39</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="2:8">
@@ -10484,10 +12085,10 @@
         <v>17</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>29</v>
@@ -10496,10 +12097,10 @@
         <v>39</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H164" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -10507,10 +12108,10 @@
         <v>17</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E165" s="24" t="s">
         <v>29</v>
@@ -10519,10 +12120,10 @@
         <v>39</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -10530,10 +12131,10 @@
         <v>17</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E166" s="25" t="s">
         <v>29</v>
@@ -10542,10 +12143,10 @@
         <v>39</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H166" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="2:8">
@@ -10553,10 +12154,10 @@
         <v>17</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E167" s="24" t="s">
         <v>29</v>
@@ -10565,10 +12166,10 @@
         <v>39</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" spans="2:8">
@@ -10576,10 +12177,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E168" s="25" t="s">
         <v>29</v>
@@ -10588,10 +12189,10 @@
         <v>39</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="2:8">
@@ -10599,10 +12200,10 @@
         <v>17</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E169" s="24" t="s">
         <v>29</v>
@@ -10611,10 +12212,10 @@
         <v>39</v>
       </c>
       <c r="G169" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H169" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="2:8">
@@ -10622,10 +12223,10 @@
         <v>17</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E170" s="25" t="s">
         <v>29</v>
@@ -10634,10 +12235,10 @@
         <v>39</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H170" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="2:8">
@@ -10645,10 +12246,10 @@
         <v>17</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E171" s="24" t="s">
         <v>29</v>
@@ -10657,10 +12258,10 @@
         <v>39</v>
       </c>
       <c r="G171" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H171" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="2:8">
@@ -10668,10 +12269,10 @@
         <v>17</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E172" s="25" t="s">
         <v>29</v>
@@ -10680,10 +12281,10 @@
         <v>39</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H172" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="2:8">
@@ -10691,10 +12292,10 @@
         <v>17</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E173" s="24" t="s">
         <v>29</v>
@@ -10703,10 +12304,10 @@
         <v>39</v>
       </c>
       <c r="G173" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H173" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="2:8">
@@ -10714,10 +12315,10 @@
         <v>17</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E174" s="25" t="s">
         <v>29</v>
@@ -10726,10 +12327,10 @@
         <v>39</v>
       </c>
       <c r="G174" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H174" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="2:8">
@@ -10737,10 +12338,10 @@
         <v>17</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E175" s="24" t="s">
         <v>29</v>
@@ -10749,10 +12350,10 @@
         <v>39</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="2:8">
@@ -10760,10 +12361,10 @@
         <v>17</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E176" s="25" t="s">
         <v>29</v>
@@ -10772,10 +12373,10 @@
         <v>39</v>
       </c>
       <c r="G176" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="2:8">
@@ -10783,10 +12384,10 @@
         <v>17</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E177" s="24" t="s">
         <v>29</v>
@@ -10795,10 +12396,10 @@
         <v>39</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="2:8">
@@ -10806,10 +12407,10 @@
         <v>17</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E178" s="25" t="s">
         <v>29</v>
@@ -10818,10 +12419,10 @@
         <v>39</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H178" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="2:8">
@@ -10829,10 +12430,10 @@
         <v>17</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E179" s="24" t="s">
         <v>29</v>
@@ -10841,10 +12442,10 @@
         <v>39</v>
       </c>
       <c r="G179" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="2:8">
@@ -10852,10 +12453,10 @@
         <v>17</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>29</v>
@@ -10864,10 +12465,10 @@
         <v>39</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H180" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="2:8">
@@ -10875,10 +12476,10 @@
         <v>17</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E181" s="24" t="s">
         <v>29</v>
@@ -10887,10 +12488,10 @@
         <v>39</v>
       </c>
       <c r="G181" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H181" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="2:8">
@@ -10898,10 +12499,10 @@
         <v>17</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E182" s="25" t="s">
         <v>29</v>
@@ -10910,10 +12511,10 @@
         <v>39</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H182" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="2:8">
@@ -10921,10 +12522,10 @@
         <v>17</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E183" s="24" t="s">
         <v>29</v>
@@ -10933,10 +12534,10 @@
         <v>39</v>
       </c>
       <c r="G183" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H183" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="2:8">
@@ -10944,10 +12545,10 @@
         <v>17</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E184" s="25" t="s">
         <v>29</v>
@@ -10956,10 +12557,10 @@
         <v>39</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H184" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="2:8">
@@ -10967,10 +12568,10 @@
         <v>17</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E185" s="24" t="s">
         <v>29</v>
@@ -10979,10 +12580,10 @@
         <v>39</v>
       </c>
       <c r="G185" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H185" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="2:8">
@@ -10990,10 +12591,10 @@
         <v>17</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E186" s="25" t="s">
         <v>29</v>
@@ -11002,10 +12603,10 @@
         <v>39</v>
       </c>
       <c r="G186" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H186" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="2:8">
@@ -11013,10 +12614,10 @@
         <v>17</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E187" s="24" t="s">
         <v>29</v>
@@ -11025,10 +12626,10 @@
         <v>39</v>
       </c>
       <c r="G187" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H187" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="2:8">
@@ -11036,10 +12637,10 @@
         <v>17</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E188" s="25" t="s">
         <v>29</v>
@@ -11048,10 +12649,10 @@
         <v>39</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H188" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="2:8">
@@ -11059,10 +12660,10 @@
         <v>17</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E189" s="24" t="s">
         <v>29</v>
@@ -11071,10 +12672,10 @@
         <v>39</v>
       </c>
       <c r="G189" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H189" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="2:8">
@@ -11082,10 +12683,10 @@
         <v>17</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>29</v>
@@ -11094,10 +12695,10 @@
         <v>39</v>
       </c>
       <c r="G190" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H190" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="2:8">
@@ -11105,10 +12706,10 @@
         <v>17</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E191" s="24" t="s">
         <v>29</v>
@@ -11117,10 +12718,10 @@
         <v>39</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H191" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="2:8">
@@ -11128,10 +12729,10 @@
         <v>17</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E192" s="25" t="s">
         <v>29</v>
@@ -11140,10 +12741,10 @@
         <v>39</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H192" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="2:8">
@@ -11151,10 +12752,10 @@
         <v>17</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E193" s="24" t="s">
         <v>29</v>
@@ -11163,10 +12764,10 @@
         <v>39</v>
       </c>
       <c r="G193" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H193" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="2:8">
@@ -11174,10 +12775,10 @@
         <v>17</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>29</v>
@@ -11186,10 +12787,10 @@
         <v>39</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H194" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:8">
@@ -11197,10 +12798,10 @@
         <v>17</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E195" s="24" t="s">
         <v>29</v>
@@ -11209,10 +12810,10 @@
         <v>39</v>
       </c>
       <c r="G195" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H195" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="2:8">
@@ -11220,10 +12821,10 @@
         <v>17</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E196" s="25" t="s">
         <v>29</v>
@@ -11232,10 +12833,10 @@
         <v>39</v>
       </c>
       <c r="G196" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H196" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="2:8">
@@ -11243,10 +12844,10 @@
         <v>17</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E197" s="24" t="s">
         <v>29</v>
@@ -11255,10 +12856,10 @@
         <v>39</v>
       </c>
       <c r="G197" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H197" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11270,1598 +12871,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P95"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
-  <cols>
-    <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="13.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="G4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1055.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="13.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2025</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="13.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="13.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2.2201</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1.05555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2.1427</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="6">
-        <v>4.1868000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2.077</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="6">
-        <v>41.868000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2.0358000000000001</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="6">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1.9870000000000001</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1.9192</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1.8468</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="6">
-        <v>5.8615199999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1.7799</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="13.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1.722</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="13.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1.6836</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="6">
-        <v>37.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.15">
-      <c r="B18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1.6446000000000001</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="6">
-        <v>2139.4548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13.15">
-      <c r="B19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1.6102000000000001</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="6">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13.15">
-      <c r="B20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="11">
-        <v>1.5770999999999999</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="13.15">
-      <c r="B21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1.5488</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.15">
-      <c r="B22" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1.5224</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" s="6">
-        <v>31.536000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="13.15">
-      <c r="B23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1.5058</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.15">
-      <c r="B24" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1.4844999999999999</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="11">
-        <v>5.8615199999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13.15">
-      <c r="B25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="11">
-        <v>1.4518</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="13.15">
-      <c r="B26" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="11">
-        <v>1.4198999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13.15">
-      <c r="B27" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1.3986000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.15">
-      <c r="B28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="11">
-        <v>1.3727</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.15">
-      <c r="B29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="11">
-        <v>1.3369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="13.15">
-      <c r="B30" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="11">
-        <v>1.2967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="13.15">
-      <c r="B31" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="11">
-        <v>1.2583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="13.15">
-      <c r="B32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1.2253000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="13.15">
-      <c r="B33" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" s="11">
-        <v>1.2023999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="13.15">
-      <c r="B34" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="11">
-        <v>1.1931</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="13.15">
-      <c r="B35" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="11">
-        <v>1.1793</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="13.15">
-      <c r="B36" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="11">
-        <v>1.1552</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="13.15">
-      <c r="B37" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="11">
-        <v>1.1334</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="13.15">
-      <c r="B38" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="13.15">
-      <c r="B39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" s="11">
-        <v>1.0934999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="13.15">
-      <c r="B40" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" s="11">
-        <v>1.0831</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="13.15">
-      <c r="B41" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K41" s="11">
-        <v>1.0719000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="13.15">
-      <c r="B42" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="11">
-        <v>1.0519000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="13.15">
-      <c r="B43" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" s="11">
-        <v>1.0274000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="13.15">
-      <c r="B44" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44" s="11">
-        <v>1.0091000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="13.15">
-      <c r="B45" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="13.15">
-      <c r="B46" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="13.15">
-      <c r="B47" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="11">
-        <v>0.97809999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="13.15">
-      <c r="B48" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="13.15">
-      <c r="B49" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="13.15">
-      <c r="B50" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0.92969999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="13.15">
-      <c r="B51" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="11" t="str">
-        <f>G46</f>
-        <v>G_CUREX</v>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" ref="I51:K51" si="0">I46</f>
-        <v>USD20</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" s="11">
-        <f t="shared" si="0"/>
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="13.15">
-      <c r="B52" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K52" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="13.15">
-      <c r="B53" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K53" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="13.15">
-      <c r="B54" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K54" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="G55" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K55" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="G56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K56" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="G57" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="K57" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="G59" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="G60" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K60" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="G61" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K61" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K62" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K64" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K65" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K66" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K68" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K69" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K70" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K71" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K72" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K73" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K74" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K75" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K76" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K77" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K78" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K79" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K80" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K81" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K82" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K83" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K84" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K85" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K86" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K87" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K88" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K89" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K90" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K91" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K92" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K93" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="7:11">
-      <c r="G94" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K94" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J95" s="11" t="str">
-        <f>J51</f>
-        <v>USD21_alt</v>
-      </c>
-      <c r="K95" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219EBE69-2ACB-40DB-8DE5-B4333E7BB85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781B7951-AFBE-418B-A3AF-E0EAC0192B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19809D0D-6A18-C6B9-9E5A-FE3E03D5CD0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A0139-8F0F-DDFB-1E35-E5C772D2DA6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8368,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D55D1-4346-41B5-813F-F8A3074E9C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C11B2C9-D974-44A0-9CA3-5FD718ECA9D7}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781B7951-AFBE-418B-A3AF-E0EAC0192B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ADA42-26E2-4051-97F8-2B862E26D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A0139-8F0F-DDFB-1E35-E5C772D2DA6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE809E4-42E7-25E4-578E-98A336B1A691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8368,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C11B2C9-D974-44A0-9CA3-5FD718ECA9D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C8238-0A6E-4900-BD12-0C2B59D4ABF7}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ADA42-26E2-4051-97F8-2B862E26D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0061155-2D87-471D-B390-F917DE58FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE809E4-42E7-25E4-578E-98A336B1A691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D5565-1FFD-B8DE-2D1E-21C888B06AE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8368,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C8238-0A6E-4900-BD12-0C2B59D4ABF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73201081-6A8A-44D6-83AF-940A7CE89B0C}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0061155-2D87-471D-B390-F917DE58FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E2A9CE-EB6D-44C3-A334-D0AA14B6F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D5565-1FFD-B8DE-2D1E-21C888B06AE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A299EE9C-6471-D00E-BDB5-C3A6CE21B253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8368,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73201081-6A8A-44D6-83AF-940A7CE89B0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09AA43-1547-424E-A8B5-0B33243351C2}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E2A9CE-EB6D-44C3-A334-D0AA14B6F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476597D8-B46A-4B41-AF6D-AE8A3AD1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A299EE9C-6471-D00E-BDB5-C3A6CE21B253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D5C985-85BF-D838-9280-5A45653C077C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8368,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09AA43-1547-424E-A8B5-0B33243351C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B324C93-372F-4F81-99A4-28AEA46B2E92}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476597D8-B46A-4B41-AF6D-AE8A3AD1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C36FA0-9882-46AA-BA0F-6F65D9744F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="TimePeriods" sheetId="3" r:id="rId3"/>
     <sheet name="System Settings" sheetId="4" r:id="rId4"/>
     <sheet name="Constants" sheetId="5" r:id="rId5"/>
-    <sheet name="grids" sheetId="7" r:id="rId6"/>
-    <sheet name="reporting options" sheetId="6" r:id="rId7"/>
+    <sheet name="geolocation" sheetId="8" r:id="rId6"/>
+    <sheet name="grids" sheetId="7" r:id="rId7"/>
+    <sheet name="reporting options" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="861">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -2142,13 +2143,493 @@
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~geolocation</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>p_CH1</t>
+  </si>
+  <si>
+    <t>p_CH11</t>
+  </si>
+  <si>
+    <t>p_CH12</t>
+  </si>
+  <si>
+    <t>p_CH13</t>
+  </si>
+  <si>
+    <t>p_CH14</t>
+  </si>
+  <si>
+    <t>p_CH15</t>
+  </si>
+  <si>
+    <t>p_CH16</t>
+  </si>
+  <si>
+    <t>p_CH17</t>
+  </si>
+  <si>
+    <t>p_CH18</t>
+  </si>
+  <si>
+    <t>p_CH19</t>
+  </si>
+  <si>
+    <t>p_CH2</t>
+  </si>
+  <si>
+    <t>p_CH20</t>
+  </si>
+  <si>
+    <t>p_CH21</t>
+  </si>
+  <si>
+    <t>p_CH22</t>
+  </si>
+  <si>
+    <t>p_CH23</t>
+  </si>
+  <si>
+    <t>p_CH24</t>
+  </si>
+  <si>
+    <t>p_CH25</t>
+  </si>
+  <si>
+    <t>p_CH26</t>
+  </si>
+  <si>
+    <t>p_CH27</t>
+  </si>
+  <si>
+    <t>p_CH28</t>
+  </si>
+  <si>
+    <t>p_CH29</t>
+  </si>
+  <si>
+    <t>p_CH3</t>
+  </si>
+  <si>
+    <t>p_CH30</t>
+  </si>
+  <si>
+    <t>p_CH31</t>
+  </si>
+  <si>
+    <t>p_CH32</t>
+  </si>
+  <si>
+    <t>p_CH33</t>
+  </si>
+  <si>
+    <t>p_CH34</t>
+  </si>
+  <si>
+    <t>p_CH35</t>
+  </si>
+  <si>
+    <t>p_CH36</t>
+  </si>
+  <si>
+    <t>p_CH37</t>
+  </si>
+  <si>
+    <t>p_CH38</t>
+  </si>
+  <si>
+    <t>p_CH39</t>
+  </si>
+  <si>
+    <t>p_CH4</t>
+  </si>
+  <si>
+    <t>p_CH40</t>
+  </si>
+  <si>
+    <t>p_CH41</t>
+  </si>
+  <si>
+    <t>p_CH42</t>
+  </si>
+  <si>
+    <t>p_CH43</t>
+  </si>
+  <si>
+    <t>p_CH44</t>
+  </si>
+  <si>
+    <t>p_CH45</t>
+  </si>
+  <si>
+    <t>p_CH46</t>
+  </si>
+  <si>
+    <t>p_CH47</t>
+  </si>
+  <si>
+    <t>p_CH48</t>
+  </si>
+  <si>
+    <t>p_CH49</t>
+  </si>
+  <si>
+    <t>p_CH5</t>
+  </si>
+  <si>
+    <t>p_CH50</t>
+  </si>
+  <si>
+    <t>p_CH51</t>
+  </si>
+  <si>
+    <t>p_CH52</t>
+  </si>
+  <si>
+    <t>p_CH53</t>
+  </si>
+  <si>
+    <t>p_CH56</t>
+  </si>
+  <si>
+    <t>p_CH57</t>
+  </si>
+  <si>
+    <t>p_CH58</t>
+  </si>
+  <si>
+    <t>p_CH59</t>
+  </si>
+  <si>
+    <t>p_CH6</t>
+  </si>
+  <si>
+    <t>p_CH60</t>
+  </si>
+  <si>
+    <t>p_CH7</t>
+  </si>
+  <si>
+    <t>p_CH9</t>
+  </si>
+  <si>
+    <t>p_r5378910</t>
+  </si>
+  <si>
+    <t>p_r7933294</t>
+  </si>
+  <si>
+    <t>p_r9310861</t>
+  </si>
+  <si>
+    <t>p_w100662075</t>
+  </si>
+  <si>
+    <t>p_w108257952</t>
+  </si>
+  <si>
+    <t>p_w1086214433</t>
+  </si>
+  <si>
+    <t>p_w109037817</t>
+  </si>
+  <si>
+    <t>p_w1092884227</t>
+  </si>
+  <si>
+    <t>p_w1105061707</t>
+  </si>
+  <si>
+    <t>p_w111162936</t>
+  </si>
+  <si>
+    <t>p_w11282314</t>
+  </si>
+  <si>
+    <t>p_w1208713169</t>
+  </si>
+  <si>
+    <t>p_w122720993</t>
+  </si>
+  <si>
+    <t>p_w127004407</t>
+  </si>
+  <si>
+    <t>p_w1284913429</t>
+  </si>
+  <si>
+    <t>p_w130198336</t>
+  </si>
+  <si>
+    <t>p_w132373704</t>
+  </si>
+  <si>
+    <t>p_w1327084723</t>
+  </si>
+  <si>
+    <t>p_w140873735</t>
+  </si>
+  <si>
+    <t>p_w146225999</t>
+  </si>
+  <si>
+    <t>p_w147557680</t>
+  </si>
+  <si>
+    <t>p_w147714395</t>
+  </si>
+  <si>
+    <t>p_w148015471</t>
+  </si>
+  <si>
+    <t>p_w159527493</t>
+  </si>
+  <si>
+    <t>p_w161853746</t>
+  </si>
+  <si>
+    <t>p_w165254212</t>
+  </si>
+  <si>
+    <t>p_w165513396</t>
+  </si>
+  <si>
+    <t>p_w177392130</t>
+  </si>
+  <si>
+    <t>p_w190819048</t>
+  </si>
+  <si>
+    <t>p_w192677427</t>
+  </si>
+  <si>
+    <t>p_w194258388</t>
+  </si>
+  <si>
+    <t>p_w207991759</t>
+  </si>
+  <si>
+    <t>p_w207993342</t>
+  </si>
+  <si>
+    <t>p_w208780268</t>
+  </si>
+  <si>
+    <t>p_w209324991</t>
+  </si>
+  <si>
+    <t>p_w210568055</t>
+  </si>
+  <si>
+    <t>p_w211907009</t>
+  </si>
+  <si>
+    <t>p_w212498548</t>
+  </si>
+  <si>
+    <t>p_w212722603</t>
+  </si>
+  <si>
+    <t>p_w228003081</t>
+  </si>
+  <si>
+    <t>p_w22899676</t>
+  </si>
+  <si>
+    <t>p_w232662311</t>
+  </si>
+  <si>
+    <t>p_w234983117</t>
+  </si>
+  <si>
+    <t>p_w236819191</t>
+  </si>
+  <si>
+    <t>p_w238138373</t>
+  </si>
+  <si>
+    <t>p_w239937062</t>
+  </si>
+  <si>
+    <t>p_w240575085</t>
+  </si>
+  <si>
+    <t>p_w240959264</t>
+  </si>
+  <si>
+    <t>p_w242269161</t>
+  </si>
+  <si>
+    <t>p_w260211728</t>
+  </si>
+  <si>
+    <t>p_w26166640</t>
+  </si>
+  <si>
+    <t>p_w26843160</t>
+  </si>
+  <si>
+    <t>p_w27107779</t>
+  </si>
+  <si>
+    <t>p_w27435934</t>
+  </si>
+  <si>
+    <t>p_w281799252</t>
+  </si>
+  <si>
+    <t>p_w281800404</t>
+  </si>
+  <si>
+    <t>p_w281803398</t>
+  </si>
+  <si>
+    <t>p_w281804158</t>
+  </si>
+  <si>
+    <t>p_w281809991</t>
+  </si>
+  <si>
+    <t>p_w281815404</t>
+  </si>
+  <si>
+    <t>p_w281822905</t>
+  </si>
+  <si>
+    <t>p_w30350721</t>
+  </si>
+  <si>
+    <t>p_w31308888</t>
+  </si>
+  <si>
+    <t>p_w33271433</t>
+  </si>
+  <si>
+    <t>p_w35002638</t>
+  </si>
+  <si>
+    <t>p_w35487135</t>
+  </si>
+  <si>
+    <t>p_w356292116</t>
+  </si>
+  <si>
+    <t>p_w35840165</t>
+  </si>
+  <si>
+    <t>p_w36348118</t>
+  </si>
+  <si>
+    <t>p_w364949845</t>
+  </si>
+  <si>
+    <t>p_w365556107</t>
+  </si>
+  <si>
+    <t>p_w391576135</t>
+  </si>
+  <si>
+    <t>p_w391577741</t>
+  </si>
+  <si>
+    <t>p_w397960460</t>
+  </si>
+  <si>
+    <t>p_w402053379</t>
+  </si>
+  <si>
+    <t>p_w402055336</t>
+  </si>
+  <si>
+    <t>p_w431234146</t>
+  </si>
+  <si>
+    <t>p_w44496892</t>
+  </si>
+  <si>
+    <t>p_w455120191</t>
+  </si>
+  <si>
+    <t>p_w50319857</t>
+  </si>
+  <si>
+    <t>p_w50561341</t>
+  </si>
+  <si>
+    <t>p_w52738225</t>
+  </si>
+  <si>
+    <t>p_w55695765</t>
+  </si>
+  <si>
+    <t>p_w55698557</t>
+  </si>
+  <si>
+    <t>p_w71500123</t>
+  </si>
+  <si>
+    <t>p_w758315582</t>
+  </si>
+  <si>
+    <t>p_w758943072</t>
+  </si>
+  <si>
+    <t>p_w802058337</t>
+  </si>
+  <si>
+    <t>p_w83861269</t>
+  </si>
+  <si>
+    <t>p_w87281514</t>
+  </si>
+  <si>
+    <t>p_w88901626</t>
+  </si>
+  <si>
+    <t>p_w89405664</t>
+  </si>
+  <si>
+    <t>p_w89977424</t>
+  </si>
+  <si>
+    <t>p_w92798668</t>
+  </si>
+  <si>
+    <t>p_w92873516</t>
+  </si>
+  <si>
+    <t>p_w936521586</t>
+  </si>
+  <si>
+    <t>p_w969811258</t>
+  </si>
+  <si>
+    <t>p_w969819301</t>
+  </si>
+  <si>
+    <t>p_w97941869</t>
+  </si>
+  <si>
+    <t>p_w98648381</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -2164,6 +2645,7 @@
     <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="61">
     <font>
@@ -3659,7 +4141,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -3683,13 +4165,18 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="47" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="57" fillId="49" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="57" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -4161,7 +4648,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D5C985-85BF-D838-9280-5A45653C077C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6632E1F-332E-1C99-A2BA-E3B8B744B9CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,6 +4684,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55059AF0-E7FA-DD6F-A3C8-BD6C01934C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8368,10 +8910,1777 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B324C93-372F-4F81-99A4-28AEA46B2E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B65E10-9FB8-4782-BACE-EF1A50609C04}">
+  <dimension ref="A1:H159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1">
+      <c r="B2" s="21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B3" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="C4" s="28">
+        <v>7.9712762161849238</v>
+      </c>
+      <c r="D4" s="28">
+        <v>47.544890908098111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="30">
+        <v>7.7779031530618461</v>
+      </c>
+      <c r="D5" s="30">
+        <v>47.304724827935445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="28">
+        <v>8.98591839231268</v>
+      </c>
+      <c r="D6" s="28">
+        <v>47.190849773284448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="30">
+        <v>8.9144143549561985</v>
+      </c>
+      <c r="D7" s="30">
+        <v>47.178826311182746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" s="28">
+        <v>7.6486786287370201</v>
+      </c>
+      <c r="D8" s="28">
+        <v>47.092480331016233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="C9" s="30">
+        <v>8.2262357999999978</v>
+      </c>
+      <c r="D9" s="30">
+        <v>47.075251392097968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="C10" s="28">
+        <v>9.1028854000000017</v>
+      </c>
+      <c r="D10" s="28">
+        <v>46.998666392047838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" s="30">
+        <v>9.4806532222174642</v>
+      </c>
+      <c r="D11" s="30">
+        <v>46.948264900775179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" s="28">
+        <v>8.9862021733683619</v>
+      </c>
+      <c r="D12" s="28">
+        <v>46.881453574552602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8.0932617000000064</v>
+      </c>
+      <c r="D13" s="30">
+        <v>46.810115191923131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="C14" s="28">
+        <v>7.9955895999999997</v>
+      </c>
+      <c r="D14" s="28">
+        <v>47.539986892396122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="C15" s="30">
+        <v>8.1290422999999965</v>
+      </c>
+      <c r="D15" s="30">
+        <v>46.788975991909084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="28">
+        <v>9.4018789000000034</v>
+      </c>
+      <c r="D16" s="28">
+        <v>46.786285291907262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" s="30">
+        <v>9.5632429943814046</v>
+      </c>
+      <c r="D17" s="30">
+        <v>46.664480125407628</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="28">
+        <v>8.5931628753479483</v>
+      </c>
+      <c r="D18" s="28">
+        <v>46.655434346966651</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C19" s="30">
+        <v>8.5784506999999994</v>
+      </c>
+      <c r="D19" s="30">
+        <v>46.649952591815854</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" s="28">
+        <v>8.3005733260132732</v>
+      </c>
+      <c r="D20" s="28">
+        <v>46.644906911551253</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="30">
+        <v>8.5532759599539414</v>
+      </c>
+      <c r="D21" s="30">
+        <v>46.623454943499027</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" s="28">
+        <v>8.3074651919389026</v>
+      </c>
+      <c r="D22" s="28">
+        <v>46.618279365377013</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" s="30">
+        <v>8.5613045000000074</v>
+      </c>
+      <c r="D23" s="30">
+        <v>46.612461191790615</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="C24" s="28">
+        <v>9.6114226583534901</v>
+      </c>
+      <c r="D24" s="28">
+        <v>46.581937628506168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="C25" s="30">
+        <v>8.7203907336648729</v>
+      </c>
+      <c r="D25" s="30">
+        <v>47.446856248318333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="C26" s="28">
+        <v>9.9176659999999917</v>
+      </c>
+      <c r="D26" s="28">
+        <v>46.568629391760908</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="C27" s="30">
+        <v>6.5602429000000066</v>
+      </c>
+      <c r="D27" s="30">
+        <v>46.56229679175663</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="C28" s="28">
+        <v>8.9442773999999901</v>
+      </c>
+      <c r="D28" s="28">
+        <v>46.534677991737887</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="C29" s="30">
+        <v>9.8856431000000047</v>
+      </c>
+      <c r="D29" s="30">
+        <v>46.526125791732063</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C30" s="28">
+        <v>8.3151001429309765</v>
+      </c>
+      <c r="D30" s="28">
+        <v>46.497898379860622</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="C31" s="30">
+        <v>8.4733173999999973</v>
+      </c>
+      <c r="D31" s="30">
+        <v>46.488751691706611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="C32" s="28">
+        <v>8.345911817931027</v>
+      </c>
+      <c r="D32" s="28">
+        <v>46.484022953389079</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="C33" s="30">
+        <v>9.9156705000000098</v>
+      </c>
+      <c r="D33" s="30">
+        <v>46.48232639170228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="C34" s="28">
+        <v>8.4126624000000021</v>
+      </c>
+      <c r="D34" s="28">
+        <v>46.477333091698902</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="C35" s="30">
+        <v>8.3779117000000021</v>
+      </c>
+      <c r="D35" s="30">
+        <v>46.473546691696313</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="C36" s="28">
+        <v>9.4308717000000009</v>
+      </c>
+      <c r="D36" s="28">
+        <v>47.434850092329576</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="C37" s="30">
+        <v>8.4521007999999931</v>
+      </c>
+      <c r="D37" s="30">
+        <v>46.461142191687813</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C38" s="28">
+        <v>9.2172236999999928</v>
+      </c>
+      <c r="D38" s="28">
+        <v>46.42086779166025</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39" s="30">
+        <v>8.6464327000000054</v>
+      </c>
+      <c r="D39" s="30">
+        <v>46.410782691653388</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="C40" s="28">
+        <v>7.2856905999999926</v>
+      </c>
+      <c r="D40" s="28">
+        <v>46.379313191631766</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41" s="30">
+        <v>7.2952704999999991</v>
+      </c>
+      <c r="D41" s="30">
+        <v>46.352076391613046</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="C42" s="28">
+        <v>9.515274700000008</v>
+      </c>
+      <c r="D42" s="28">
+        <v>46.335742191601824</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="C43" s="30">
+        <v>8.0099601184858678</v>
+      </c>
+      <c r="D43" s="30">
+        <v>46.332593945141092</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="C44" s="28">
+        <v>7.9090832000000049</v>
+      </c>
+      <c r="D44" s="28">
+        <v>46.300225691577296</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C45" s="30">
+        <v>6.8250681999999925</v>
+      </c>
+      <c r="D45" s="30">
+        <v>46.265255891553082</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="C46" s="28">
+        <v>6.8503240000000041</v>
+      </c>
+      <c r="D46" s="28">
+        <v>46.258617991548483</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="29" t="s">
+        <v>748</v>
+      </c>
+      <c r="C47" s="30">
+        <v>8.3560802000000063</v>
+      </c>
+      <c r="D47" s="30">
+        <v>47.417551492318573</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="C48" s="28">
+        <v>9.0158809000000044</v>
+      </c>
+      <c r="D48" s="28">
+        <v>46.242902191537631</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="C49" s="30">
+        <v>6.0514922014978874</v>
+      </c>
+      <c r="D49" s="30">
+        <v>46.238390468466378</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="C50" s="28">
+        <v>6.1174054082285867</v>
+      </c>
+      <c r="D50" s="28">
+        <v>46.235914155009169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="29" t="s">
+        <v>752</v>
+      </c>
+      <c r="C51" s="30">
+        <v>6.9826246999999961</v>
+      </c>
+      <c r="D51" s="30">
+        <v>46.224393391524778</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" s="28">
+        <v>8.8493960000010343</v>
+      </c>
+      <c r="D52" s="28">
+        <v>46.194148141506382</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="C53" s="30">
+        <v>5.994340131372339</v>
+      </c>
+      <c r="D53" s="30">
+        <v>46.186124268919009</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="C54" s="28">
+        <v>8.8978103000914679</v>
+      </c>
+      <c r="D54" s="28">
+        <v>46.173823141643673</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="C55" s="30">
+        <v>8.718542699932085</v>
+      </c>
+      <c r="D55" s="30">
+        <v>46.132986991479271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="C56" s="28">
+        <v>8.7320753615603035</v>
+      </c>
+      <c r="D56" s="28">
+        <v>47.388461918063442</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="C57" s="30">
+        <v>7.0694412517776462</v>
+      </c>
+      <c r="D57" s="30">
+        <v>46.119367580527111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="C58" s="28">
+        <v>8.0436238635106729</v>
+      </c>
+      <c r="D58" s="28">
+        <v>47.346106146249483</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="C59" s="30">
+        <v>9.5426184000000038</v>
+      </c>
+      <c r="D59" s="30">
+        <v>47.328602392261772</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="C60" s="28">
+        <v>7.1904948515457114</v>
+      </c>
+      <c r="D60" s="28">
+        <v>46.974388444635309</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="C61" s="30">
+        <v>10.332156238823757</v>
+      </c>
+      <c r="D61" s="30">
+        <v>46.804956344676071</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="C62" s="28">
+        <v>8.5715564719984449</v>
+      </c>
+      <c r="D62" s="28">
+        <v>47.412318641275661</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="C63" s="30">
+        <v>8.7674518660095799</v>
+      </c>
+      <c r="D63" s="30">
+        <v>46.675294830039618</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="C64" s="28">
+        <v>8.4332838059847646</v>
+      </c>
+      <c r="D64" s="28">
+        <v>47.271158280917277</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="C65" s="30">
+        <v>8.3231337258397549</v>
+      </c>
+      <c r="D65" s="30">
+        <v>46.592025463687065</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="C66" s="28">
+        <v>7.6725301685729344</v>
+      </c>
+      <c r="D66" s="28">
+        <v>47.520027177779937</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="C67" s="30">
+        <v>8.5287472013709298</v>
+      </c>
+      <c r="D67" s="30">
+        <v>46.410514012428273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="C68" s="28">
+        <v>7.282299486401616</v>
+      </c>
+      <c r="D68" s="28">
+        <v>46.972086567773282</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C69" s="30">
+        <v>6.6139061630111931</v>
+      </c>
+      <c r="D69" s="30">
+        <v>46.557357312705733</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="C70" s="28">
+        <v>8.6247814788577859</v>
+      </c>
+      <c r="D70" s="28">
+        <v>47.378758073068163</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C71" s="30">
+        <v>9.4208498140633523</v>
+      </c>
+      <c r="D71" s="30">
+        <v>46.590136747583571</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="C72" s="28">
+        <v>7.1256953875579114</v>
+      </c>
+      <c r="D72" s="28">
+        <v>46.766603972636261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="C73" s="30">
+        <v>7.2588732640160751</v>
+      </c>
+      <c r="D73" s="30">
+        <v>47.337522798960869</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="C74" s="28">
+        <v>8.2162002170923429</v>
+      </c>
+      <c r="D74" s="28">
+        <v>47.436744661689957</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C75" s="30">
+        <v>8.58387184139076</v>
+      </c>
+      <c r="D75" s="30">
+        <v>46.667290772141591</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="C76" s="28">
+        <v>6.1959931237841124</v>
+      </c>
+      <c r="D76" s="28">
+        <v>46.366800843099547</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="C77" s="30">
+        <v>8.5954343817427024</v>
+      </c>
+      <c r="D77" s="30">
+        <v>46.35035364659204</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="C78" s="28">
+        <v>8.6679070270868852</v>
+      </c>
+      <c r="D78" s="28">
+        <v>46.770135591197366</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="C79" s="30">
+        <v>8.1207667742378131</v>
+      </c>
+      <c r="D79" s="30">
+        <v>47.185453772379887</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C80" s="28">
+        <v>7.6158921048685695</v>
+      </c>
+      <c r="D80" s="28">
+        <v>47.23246302223221</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="C81" s="30">
+        <v>8.6524389852250962</v>
+      </c>
+      <c r="D81" s="30">
+        <v>47.466610199741339</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="C82" s="28">
+        <v>8.5552286743996788</v>
+      </c>
+      <c r="D82" s="28">
+        <v>47.422793373651899</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="C83" s="30">
+        <v>8.1738143462569646</v>
+      </c>
+      <c r="D83" s="30">
+        <v>46.822356911553562</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="C84" s="28">
+        <v>7.1526297591744381</v>
+      </c>
+      <c r="D84" s="28">
+        <v>46.949503324895758</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="C85" s="30">
+        <v>7.5753719705379048</v>
+      </c>
+      <c r="D85" s="30">
+        <v>47.174970614196077</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="C86" s="28">
+        <v>8.2183855607953387</v>
+      </c>
+      <c r="D86" s="28">
+        <v>47.426405935677117</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C87" s="30">
+        <v>6.0263528951053331</v>
+      </c>
+      <c r="D87" s="30">
+        <v>46.191060824589286</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="C88" s="28">
+        <v>7.9466109226610806</v>
+      </c>
+      <c r="D88" s="28">
+        <v>47.317528275969032</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C89" s="30">
+        <v>8.9741608765490568</v>
+      </c>
+      <c r="D89" s="30">
+        <v>47.220028502558506</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="C90" s="28">
+        <v>7.1119095241485661</v>
+      </c>
+      <c r="D90" s="28">
+        <v>46.611103814178406</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="C91" s="30">
+        <v>10.062555293517526</v>
+      </c>
+      <c r="D91" s="30">
+        <v>46.34885054673623</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="C92" s="28">
+        <v>9.4671012537392354</v>
+      </c>
+      <c r="D92" s="28">
+        <v>46.704671298611736</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="C93" s="30">
+        <v>9.6896555979430463</v>
+      </c>
+      <c r="D93" s="30">
+        <v>46.669437648312751</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="C94" s="28">
+        <v>7.8586620471824489</v>
+      </c>
+      <c r="D94" s="28">
+        <v>46.670304209093366</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="C95" s="30">
+        <v>9.0427987835648143</v>
+      </c>
+      <c r="D95" s="30">
+        <v>46.751315983062611</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="C96" s="28">
+        <v>9.5391741699870458</v>
+      </c>
+      <c r="D96" s="28">
+        <v>46.977408013673561</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C97" s="30">
+        <v>9.4339157546528778</v>
+      </c>
+      <c r="D97" s="30">
+        <v>46.530313679899571</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="C98" s="28">
+        <v>7.5577983541354428</v>
+      </c>
+      <c r="D98" s="28">
+        <v>46.287036690944227</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C99" s="30">
+        <v>7.956552648739204</v>
+      </c>
+      <c r="D99" s="30">
+        <v>46.083826692351948</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="C100" s="28">
+        <v>8.705750623710184</v>
+      </c>
+      <c r="D100" s="28">
+        <v>47.480988674223049</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="C101" s="30">
+        <v>6.5540699286344619</v>
+      </c>
+      <c r="D101" s="30">
+        <v>46.756029375970002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="C102" s="28">
+        <v>7.2493006931109596</v>
+      </c>
+      <c r="D102" s="28">
+        <v>46.185370247486951</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="C103" s="30">
+        <v>7.8746708803832934</v>
+      </c>
+      <c r="D103" s="30">
+        <v>46.23792888408876</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="C104" s="28">
+        <v>6.9015998074716354</v>
+      </c>
+      <c r="D104" s="28">
+        <v>46.066166211545358</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C105" s="30">
+        <v>6.1334444282890637</v>
+      </c>
+      <c r="D105" s="30">
+        <v>46.249132718394094</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="C106" s="28">
+        <v>8.7565727921394849</v>
+      </c>
+      <c r="D106" s="28">
+        <v>47.330633116676246</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="C107" s="30">
+        <v>8.2346739749028277</v>
+      </c>
+      <c r="D107" s="30">
+        <v>46.702305741170029</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="C108" s="28">
+        <v>7.9702987999010633</v>
+      </c>
+      <c r="D108" s="28">
+        <v>47.111263596162431</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="C109" s="30">
+        <v>6.949838605733583</v>
+      </c>
+      <c r="D109" s="30">
+        <v>46.050896100089638</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="C110" s="28">
+        <v>7.5141567559463658</v>
+      </c>
+      <c r="D110" s="28">
+        <v>46.778607821978291</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="C111" s="30">
+        <v>9.0926775269382958</v>
+      </c>
+      <c r="D111" s="30">
+        <v>47.559810348453667</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="C112" s="28">
+        <v>8.4736401094130844</v>
+      </c>
+      <c r="D112" s="28">
+        <v>47.573740583075264</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="C113" s="30">
+        <v>7.5770135285257956</v>
+      </c>
+      <c r="D113" s="30">
+        <v>47.503332863504447</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="C114" s="28">
+        <v>8.5025953004376724</v>
+      </c>
+      <c r="D114" s="28">
+        <v>47.192525806627415</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="C115" s="30">
+        <v>8.7492453882474219</v>
+      </c>
+      <c r="D115" s="30">
+        <v>46.197778440184173</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="C116" s="28">
+        <v>8.9793979537338995</v>
+      </c>
+      <c r="D116" s="28">
+        <v>46.333583205772456</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C117" s="30">
+        <v>9.2127758729274198</v>
+      </c>
+      <c r="D117" s="30">
+        <v>46.340257020596965</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="C118" s="28">
+        <v>8.9315918186612357</v>
+      </c>
+      <c r="D118" s="28">
+        <v>47.497542653552287</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="C119" s="30">
+        <v>8.9122525816708951</v>
+      </c>
+      <c r="D119" s="30">
+        <v>46.162021135169752</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="C120" s="28">
+        <v>8.6126265598333376</v>
+      </c>
+      <c r="D120" s="28">
+        <v>46.411435336637261</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C121" s="30">
+        <v>7.862020493690677</v>
+      </c>
+      <c r="D121" s="30">
+        <v>47.472181885969455</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="C122" s="28">
+        <v>8.4518037652382549</v>
+      </c>
+      <c r="D122" s="28">
+        <v>47.452839734944206</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C123" s="30">
+        <v>8.2848809002281207</v>
+      </c>
+      <c r="D123" s="30">
+        <v>47.378105927066514</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="C124" s="28">
+        <v>8.3367437842075223</v>
+      </c>
+      <c r="D124" s="28">
+        <v>47.115092797975542</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C125" s="30">
+        <v>8.9205901102955742</v>
+      </c>
+      <c r="D125" s="30">
+        <v>46.028484492512405</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="C126" s="28">
+        <v>7.9731469676031752</v>
+      </c>
+      <c r="D126" s="28">
+        <v>47.365499855192191</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="C127" s="30">
+        <v>8.1833885380782423</v>
+      </c>
+      <c r="D127" s="30">
+        <v>47.598960217274261</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="C128" s="28">
+        <v>9.4186944777386383</v>
+      </c>
+      <c r="D128" s="28">
+        <v>46.765219065594323</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="C129" s="30">
+        <v>8.1308582732979851</v>
+      </c>
+      <c r="D129" s="30">
+        <v>46.395764934452949</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="C130" s="28">
+        <v>9.1952002264269037</v>
+      </c>
+      <c r="D130" s="28">
+        <v>46.774712160461192</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="C131" s="30">
+        <v>8.1183564066559004</v>
+      </c>
+      <c r="D131" s="30">
+        <v>46.167302808465202</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="C132" s="28">
+        <v>8.0701490996033112</v>
+      </c>
+      <c r="D132" s="28">
+        <v>46.188234494031683</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="C133" s="30">
+        <v>7.7524068439336924</v>
+      </c>
+      <c r="D133" s="30">
+        <v>47.539015634556947</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="C134" s="28">
+        <v>7.7918813512983336</v>
+      </c>
+      <c r="D134" s="28">
+        <v>47.154942264585237</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C135" s="30">
+        <v>7.2732837108404942</v>
+      </c>
+      <c r="D135" s="30">
+        <v>46.491577066054226</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="C136" s="28">
+        <v>8.5970130861268519</v>
+      </c>
+      <c r="D136" s="28">
+        <v>46.526902581268999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="C137" s="30">
+        <v>6.5707150506742265</v>
+      </c>
+      <c r="D137" s="30">
+        <v>46.546200095956507</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="C138" s="28">
+        <v>9.5558757704346071</v>
+      </c>
+      <c r="D138" s="28">
+        <v>47.302672807623779</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="C139" s="30">
+        <v>8.0505862642923702</v>
+      </c>
+      <c r="D139" s="30">
+        <v>47.549929778349131</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="C140" s="28">
+        <v>8.6975363672935035</v>
+      </c>
+      <c r="D140" s="28">
+        <v>47.534182026511104</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="C141" s="30">
+        <v>8.6845093233496922</v>
+      </c>
+      <c r="D141" s="30">
+        <v>47.186874616216762</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="C142" s="28">
+        <v>6.4691836479843738</v>
+      </c>
+      <c r="D142" s="28">
+        <v>46.541607589484336</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="C143" s="30">
+        <v>6.9744475162681168</v>
+      </c>
+      <c r="D143" s="30">
+        <v>46.266170983209811</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="C144" s="28">
+        <v>9.378873087203484</v>
+      </c>
+      <c r="D144" s="28">
+        <v>46.811139511097466</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="C145" s="30">
+        <v>7.6548635065014201</v>
+      </c>
+      <c r="D145" s="30">
+        <v>46.680751374315896</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="C146" s="28">
+        <v>7.3084509725129267</v>
+      </c>
+      <c r="D146" s="28">
+        <v>46.0317529216154</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="C147" s="30">
+        <v>7.2094009496203837</v>
+      </c>
+      <c r="D147" s="30">
+        <v>46.15852172448291</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="C148" s="28">
+        <v>9.5780970318362559</v>
+      </c>
+      <c r="D148" s="28">
+        <v>47.339117940297619</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="C149" s="30">
+        <v>8.7754632624143429</v>
+      </c>
+      <c r="D149" s="30">
+        <v>47.657573790258297</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="C150" s="28">
+        <v>7.8435782904311289</v>
+      </c>
+      <c r="D150" s="28">
+        <v>47.585912287118212</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="C151" s="30">
+        <v>8.105761472055045</v>
+      </c>
+      <c r="D151" s="30">
+        <v>47.406318762945403</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="C152" s="28">
+        <v>8.3803937353034943</v>
+      </c>
+      <c r="D152" s="28">
+        <v>47.427363293638969</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="C153" s="30">
+        <v>9.3025128506927892</v>
+      </c>
+      <c r="D153" s="30">
+        <v>47.397732455842615</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C154" s="28">
+        <v>9.4326555268370722</v>
+      </c>
+      <c r="D154" s="28">
+        <v>47.481915935925542</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="C155" s="30">
+        <v>7.0612643589312309</v>
+      </c>
+      <c r="D155" s="30">
+        <v>46.110634293306326</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C156" s="28">
+        <v>8.8374874894540767</v>
+      </c>
+      <c r="D156" s="28">
+        <v>46.44140479554256</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="C157" s="30">
+        <v>8.0409180183520075</v>
+      </c>
+      <c r="D157" s="30">
+        <v>46.350910363932599</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="C158" s="28">
+        <v>8.2563745533433206</v>
+      </c>
+      <c r="D158" s="28">
+        <v>47.058633982952401</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="C159" s="30">
+        <v>8.2320077689227631</v>
+      </c>
+      <c r="D159" s="30">
+        <v>47.555988773696292</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5898B38-ACE4-4465-811B-CFC0CDFAE0AE}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -8384,4481 +10693,4481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="14.65" thickBot="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="E5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="E7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="E8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="E10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="E11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="E12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="E14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="E16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="E17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="25" t="s">
+      <c r="E18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="E19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="E20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" s="24" t="s">
+      <c r="E21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="E22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="24" t="s">
+      <c r="E23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="E24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H25" s="24" t="s">
+      <c r="E25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H27" s="24" t="s">
+      <c r="E27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H28" s="25" t="s">
+      <c r="E28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H29" s="24" t="s">
+      <c r="E29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H30" s="25" t="s">
+      <c r="E30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H31" s="24" t="s">
+      <c r="E31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H32" s="25" t="s">
+      <c r="E32" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H33" s="24" t="s">
+      <c r="E33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H34" s="25" t="s">
+      <c r="E34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H35" s="24" t="s">
+      <c r="E35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="25" t="s">
+      <c r="E36" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H37" s="24" t="s">
+      <c r="E37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H38" s="25" t="s">
+      <c r="E38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H38" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" s="24" t="s">
+      <c r="E39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="25" t="s">
+      <c r="E40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="E41" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H42" s="25" t="s">
+      <c r="E42" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H43" s="24" t="s">
+      <c r="E43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H44" s="25" t="s">
+      <c r="E44" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H45" s="24" t="s">
+      <c r="E45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H46" s="25" t="s">
+      <c r="E46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="E47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="E48" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H49" s="24" t="s">
+      <c r="E49" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H50" s="25" t="s">
+      <c r="E50" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="24" t="s">
+      <c r="B51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="24" t="s">
+      <c r="E51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H52" s="25" t="s">
+      <c r="E52" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H53" s="24" t="s">
+      <c r="E53" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H54" s="25" t="s">
+      <c r="E54" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H55" s="24" t="s">
+      <c r="E55" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H56" s="25" t="s">
+      <c r="E56" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H56" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H57" s="24" t="s">
+      <c r="E57" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H58" s="25" t="s">
+      <c r="E58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H58" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="E59" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H59" s="24" t="s">
+      <c r="E59" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H59" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H60" s="25" t="s">
+      <c r="E60" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E61" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H61" s="24" t="s">
+      <c r="E61" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H62" s="25" t="s">
+      <c r="E62" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="24" t="s">
+      <c r="B63" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H63" s="24" t="s">
+      <c r="E63" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H64" s="25" t="s">
+      <c r="E64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H64" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="E65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H65" s="24" t="s">
+      <c r="E65" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H66" s="25" t="s">
+      <c r="E66" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H67" s="24" t="s">
+      <c r="E67" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H68" s="25" t="s">
+      <c r="E68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E69" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H69" s="24" t="s">
+      <c r="E69" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H70" s="25" t="s">
+      <c r="E70" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H71" s="24" t="s">
+      <c r="E71" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H71" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="E72" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H72" s="25" t="s">
+      <c r="E72" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H72" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="E73" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H73" s="24" t="s">
+      <c r="E73" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H74" s="25" t="s">
+      <c r="E74" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="24" t="s">
+      <c r="B75" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="E75" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H75" s="24" t="s">
+      <c r="E75" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H75" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H76" s="25" t="s">
+      <c r="E76" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H76" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="E77" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H77" s="24" t="s">
+      <c r="E77" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H77" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="E78" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H78" s="25" t="s">
+      <c r="E78" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="24" t="s">
+      <c r="B79" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="E79" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H79" s="24" t="s">
+      <c r="E79" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H79" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="E80" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H80" s="25" t="s">
+      <c r="E80" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H80" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="E81" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H81" s="24" t="s">
+      <c r="E81" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H81" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H82" s="25" t="s">
+      <c r="E82" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H82" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="24" t="s">
+      <c r="B83" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="E83" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H83" s="24" t="s">
+      <c r="E83" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H84" s="25" t="s">
+      <c r="E84" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="E85" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H85" s="24" t="s">
+      <c r="E85" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H85" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="E86" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H86" s="25" t="s">
+      <c r="E86" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H86" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="E87" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H87" s="24" t="s">
+      <c r="E87" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H87" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="E88" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H88" s="25" t="s">
+      <c r="E88" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H88" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="24" t="s">
+      <c r="B89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="E89" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H89" s="24" t="s">
+      <c r="E89" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H89" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="E90" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H90" s="25" t="s">
+      <c r="E90" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H90" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="24" t="s">
+      <c r="B91" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="E91" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H91" s="24" t="s">
+      <c r="E91" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H91" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="25" t="s">
+      <c r="B92" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="E92" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H92" s="25" t="s">
+      <c r="E92" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H92" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="24" t="s">
+      <c r="B93" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="E93" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H93" s="24" t="s">
+      <c r="E93" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="25" t="s">
+      <c r="B94" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="E94" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H94" s="25" t="s">
+      <c r="E94" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H94" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
+      <c r="B95" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="E95" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H95" s="24" t="s">
+      <c r="E95" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H95" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="E96" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H96" s="25" t="s">
+      <c r="E96" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H96" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="24" t="s">
+      <c r="B97" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H97" s="24" t="s">
+      <c r="E97" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H97" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="E98" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H98" s="25" t="s">
+      <c r="E98" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H98" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="24" t="s">
+      <c r="B99" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="E99" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H99" s="24" t="s">
+      <c r="E99" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H99" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="25" t="s">
+      <c r="B100" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="E100" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H100" s="25" t="s">
+      <c r="E100" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H100" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="24" t="s">
+      <c r="B101" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E101" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H101" s="24" t="s">
+      <c r="E101" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H101" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="E102" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H102" s="25" t="s">
+      <c r="E102" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H102" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="24" t="s">
+      <c r="B103" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="E103" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H103" s="24" t="s">
+      <c r="E103" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H103" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="E104" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H104" s="25" t="s">
+      <c r="E104" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H104" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="24" t="s">
+      <c r="B105" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E105" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H105" s="24" t="s">
+      <c r="E105" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H105" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="25" t="s">
+      <c r="B106" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="E106" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H106" s="25" t="s">
+      <c r="E106" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H106" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="24" t="s">
+      <c r="B107" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="E107" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H107" s="24" t="s">
+      <c r="E107" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H107" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="E108" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H108" s="25" t="s">
+      <c r="E108" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H108" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="24" t="s">
+      <c r="B109" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="E109" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H109" s="24" t="s">
+      <c r="E109" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H109" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="25" t="s">
+      <c r="B110" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="E110" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H110" s="25" t="s">
+      <c r="E110" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H110" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="24" t="s">
+      <c r="B111" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="E111" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H111" s="24" t="s">
+      <c r="E111" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H111" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="25" t="s">
+      <c r="B112" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="E112" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H112" s="25" t="s">
+      <c r="E112" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H112" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="113" spans="2:8">
-      <c r="B113" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="24" t="s">
+      <c r="B113" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="E113" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G113" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H113" s="24" t="s">
+      <c r="E113" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H113" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="114" spans="2:8">
-      <c r="B114" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="25" t="s">
+      <c r="B114" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="E114" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H114" s="25" t="s">
+      <c r="E114" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H114" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="24" t="s">
+      <c r="B115" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="E115" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H115" s="24" t="s">
+      <c r="E115" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H115" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="116" spans="2:8">
-      <c r="B116" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="25" t="s">
+      <c r="B116" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="E116" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H116" s="25" t="s">
+      <c r="E116" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H116" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="117" spans="2:8">
-      <c r="B117" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="24" t="s">
+      <c r="B117" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="E117" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H117" s="24" t="s">
+      <c r="E117" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H117" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="118" spans="2:8">
-      <c r="B118" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="25" t="s">
+      <c r="B118" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="E118" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H118" s="25" t="s">
+      <c r="E118" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H118" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="24" t="s">
+      <c r="B119" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="E119" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H119" s="24" t="s">
+      <c r="E119" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H119" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="120" spans="2:8">
-      <c r="B120" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="25" t="s">
+      <c r="B120" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="E120" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H120" s="25" t="s">
+      <c r="E120" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H120" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="121" spans="2:8">
-      <c r="B121" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="24" t="s">
+      <c r="B121" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="E121" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H121" s="24" t="s">
+      <c r="E121" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H121" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="122" spans="2:8">
-      <c r="B122" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="25" t="s">
+      <c r="B122" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="E122" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H122" s="25" t="s">
+      <c r="E122" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H122" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="24" t="s">
+      <c r="B123" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="E123" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H123" s="24" t="s">
+      <c r="E123" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H123" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="124" spans="2:8">
-      <c r="B124" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="25" t="s">
+      <c r="B124" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H124" s="25" t="s">
+      <c r="E124" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H124" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="125" spans="2:8">
-      <c r="B125" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="24" t="s">
+      <c r="B125" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="E125" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H125" s="24" t="s">
+      <c r="E125" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:8">
-      <c r="B126" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="25" t="s">
+      <c r="B126" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H126" s="25" t="s">
+      <c r="E126" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H126" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="127" spans="2:8">
-      <c r="B127" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="24" t="s">
+      <c r="B127" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="E127" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H127" s="24" t="s">
+      <c r="E127" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H127" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="128" spans="2:8">
-      <c r="B128" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="25" t="s">
+      <c r="B128" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="E128" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H128" s="25" t="s">
+      <c r="E128" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H128" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="24" t="s">
+      <c r="B129" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="E129" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H129" s="24" t="s">
+      <c r="E129" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H129" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="25" t="s">
+      <c r="B130" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="E130" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H130" s="25" t="s">
+      <c r="E130" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H130" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="131" spans="2:8">
-      <c r="B131" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="24" t="s">
+      <c r="B131" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="E131" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H131" s="24" t="s">
+      <c r="E131" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H131" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="132" spans="2:8">
-      <c r="B132" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="25" t="s">
+      <c r="B132" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="E132" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H132" s="25" t="s">
+      <c r="E132" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H132" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="133" spans="2:8">
-      <c r="B133" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="24" t="s">
+      <c r="B133" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="E133" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H133" s="24" t="s">
+      <c r="E133" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H133" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="25" t="s">
+      <c r="B134" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="E134" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H134" s="25" t="s">
+      <c r="E134" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H134" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="24" t="s">
+      <c r="B135" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="D135" s="24" t="s">
+      <c r="D135" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="E135" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H135" s="24" t="s">
+      <c r="E135" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H135" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="25" t="s">
+      <c r="B136" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="E136" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H136" s="25" t="s">
+      <c r="E136" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H136" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="24" t="s">
+      <c r="B137" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="D137" s="24" t="s">
+      <c r="D137" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="E137" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H137" s="24" t="s">
+      <c r="E137" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H137" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="25" t="s">
+      <c r="B138" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="E138" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H138" s="25" t="s">
+      <c r="E138" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H138" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="139" spans="2:8">
-      <c r="B139" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="24" t="s">
+      <c r="B139" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E139" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H139" s="24" t="s">
+      <c r="E139" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H139" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="25" t="s">
+      <c r="B140" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="E140" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H140" s="25" t="s">
+      <c r="E140" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H140" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="24" t="s">
+      <c r="B141" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="E141" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H141" s="24" t="s">
+      <c r="E141" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H141" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="142" spans="2:8">
-      <c r="B142" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="25" t="s">
+      <c r="B142" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="D142" s="25" t="s">
+      <c r="D142" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="E142" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H142" s="25" t="s">
+      <c r="E142" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H142" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="143" spans="2:8">
-      <c r="B143" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="24" t="s">
+      <c r="B143" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="E143" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H143" s="24" t="s">
+      <c r="E143" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H143" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="144" spans="2:8">
-      <c r="B144" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="25" t="s">
+      <c r="B144" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="E144" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H144" s="25" t="s">
+      <c r="E144" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H144" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="145" spans="2:8">
-      <c r="B145" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="24" t="s">
+      <c r="B145" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="E145" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H145" s="24" t="s">
+      <c r="E145" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H145" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="25" t="s">
+      <c r="B146" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="E146" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H146" s="25" t="s">
+      <c r="E146" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H146" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="24" t="s">
+      <c r="B147" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="E147" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H147" s="24" t="s">
+      <c r="E147" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H147" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="25" t="s">
+      <c r="B148" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="D148" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="E148" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H148" s="25" t="s">
+      <c r="E148" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H148" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="24" t="s">
+      <c r="B149" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="E149" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H149" s="24" t="s">
+      <c r="E149" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H149" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="150" spans="2:8">
-      <c r="B150" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="25" t="s">
+      <c r="B150" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="D150" s="25" t="s">
+      <c r="D150" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="E150" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H150" s="25" t="s">
+      <c r="E150" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H150" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="24" t="s">
+      <c r="B151" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="E151" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H151" s="24" t="s">
+      <c r="E151" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H151" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="25" t="s">
+      <c r="B152" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="D152" s="25" t="s">
+      <c r="D152" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="E152" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H152" s="25" t="s">
+      <c r="E152" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H152" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="153" spans="2:8">
-      <c r="B153" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" s="24" t="s">
+      <c r="B153" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="E153" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H153" s="24" t="s">
+      <c r="E153" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H153" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="154" spans="2:8">
-      <c r="B154" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="25" t="s">
+      <c r="B154" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="E154" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G154" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H154" s="25" t="s">
+      <c r="E154" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H154" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="155" spans="2:8">
-      <c r="B155" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="24" t="s">
+      <c r="B155" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="E155" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H155" s="24" t="s">
+      <c r="E155" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H155" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="156" spans="2:8">
-      <c r="B156" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="25" t="s">
+      <c r="B156" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="D156" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H156" s="25" t="s">
+      <c r="E156" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H156" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="157" spans="2:8">
-      <c r="B157" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="24" t="s">
+      <c r="B157" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="E157" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G157" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H157" s="24" t="s">
+      <c r="E157" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H157" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="158" spans="2:8">
-      <c r="B158" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="25" t="s">
+      <c r="B158" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="E158" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H158" s="25" t="s">
+      <c r="E158" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H158" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="159" spans="2:8">
-      <c r="B159" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="24" t="s">
+      <c r="B159" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="D159" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="E159" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H159" s="24" t="s">
+      <c r="E159" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H159" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="160" spans="2:8">
-      <c r="B160" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="25" t="s">
+      <c r="B160" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="D160" s="25" t="s">
+      <c r="D160" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="E160" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H160" s="25" t="s">
+      <c r="E160" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G160" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H160" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="161" spans="2:8">
-      <c r="B161" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="24" t="s">
+      <c r="B161" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="E161" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F161" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H161" s="24" t="s">
+      <c r="E161" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H161" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="162" spans="2:8">
-      <c r="B162" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" s="25" t="s">
+      <c r="B162" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="D162" s="25" t="s">
+      <c r="D162" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="E162" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H162" s="25" t="s">
+      <c r="E162" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H162" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="163" spans="2:8">
-      <c r="B163" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="24" t="s">
+      <c r="B163" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="E163" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H163" s="24" t="s">
+      <c r="E163" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G163" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H163" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="25" t="s">
+      <c r="B164" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="D164" s="25" t="s">
+      <c r="D164" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="E164" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F164" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H164" s="25" t="s">
+      <c r="E164" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G164" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H164" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="165" spans="2:8">
-      <c r="B165" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="24" t="s">
+      <c r="B165" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="E165" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G165" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H165" s="24" t="s">
+      <c r="E165" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H165" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="166" spans="2:8">
-      <c r="B166" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="25" t="s">
+      <c r="B166" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="D166" s="25" t="s">
+      <c r="D166" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="E166" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F166" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H166" s="25" t="s">
+      <c r="E166" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H166" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="167" spans="2:8">
-      <c r="B167" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="24" t="s">
+      <c r="B167" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="E167" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F167" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H167" s="24" t="s">
+      <c r="E167" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H167" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="168" spans="2:8">
-      <c r="B168" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="25" t="s">
+      <c r="B168" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="D168" s="25" t="s">
+      <c r="D168" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="E168" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H168" s="25" t="s">
+      <c r="E168" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H168" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="169" spans="2:8">
-      <c r="B169" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="24" t="s">
+      <c r="B169" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="E169" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H169" s="24" t="s">
+      <c r="E169" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H169" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="170" spans="2:8">
-      <c r="B170" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="25" t="s">
+      <c r="B170" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="D170" s="25" t="s">
+      <c r="D170" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="E170" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H170" s="25" t="s">
+      <c r="E170" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H170" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="171" spans="2:8">
-      <c r="B171" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="24" t="s">
+      <c r="B171" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="E171" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H171" s="24" t="s">
+      <c r="E171" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H171" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="172" spans="2:8">
-      <c r="B172" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="B172" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="E172" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H172" s="25" t="s">
+      <c r="E172" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H172" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="173" spans="2:8">
-      <c r="B173" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173" s="24" t="s">
+      <c r="B173" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D173" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="E173" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H173" s="24" t="s">
+      <c r="E173" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H173" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="25" t="s">
+      <c r="B174" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="D174" s="25" t="s">
+      <c r="D174" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="E174" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F174" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H174" s="25" t="s">
+      <c r="E174" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H174" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="175" spans="2:8">
-      <c r="B175" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="24" t="s">
+      <c r="B175" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E175" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F175" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G175" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H175" s="24" t="s">
+      <c r="E175" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H175" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="2:8">
-      <c r="B176" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="25" t="s">
+      <c r="B176" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="D176" s="25" t="s">
+      <c r="D176" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="E176" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H176" s="25" t="s">
+      <c r="E176" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H176" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="177" spans="2:8">
-      <c r="B177" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C177" s="24" t="s">
+      <c r="B177" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="E177" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F177" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H177" s="24" t="s">
+      <c r="E177" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H177" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="178" spans="2:8">
-      <c r="B178" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="25" t="s">
+      <c r="B178" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="D178" s="25" t="s">
+      <c r="D178" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="E178" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H178" s="25" t="s">
+      <c r="E178" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H178" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="24" t="s">
+      <c r="B179" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="E179" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F179" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G179" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H179" s="24" t="s">
+      <c r="E179" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H179" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="180" spans="2:8">
-      <c r="B180" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C180" s="25" t="s">
+      <c r="B180" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="D180" s="25" t="s">
+      <c r="D180" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="E180" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F180" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H180" s="25" t="s">
+      <c r="E180" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H180" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="181" spans="2:8">
-      <c r="B181" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C181" s="24" t="s">
+      <c r="B181" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="E181" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F181" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G181" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H181" s="24" t="s">
+      <c r="E181" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H181" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="182" spans="2:8">
-      <c r="B182" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="25" t="s">
+      <c r="B182" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="D182" s="25" t="s">
+      <c r="D182" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="E182" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F182" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H182" s="25" t="s">
+      <c r="E182" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H182" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="183" spans="2:8">
-      <c r="B183" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C183" s="24" t="s">
+      <c r="B183" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="E183" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F183" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H183" s="24" t="s">
+      <c r="E183" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H183" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="184" spans="2:8">
-      <c r="B184" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" s="25" t="s">
+      <c r="B184" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="D184" s="25" t="s">
+      <c r="D184" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="E184" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G184" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H184" s="25" t="s">
+      <c r="E184" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H184" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="185" spans="2:8">
-      <c r="B185" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C185" s="24" t="s">
+      <c r="B185" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="E185" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F185" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H185" s="24" t="s">
+      <c r="E185" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H185" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="186" spans="2:8">
-      <c r="B186" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C186" s="25" t="s">
+      <c r="B186" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="D186" s="25" t="s">
+      <c r="D186" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="E186" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G186" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H186" s="25" t="s">
+      <c r="E186" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H186" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="187" spans="2:8">
-      <c r="B187" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187" s="24" t="s">
+      <c r="B187" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="E187" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F187" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G187" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H187" s="24" t="s">
+      <c r="E187" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H187" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="188" spans="2:8">
-      <c r="B188" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C188" s="25" t="s">
+      <c r="B188" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="D188" s="25" t="s">
+      <c r="D188" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="E188" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F188" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G188" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H188" s="25" t="s">
+      <c r="E188" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H188" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="189" spans="2:8">
-      <c r="B189" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C189" s="24" t="s">
+      <c r="B189" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="E189" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H189" s="24" t="s">
+      <c r="E189" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H189" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="190" spans="2:8">
-      <c r="B190" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C190" s="25" t="s">
+      <c r="B190" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="D190" s="25" t="s">
+      <c r="D190" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="E190" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F190" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G190" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H190" s="25" t="s">
+      <c r="E190" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H190" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="191" spans="2:8">
-      <c r="B191" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C191" s="24" t="s">
+      <c r="B191" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="E191" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G191" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H191" s="24" t="s">
+      <c r="E191" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H191" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="192" spans="2:8">
-      <c r="B192" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C192" s="25" t="s">
+      <c r="B192" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="D192" s="25" t="s">
+      <c r="D192" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="E192" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F192" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G192" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H192" s="25" t="s">
+      <c r="E192" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H192" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="193" spans="2:8">
-      <c r="B193" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C193" s="24" t="s">
+      <c r="B193" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="E193" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F193" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G193" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H193" s="24" t="s">
+      <c r="E193" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H193" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="194" spans="2:8">
-      <c r="B194" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C194" s="25" t="s">
+      <c r="B194" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="D194" s="25" t="s">
+      <c r="D194" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="E194" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F194" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G194" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H194" s="25" t="s">
+      <c r="E194" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H194" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:8">
-      <c r="B195" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C195" s="24" t="s">
+      <c r="B195" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D195" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="E195" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F195" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G195" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H195" s="24" t="s">
+      <c r="E195" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H195" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="196" spans="2:8">
-      <c r="B196" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C196" s="25" t="s">
+      <c r="B196" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="D196" s="25" t="s">
+      <c r="D196" s="24" t="s">
         <v>697</v>
       </c>
-      <c r="E196" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F196" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G196" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H196" s="25" t="s">
+      <c r="E196" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H196" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="197" spans="2:8">
-      <c r="B197" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" s="24" t="s">
+      <c r="B197" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="D197" s="24" t="s">
+      <c r="D197" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="E197" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F197" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G197" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H197" s="24" t="s">
+      <c r="E197" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H197" s="23" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12871,7 +15180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C36FA0-9882-46AA-BA0F-6F65D9744F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C0CF61-68B2-46A5-BA01-12D99B1CF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2148,7 +2148,7 @@
     <t>~geolocation</t>
   </si>
   <si>
-    <t>region</t>
+    <t>grid_node</t>
   </si>
   <si>
     <t>lat</t>
@@ -4648,7 +4648,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6632E1F-332E-1C99-A2BA-E3B8B744B9CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FAF88D-3DE8-42F4-C3B0-EFC485911BAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4703,7 +4703,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55059AF0-E7FA-DD6F-A3C8-BD6C01934C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF8C731-A214-8290-E6E6-07FE370EE83F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8910,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B65E10-9FB8-4782-BACE-EF1A50609C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137D5BD-954A-4163-BA76-38D84A6FB7A9}">
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10675,7 +10675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5898B38-ACE4-4465-811B-CFC0CDFAE0AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6A4767-63E1-4406-9616-526B8246D23A}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C0CF61-68B2-46A5-BA01-12D99B1CF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4BAAAD-9BD3-4E87-8473-4B391EA2746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="886">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -2148,7 +2148,7 @@
     <t>~geolocation</t>
   </si>
   <si>
-    <t>grid_node</t>
+    <t>region</t>
   </si>
   <si>
     <t>lat</t>
@@ -2623,6 +2623,81 @@
   </si>
   <si>
     <t>p_w98648381</t>
+  </si>
+  <si>
+    <t>rez_CHE_0</t>
+  </si>
+  <si>
+    <t>rez_CHE_1</t>
+  </si>
+  <si>
+    <t>rez_CHE_10</t>
+  </si>
+  <si>
+    <t>rez_CHE_11</t>
+  </si>
+  <si>
+    <t>rez_CHE_12</t>
+  </si>
+  <si>
+    <t>rez_CHE_13</t>
+  </si>
+  <si>
+    <t>rez_CHE_14</t>
+  </si>
+  <si>
+    <t>rez_CHE_15</t>
+  </si>
+  <si>
+    <t>rez_CHE_17</t>
+  </si>
+  <si>
+    <t>rez_CHE_18</t>
+  </si>
+  <si>
+    <t>rez_CHE_19</t>
+  </si>
+  <si>
+    <t>rez_CHE_2</t>
+  </si>
+  <si>
+    <t>rez_CHE_20</t>
+  </si>
+  <si>
+    <t>rez_CHE_21</t>
+  </si>
+  <si>
+    <t>rez_CHE_22</t>
+  </si>
+  <si>
+    <t>rez_CHE_23</t>
+  </si>
+  <si>
+    <t>rez_CHE_24</t>
+  </si>
+  <si>
+    <t>rez_CHE_25</t>
+  </si>
+  <si>
+    <t>rez_CHE_3</t>
+  </si>
+  <si>
+    <t>rez_CHE_4</t>
+  </si>
+  <si>
+    <t>rez_CHE_5</t>
+  </si>
+  <si>
+    <t>rez_CHE_6</t>
+  </si>
+  <si>
+    <t>rez_CHE_7</t>
+  </si>
+  <si>
+    <t>rez_CHE_8</t>
+  </si>
+  <si>
+    <t>rez_CHE_9</t>
   </si>
 </sst>
 </file>
@@ -4648,7 +4723,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FAF88D-3DE8-42F4-C3B0-EFC485911BAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9E0E34-C6C4-CF25-D0EF-4C064FA366A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4703,7 +4778,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF8C731-A214-8290-E6E6-07FE370EE83F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC5E48D-07C4-934A-CB72-364563B90B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8910,8 +8985,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137D5BD-954A-4163-BA76-38D84A6FB7A9}">
-  <dimension ref="A1:H159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FACBE0B-BF70-44B9-89F6-DD48595A6265}">
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10665,6 +10740,281 @@
         <v>47.555988773696292</v>
       </c>
     </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="C160" s="28">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D160" s="28">
+        <v>6.289697641356212</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C161" s="30">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D161" s="30">
+        <v>6.289697641356212</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="C162" s="28">
+        <v>47.486990272793413</v>
+      </c>
+      <c r="D162" s="28">
+        <v>7.5802325471187393</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="C163" s="30">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D163" s="30">
+        <v>8.225500000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="C164" s="28">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D164" s="28">
+        <v>8.225500000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="C165" s="30">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D165" s="30">
+        <v>8.225500000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="C166" s="28">
+        <v>47.486990272793413</v>
+      </c>
+      <c r="D166" s="28">
+        <v>8.225500000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="C167" s="30">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D167" s="30">
+        <v>8.8707674528812674</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="C168" s="28">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D168" s="28">
+        <v>8.8707674528812674</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="C169" s="30">
+        <v>47.486990272793413</v>
+      </c>
+      <c r="D169" s="30">
+        <v>8.8707674528812674</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="C170" s="28">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D170" s="28">
+        <v>9.5160349057625293</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="29" t="s">
+        <v>872</v>
+      </c>
+      <c r="C171" s="30">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D171" s="30">
+        <v>6.289697641356212</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="C172" s="28">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D172" s="28">
+        <v>9.5160349057625293</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="C173" s="30">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D173" s="30">
+        <v>9.5160349057625293</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="C174" s="28">
+        <v>47.486990272793413</v>
+      </c>
+      <c r="D174" s="28">
+        <v>9.5160349057625293</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="29" t="s">
+        <v>876</v>
+      </c>
+      <c r="C175" s="30">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D175" s="30">
+        <v>10.161302358643791</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="27" t="s">
+        <v>877</v>
+      </c>
+      <c r="C176" s="28">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D176" s="28">
+        <v>10.161302358643791</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="C177" s="30">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D177" s="30">
+        <v>10.161302358643791</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="C178" s="28">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D178" s="28">
+        <v>6.9349650942374748</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="C179" s="30">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D179" s="30">
+        <v>6.9349650942374748</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="C180" s="28">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D180" s="28">
+        <v>6.9349650942374748</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="29" t="s">
+        <v>882</v>
+      </c>
+      <c r="C181" s="30">
+        <v>47.486990272793413</v>
+      </c>
+      <c r="D181" s="30">
+        <v>6.9349650942374748</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="C182" s="28">
+        <v>46.138009727206594</v>
+      </c>
+      <c r="D182" s="28">
+        <v>7.5802325471187393</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="C183" s="30">
+        <v>46.587669909068872</v>
+      </c>
+      <c r="D183" s="30">
+        <v>7.5802325471187393</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="27" t="s">
+        <v>885</v>
+      </c>
+      <c r="C184" s="28">
+        <v>47.037330090931135</v>
+      </c>
+      <c r="D184" s="28">
+        <v>7.5802325471187393</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -10675,7 +11025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6A4767-63E1-4406-9616-526B8246D23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18FA75C-582F-4455-9E8C-EAEAC884BB4E}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA5E7A-1DD4-4B5A-9AC1-93EFCB6392F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8982629-35CA-4B3E-876B-A33702294D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA1B7C6-23CB-83DD-08D6-27229BB1CA07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D030D268-158C-A3DD-C590-7B2DD0F7D81B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1090EA2E-7759-4538-9A81-751C5D4CDB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C47DBB-669A-47EF-A7DD-3B7A08B41808}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8982629-35CA-4B3E-876B-A33702294D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BEA10F-EB27-41BB-8DA5-ED6E079F60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D030D268-158C-A3DD-C590-7B2DD0F7D81B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230BB146-EBEC-13A1-B39F-9902569C3A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C47DBB-669A-47EF-A7DD-3B7A08B41808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0EC89A-524F-4549-A7DD-A8F15F4B7620}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BEA10F-EB27-41BB-8DA5-ED6E079F60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0C38C-9ABA-48A7-BF52-4BB7D44AB416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230BB146-EBEC-13A1-B39F-9902569C3A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D5CB6D-B7B4-D069-C76E-88634630403A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0EC89A-524F-4549-A7DD-A8F15F4B7620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1009B046-49BD-4BBD-8C75-13014F74E975}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0C38C-9ABA-48A7-BF52-4BB7D44AB416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0876B23C-7CE6-402F-B12F-B2298701C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D5CB6D-B7B4-D069-C76E-88634630403A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77353B75-1030-6C12-69C2-68254ADC8298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1009B046-49BD-4BBD-8C75-13014F74E975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57136FDA-DCBC-4942-BB11-521BDEF25698}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0876B23C-7CE6-402F-B12F-B2298701C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8178BCFC-62A8-4B41-8BBE-19879481527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77353B75-1030-6C12-69C2-68254ADC8298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9400DACD-9199-18AE-5C57-769BDF55D0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57136FDA-DCBC-4942-BB11-521BDEF25698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71DB58-1DED-4A2A-B7EB-F2B0A70547BF}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8178BCFC-62A8-4B41-8BBE-19879481527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A418A-6E6B-4AE5-A54B-4A78AAD7161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9400DACD-9199-18AE-5C57-769BDF55D0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD15B5BE-CF91-949F-CB45-9353EBE5CFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71DB58-1DED-4A2A-B7EB-F2B0A70547BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D92A06-FB78-47BB-8A5D-672B436FDFF7}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A418A-6E6B-4AE5-A54B-4A78AAD7161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2577CF6C-2716-4DB9-B74F-A5FD78DD8CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD15B5BE-CF91-949F-CB45-9353EBE5CFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E82D18-E0A4-2AFB-12D9-246F4AD2E7FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D92A06-FB78-47BB-8A5D-672B436FDFF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF244950-6C8A-4A66-8025-128C060D31CD}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2577CF6C-2716-4DB9-B74F-A5FD78DD8CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F934C5D-E342-4DEF-A9EE-9CABC1C0EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E82D18-E0A4-2AFB-12D9-246F4AD2E7FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387A52FC-1551-02A6-E17B-F2E996F18B35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF244950-6C8A-4A66-8025-128C060D31CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395EC1D-C60B-40E3-ABBD-67C390BB6164}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F934C5D-E342-4DEF-A9EE-9CABC1C0EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099C58A-FE68-405E-9B1F-A097204369C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387A52FC-1551-02A6-E17B-F2E996F18B35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC84D80-50FD-6584-CAAD-49AF29D6F0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395EC1D-C60B-40E3-ABBD-67C390BB6164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D625ED-6E26-4D87-B7F4-F745CDCFD46B}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099C58A-FE68-405E-9B1F-A097204369C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C05BA-4AF9-456D-9B5C-EB6CCA251217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC84D80-50FD-6584-CAAD-49AF29D6F0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47247695-3CD7-CCB5-4B9C-E0F79B3BCD0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D625ED-6E26-4D87-B7F4-F745CDCFD46B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C64FAD-ECBB-474B-8817-B930D49449BE}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C05BA-4AF9-456D-9B5C-EB6CCA251217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED9DF4A-4C5F-41E1-8007-BD1C12098381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47247695-3CD7-CCB5-4B9C-E0F79B3BCD0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B05F09F-3F8D-569D-984E-F32DD7F4FE52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4687,7 +4687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C64FAD-ECBB-474B-8817-B930D49449BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A6C064-D402-4A70-B8B6-356588783B6C}">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F994F3-AD2A-4DC5-907F-A7C0B667E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388376DB-B81B-40E5-B5C0-B5345489600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4571,7 +4571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3801C0E-6B29-4090-BC28-FF133E3B28DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747FF9E-A6E3-41C2-8597-40DC2BBBAC44}">
   <dimension ref="B3:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SysSettings.xlsx
+++ b/VerveStacks_CHE_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388376DB-B81B-40E5-B5C0-B5345489600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F101EF-4ECC-4CCC-8F5B-CE852A3FC1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4571,7 +4571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747FF9E-A6E3-41C2-8597-40DC2BBBAC44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47C7549-C8A1-479B-B0E7-060E0B595B95}">
   <dimension ref="B3:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
